--- a/mf-intelligence/data/processed/quant/quant_Small_Cap_Fund_Equity_Holdings_Comparison.xlsx
+++ b/mf-intelligence/data/processed/quant/quant_Small_Cap_Fund_Equity_Holdings_Comparison.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H103"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,17 +451,17 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>Jan_2026</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Dec_2025</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Nov_2025</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Oct_2025</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -492,19 +492,19 @@
         </is>
       </c>
       <c r="D2" t="n">
+        <v>9.461577999999999</v>
+      </c>
+      <c r="E2" t="n">
         <v>9.789971</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>10.160455</v>
       </c>
-      <c r="F2" t="n">
-        <v>9.529057999999999</v>
-      </c>
       <c r="G2" t="n">
-        <v>-0.3704840000000011</v>
+        <v>-0.3283930000000002</v>
       </c>
       <c r="H2" t="n">
-        <v>0.2609130000000004</v>
+        <v>-0.6988770000000013</v>
       </c>
     </row>
     <row r="3">
@@ -524,19 +524,19 @@
         </is>
       </c>
       <c r="D3" t="n">
+        <v>5.621754</v>
+      </c>
+      <c r="E3" t="n">
         <v>5.990163</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>6.139252</v>
       </c>
-      <c r="F3" t="n">
-        <v>6.083792</v>
-      </c>
       <c r="G3" t="n">
-        <v>-0.149089</v>
+        <v>-0.3684089999999998</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.09362899999999996</v>
+        <v>-0.5174979999999998</v>
       </c>
     </row>
     <row r="4">
@@ -556,19 +556,19 @@
         </is>
       </c>
       <c r="D4" t="n">
+        <v>4.135782</v>
+      </c>
+      <c r="E4" t="n">
         <v>4.019464</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>3.925428</v>
       </c>
-      <c r="F4" t="n">
-        <v>4.055724</v>
-      </c>
       <c r="G4" t="n">
-        <v>0.09403600000000001</v>
+        <v>0.1163179999999997</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.03625999999999951</v>
+        <v>0.2103539999999997</v>
       </c>
     </row>
     <row r="5">
@@ -588,19 +588,19 @@
         </is>
       </c>
       <c r="D5" t="n">
+        <v>3.517004</v>
+      </c>
+      <c r="E5" t="n">
         <v>3.176445</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>3.337132</v>
       </c>
-      <c r="F5" t="n">
-        <v>3.24217</v>
-      </c>
       <c r="G5" t="n">
-        <v>-0.1606869999999998</v>
+        <v>0.3405589999999998</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.06572500000000003</v>
+        <v>0.179872</v>
       </c>
     </row>
     <row r="6">
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="D6" t="n">
+        <v>2.987539</v>
+      </c>
+      <c r="E6" t="n">
         <v>2.901156</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>2.954255</v>
       </c>
-      <c r="F6" t="n">
-        <v>3.127078</v>
-      </c>
       <c r="G6" t="n">
-        <v>-0.05309900000000001</v>
+        <v>0.0863830000000001</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.2259220000000002</v>
+        <v>0.03328400000000009</v>
       </c>
     </row>
     <row r="7">
@@ -652,30 +652,30 @@
         </is>
       </c>
       <c r="D7" t="n">
+        <v>2.975448</v>
+      </c>
+      <c r="E7" t="n">
         <v>2.892171</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>2.108147</v>
       </c>
-      <c r="F7" t="n">
-        <v>1.899245</v>
-      </c>
       <c r="G7" t="n">
-        <v>0.7840239999999996</v>
+        <v>0.08327700000000027</v>
       </c>
       <c r="H7" t="n">
-        <v>0.9929259999999998</v>
+        <v>0.8673009999999999</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>INE463V01026</t>
+          <t>INE202B01038</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Anand Rathi Wealth Limited</t>
+          <t>Piramal Finance Ltd</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -684,30 +684,30 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>2.691139</v>
+        <v>2.760392</v>
       </c>
       <c r="E8" t="n">
-        <v>2.466001</v>
+        <v>2.391623</v>
       </c>
       <c r="F8" t="n">
-        <v>2.607372</v>
+        <v>2.225576</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2251380000000003</v>
+        <v>0.3687689999999999</v>
       </c>
       <c r="H8" t="n">
-        <v>0.08376700000000037</v>
+        <v>0.5348159999999997</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>INE202B01038</t>
+          <t>INE463V01026</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Piramal Finance Ltd</t>
+          <t>Anand Rathi Wealth Limited</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -716,30 +716,30 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>2.391623</v>
+        <v>2.500822</v>
       </c>
       <c r="E9" t="n">
-        <v>2.225576</v>
+        <v>2.691139</v>
       </c>
       <c r="F9" t="n">
-        <v>1.597818</v>
+        <v>2.466001</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1660469999999998</v>
+        <v>-0.1903170000000003</v>
       </c>
       <c r="H9" t="n">
-        <v>0.7938050000000001</v>
+        <v>0.03482099999999999</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>INE914M01019</t>
+          <t>INE205C01021</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Aster DM Healthcare Limited</t>
+          <t>Poly Medicure Limited</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -748,30 +748,30 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>2.341344</v>
+        <v>2.419872</v>
       </c>
       <c r="E10" t="n">
-        <v>2.493567</v>
+        <v>2.058688</v>
       </c>
       <c r="F10" t="n">
-        <v>2.512905</v>
+        <v>2.179082</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.1522230000000002</v>
+        <v>0.3611839999999997</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.1715610000000001</v>
+        <v>0.2407899999999996</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>INE00E101023</t>
+          <t>INE781S01027</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Bikaji Foods International Limited</t>
+          <t>Ventive Hospitality Limited</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -780,30 +780,30 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>2.309177</v>
+        <v>2.288202</v>
       </c>
       <c r="E11" t="n">
-        <v>2.180428</v>
+        <v>2.151296</v>
       </c>
       <c r="F11" t="n">
-        <v>2.19695</v>
+        <v>2.011701</v>
       </c>
       <c r="G11" t="n">
-        <v>0.128749</v>
+        <v>0.1369060000000002</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1122269999999999</v>
+        <v>0.2765010000000001</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>INE781S01027</t>
+          <t>INE914M01019</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Ventive Hospitality Limited</t>
+          <t>Aster DM Healthcare Limited</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -812,30 +812,30 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>2.151296</v>
+        <v>2.279483</v>
       </c>
       <c r="E12" t="n">
-        <v>2.011701</v>
+        <v>2.341344</v>
       </c>
       <c r="F12" t="n">
-        <v>2.014287</v>
+        <v>2.493567</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1395949999999999</v>
+        <v>-0.06186099999999994</v>
       </c>
       <c r="H12" t="n">
-        <v>0.1370089999999999</v>
+        <v>-0.2140840000000002</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>INE205C01021</t>
+          <t>INE548A01028</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Poly Medicure Limited</t>
+          <t>HFCL Limited</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -844,30 +844,30 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>2.058688</v>
+        <v>2.254241</v>
       </c>
       <c r="E13" t="n">
-        <v>2.179082</v>
+        <v>2.047787</v>
       </c>
       <c r="F13" t="n">
-        <v>2.163527</v>
+        <v>1.862096</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.1203940000000001</v>
+        <v>0.2064539999999999</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.1048390000000001</v>
+        <v>0.392145</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>INE548A01028</t>
+          <t>INE00E101023</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>HFCL Limited</t>
+          <t>Bikaji Foods International Limited</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -876,30 +876,30 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>2.047787</v>
+        <v>2.083482</v>
       </c>
       <c r="E14" t="n">
-        <v>1.862096</v>
+        <v>2.309177</v>
       </c>
       <c r="F14" t="n">
-        <v>1.821458</v>
+        <v>2.180428</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1856910000000001</v>
+        <v>-0.225695</v>
       </c>
       <c r="H14" t="n">
-        <v>0.226329</v>
+        <v>-0.09694599999999998</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>INE095N01031</t>
+          <t>INE180C01042</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>National Building Construction Corp</t>
+          <t>Capri Global Capital Limited</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -908,19 +908,19 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>2.0035</v>
+        <v>1.837088</v>
       </c>
       <c r="E15" t="n">
-        <v>1.895408</v>
+        <v>1.757263</v>
       </c>
       <c r="F15" t="n">
-        <v>1.653301</v>
+        <v>1.774204</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1080919999999999</v>
+        <v>0.07982500000000003</v>
       </c>
       <c r="H15" t="n">
-        <v>0.3501989999999999</v>
+        <v>0.06288400000000016</v>
       </c>
     </row>
     <row r="16">
@@ -940,30 +940,30 @@
         </is>
       </c>
       <c r="D16" t="n">
+        <v>1.821111</v>
+      </c>
+      <c r="E16" t="n">
         <v>1.856074</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>1.865513</v>
       </c>
-      <c r="F16" t="n">
-        <v>2.007525</v>
-      </c>
       <c r="G16" t="n">
-        <v>-0.009438999999999975</v>
+        <v>-0.03496300000000008</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.1514509999999998</v>
+        <v>-0.04440200000000005</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>INE364U01010</t>
+          <t>INE095N01031</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Adani Green Energy Limited</t>
+          <t>National Building Construction Corp</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -972,30 +972,30 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>1.852774</v>
+        <v>1.769144</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>2.0035</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>1.895408</v>
       </c>
       <c r="G17" t="n">
-        <v>1.852774</v>
+        <v>-0.2343559999999998</v>
       </c>
       <c r="H17" t="n">
-        <v>1.852774</v>
+        <v>-0.1262639999999999</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>INE180C01042</t>
+          <t>INE364U01010</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Capri Global Capital Limited</t>
+          <t>Adani Green Energy Limited</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1004,30 +1004,30 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>1.757263</v>
+        <v>1.691998</v>
       </c>
       <c r="E18" t="n">
-        <v>1.774204</v>
+        <v>1.852774</v>
       </c>
       <c r="F18" t="n">
-        <v>1.893613</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.01694099999999987</v>
+        <v>-0.160776</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.13635</v>
+        <v>1.691998</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>INE14LE01019</t>
+          <t>INE462A01022</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Aditya Birla Lifestyle Brands Limited</t>
+          <t>Bayer Cropscience Ltd</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1036,30 +1036,30 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>1.711022</v>
+        <v>1.69164</v>
       </c>
       <c r="E19" t="n">
-        <v>1.568841</v>
+        <v>1.587268</v>
       </c>
       <c r="F19" t="n">
-        <v>1.410798</v>
+        <v>1.601522</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1421810000000001</v>
+        <v>0.1043720000000001</v>
       </c>
       <c r="H19" t="n">
-        <v>0.300224</v>
+        <v>0.09011800000000014</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>INE228A01035</t>
+          <t>INE034A01011</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Usha Martin Limited</t>
+          <t>Arvind Limited</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1068,30 +1068,30 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>1.633434</v>
+        <v>1.688801</v>
       </c>
       <c r="E20" t="n">
-        <v>1.519876</v>
+        <v>1.576053</v>
       </c>
       <c r="F20" t="n">
-        <v>1.633004</v>
+        <v>1.729905</v>
       </c>
       <c r="G20" t="n">
-        <v>0.113558</v>
+        <v>0.1127480000000001</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0004300000000001525</v>
+        <v>-0.04110400000000003</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>INE462A01022</t>
+          <t>INE807F01027</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Bayer Cropscience Ltd</t>
+          <t>Sequent Scientific Limited</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1100,30 +1100,30 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>1.587268</v>
+        <v>1.673107</v>
       </c>
       <c r="E21" t="n">
-        <v>1.601522</v>
+        <v>1.575507</v>
       </c>
       <c r="F21" t="n">
-        <v>1.579491</v>
+        <v>1.666675</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.01425399999999999</v>
+        <v>0.09759999999999991</v>
       </c>
       <c r="H21" t="n">
-        <v>0.007776999999999923</v>
+        <v>0.006431999999999993</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>INE034A01011</t>
+          <t>INE228A01035</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Arvind Limited</t>
+          <t>Usha Martin Limited</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1132,30 +1132,30 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>1.576053</v>
+        <v>1.601505</v>
       </c>
       <c r="E22" t="n">
-        <v>1.729905</v>
+        <v>1.633434</v>
       </c>
       <c r="F22" t="n">
-        <v>1.477136</v>
+        <v>1.519876</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.1538520000000001</v>
+        <v>-0.0319290000000001</v>
       </c>
       <c r="H22" t="n">
-        <v>0.09891699999999992</v>
+        <v>0.08162899999999995</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>INE807F01027</t>
+          <t>INE14LE01019</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Sequent Scientific Limited</t>
+          <t>Aditya Birla Lifestyle Brands Limited</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1164,19 +1164,19 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>1.575507</v>
+        <v>1.532076</v>
       </c>
       <c r="E23" t="n">
-        <v>1.666675</v>
+        <v>1.711022</v>
       </c>
       <c r="F23" t="n">
-        <v>1.583105</v>
+        <v>1.568841</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.09116799999999992</v>
+        <v>-0.178946</v>
       </c>
       <c r="H23" t="n">
-        <v>-0.007597999999999994</v>
+        <v>-0.03676499999999994</v>
       </c>
     </row>
     <row r="24">
@@ -1196,30 +1196,30 @@
         </is>
       </c>
       <c r="D24" t="n">
+        <v>1.524076</v>
+      </c>
+      <c r="E24" t="n">
         <v>1.53146</v>
       </c>
-      <c r="E24" t="n">
+      <c r="F24" t="n">
         <v>1.50806</v>
       </c>
-      <c r="F24" t="n">
-        <v>1.494216</v>
-      </c>
       <c r="G24" t="n">
-        <v>0.02340000000000009</v>
+        <v>-0.007384000000000057</v>
       </c>
       <c r="H24" t="n">
-        <v>0.03724400000000005</v>
+        <v>0.01601600000000003</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>INE842C01021</t>
+          <t>INE768C01028</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Minda Corporation Ltd</t>
+          <t>Zydus Wellness Ltd</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1228,30 +1228,30 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>1.407774</v>
+        <v>1.478918</v>
       </c>
       <c r="E25" t="n">
-        <v>1.407111</v>
+        <v>1.378831</v>
       </c>
       <c r="F25" t="n">
-        <v>1.349653</v>
+        <v>1.288915</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0006630000000000802</v>
+        <v>0.100087</v>
       </c>
       <c r="H25" t="n">
-        <v>0.05812100000000009</v>
+        <v>0.1900029999999999</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>INE768C01028</t>
+          <t>INE842C01021</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Zydus Wellness Ltd</t>
+          <t>Minda Corporation Ltd</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1260,19 +1260,19 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>1.378831</v>
+        <v>1.470238</v>
       </c>
       <c r="E26" t="n">
-        <v>1.288915</v>
+        <v>1.407774</v>
       </c>
       <c r="F26" t="n">
-        <v>1.411446</v>
+        <v>1.407111</v>
       </c>
       <c r="G26" t="n">
-        <v>0.08991599999999988</v>
+        <v>0.06246399999999985</v>
       </c>
       <c r="H26" t="n">
-        <v>-0.03261500000000006</v>
+        <v>0.06312699999999993</v>
       </c>
     </row>
     <row r="27">
@@ -1292,30 +1292,30 @@
         </is>
       </c>
       <c r="D27" t="n">
+        <v>1.250535</v>
+      </c>
+      <c r="E27" t="n">
         <v>1.209726</v>
       </c>
-      <c r="E27" t="n">
+      <c r="F27" t="n">
         <v>1.160837</v>
       </c>
-      <c r="F27" t="n">
-        <v>1.081991</v>
-      </c>
       <c r="G27" t="n">
-        <v>0.04888900000000018</v>
+        <v>0.04080899999999987</v>
       </c>
       <c r="H27" t="n">
-        <v>0.1277350000000002</v>
+        <v>0.08969800000000006</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>INE191B01025</t>
+          <t>INE625G01013</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Welspun Corp Limited</t>
+          <t>Welspun Enterprises Limited</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1324,30 +1324,30 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>1.181058</v>
+        <v>1.155854</v>
       </c>
       <c r="E28" t="n">
-        <v>1.226112</v>
+        <v>1.17211</v>
       </c>
       <c r="F28" t="n">
-        <v>1.367499</v>
+        <v>1.169717</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.04505400000000015</v>
+        <v>-0.01625600000000005</v>
       </c>
       <c r="H28" t="n">
-        <v>-0.1864410000000001</v>
+        <v>-0.01386299999999996</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>INE625G01013</t>
+          <t>INE191B01025</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Welspun Enterprises Limited</t>
+          <t>Welspun Corp Limited</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1356,30 +1356,30 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>1.17211</v>
+        <v>1.150281</v>
       </c>
       <c r="E29" t="n">
-        <v>1.169717</v>
+        <v>1.181058</v>
       </c>
       <c r="F29" t="n">
-        <v>1.233458</v>
+        <v>1.226112</v>
       </c>
       <c r="G29" t="n">
-        <v>0.002393000000000089</v>
+        <v>-0.03077699999999983</v>
       </c>
       <c r="H29" t="n">
-        <v>-0.06134799999999996</v>
+        <v>-0.07583099999999998</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>INE263M01029</t>
+          <t>INE939A01011</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>KEYSTONE REALTORS LIMITED</t>
+          <t>Strides Pharma Science Ltd</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1388,30 +1388,30 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>1.099763</v>
+        <v>1.138823</v>
       </c>
       <c r="E30" t="n">
-        <v>1.114892</v>
+        <v>1.074915</v>
       </c>
       <c r="F30" t="n">
-        <v>1.150978</v>
+        <v>0.972723</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.01512899999999995</v>
+        <v>0.06390799999999985</v>
       </c>
       <c r="H30" t="n">
-        <v>-0.05121500000000001</v>
+        <v>0.1660999999999999</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>INE939A01011</t>
+          <t>INE263M01029</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Strides Pharma Science Ltd</t>
+          <t>KEYSTONE REALTORS LIMITED</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1420,19 +1420,19 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>1.074915</v>
+        <v>1.132126</v>
       </c>
       <c r="E31" t="n">
-        <v>0.972723</v>
+        <v>1.099763</v>
       </c>
       <c r="F31" t="n">
-        <v>1.023713</v>
+        <v>1.114892</v>
       </c>
       <c r="G31" t="n">
-        <v>0.1021920000000001</v>
+        <v>0.03236299999999992</v>
       </c>
       <c r="H31" t="n">
-        <v>0.05120199999999997</v>
+        <v>0.01723399999999997</v>
       </c>
     </row>
     <row r="32">
@@ -1452,19 +1452,19 @@
         </is>
       </c>
       <c r="D32" t="n">
+        <v>1.093847</v>
+      </c>
+      <c r="E32" t="n">
         <v>1.068398</v>
       </c>
-      <c r="E32" t="n">
+      <c r="F32" t="n">
         <v>0.876549</v>
       </c>
-      <c r="F32" t="n">
-        <v>0.785538</v>
-      </c>
       <c r="G32" t="n">
-        <v>0.1918489999999999</v>
+        <v>0.02544900000000005</v>
       </c>
       <c r="H32" t="n">
-        <v>0.28286</v>
+        <v>0.217298</v>
       </c>
     </row>
     <row r="33">
@@ -1484,19 +1484,19 @@
         </is>
       </c>
       <c r="D33" t="n">
+        <v>1.056762</v>
+      </c>
+      <c r="E33" t="n">
         <v>1.062032</v>
       </c>
-      <c r="E33" t="n">
+      <c r="F33" t="n">
         <v>1.064494</v>
       </c>
-      <c r="F33" t="n">
-        <v>1.063732</v>
-      </c>
       <c r="G33" t="n">
-        <v>-0.002461999999999964</v>
+        <v>-0.005270000000000108</v>
       </c>
       <c r="H33" t="n">
-        <v>-0.001699999999999813</v>
+        <v>-0.007732000000000072</v>
       </c>
     </row>
     <row r="34">
@@ -1516,30 +1516,30 @@
         </is>
       </c>
       <c r="D34" t="n">
+        <v>0.980885</v>
+      </c>
+      <c r="E34" t="n">
         <v>1.017995</v>
       </c>
-      <c r="E34" t="n">
+      <c r="F34" t="n">
         <v>1.037423</v>
       </c>
-      <c r="F34" t="n">
-        <v>0.862168</v>
-      </c>
       <c r="G34" t="n">
-        <v>-0.019428</v>
+        <v>-0.03710999999999998</v>
       </c>
       <c r="H34" t="n">
-        <v>0.1558269999999999</v>
+        <v>-0.05653799999999998</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>INE126A01031</t>
+          <t>INE068V01023</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>EID Parry (India) Ltd</t>
+          <t>Gland Pharma Limited</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1548,19 +1548,19 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>0.951082</v>
+        <v>0.928073</v>
       </c>
       <c r="E35" t="n">
-        <v>0.935492</v>
+        <v>0.795698</v>
       </c>
       <c r="F35" t="n">
-        <v>0.9624740000000001</v>
+        <v>0.802693</v>
       </c>
       <c r="G35" t="n">
-        <v>0.01558999999999999</v>
+        <v>0.132375</v>
       </c>
       <c r="H35" t="n">
-        <v>-0.01139200000000007</v>
+        <v>0.12538</v>
       </c>
     </row>
     <row r="36">
@@ -1580,30 +1580,30 @@
         </is>
       </c>
       <c r="D36" t="n">
+        <v>0.925366</v>
+      </c>
+      <c r="E36" t="n">
         <v>0.932186</v>
       </c>
-      <c r="E36" t="n">
+      <c r="F36" t="n">
         <v>0.983209</v>
       </c>
-      <c r="F36" t="n">
-        <v>1.089752</v>
-      </c>
       <c r="G36" t="n">
-        <v>-0.05102300000000004</v>
+        <v>-0.006819999999999937</v>
       </c>
       <c r="H36" t="n">
-        <v>-0.1575660000000001</v>
+        <v>-0.05784299999999998</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>INE599M01018</t>
+          <t>INE126A01031</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Just Dial Limited</t>
+          <t>EID Parry (India) Ltd</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1612,30 +1612,30 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>0.917497</v>
+        <v>0.922881</v>
       </c>
       <c r="E37" t="n">
-        <v>0.920833</v>
+        <v>0.951082</v>
       </c>
       <c r="F37" t="n">
-        <v>0.956677</v>
+        <v>0.935492</v>
       </c>
       <c r="G37" t="n">
-        <v>-0.003336000000000006</v>
+        <v>-0.02820100000000003</v>
       </c>
       <c r="H37" t="n">
-        <v>-0.03917999999999999</v>
+        <v>-0.01261100000000004</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>INE191A01027</t>
+          <t>INE599M01018</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Orchid Pharma Limited</t>
+          <t>Just Dial Limited</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1644,30 +1644,30 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>0.883169</v>
+        <v>0.919845</v>
       </c>
       <c r="E38" t="n">
-        <v>0.957194</v>
+        <v>0.917497</v>
       </c>
       <c r="F38" t="n">
-        <v>0.825231</v>
+        <v>0.920833</v>
       </c>
       <c r="G38" t="n">
-        <v>-0.07402500000000001</v>
+        <v>0.002348000000000017</v>
       </c>
       <c r="H38" t="n">
-        <v>0.05793799999999993</v>
+        <v>-0.0009879999999999889</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>INE101I01011</t>
+          <t>INE191A01027</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Afcons Infrastructure Limited</t>
+          <t>Orchid Pharma Limited</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1676,30 +1676,30 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>0.862704</v>
+        <v>0.884838</v>
       </c>
       <c r="E39" t="n">
-        <v>0.889553</v>
+        <v>0.883169</v>
       </c>
       <c r="F39" t="n">
-        <v>0.975479</v>
+        <v>0.957194</v>
       </c>
       <c r="G39" t="n">
-        <v>-0.02684900000000001</v>
+        <v>0.001669000000000032</v>
       </c>
       <c r="H39" t="n">
-        <v>-0.112775</v>
+        <v>-0.07235599999999998</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>INE780C01023</t>
+          <t>INE0CZ201020</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>JM FINANCIAL LIMITED</t>
+          <t>ANTHEM BIOSCIENCES LIMITED</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1708,30 +1708,30 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>0.842314</v>
+        <v>0.806009</v>
       </c>
       <c r="E40" t="n">
-        <v>0.805246</v>
+        <v>0.805594</v>
       </c>
       <c r="F40" t="n">
-        <v>0.898709</v>
+        <v>0.774801</v>
       </c>
       <c r="G40" t="n">
-        <v>0.03706799999999999</v>
+        <v>0.0004149999999999432</v>
       </c>
       <c r="H40" t="n">
-        <v>-0.05639499999999997</v>
+        <v>0.03120800000000001</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>INE0CZ201020</t>
+          <t>INE101I01011</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>ANTHEM BIOSCIENCES LIMITED</t>
+          <t>Afcons Infrastructure Limited</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1740,30 +1740,30 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>0.805594</v>
+        <v>0.804213</v>
       </c>
       <c r="E41" t="n">
-        <v>0.774801</v>
+        <v>0.862704</v>
       </c>
       <c r="F41" t="n">
-        <v>0.857334</v>
+        <v>0.889553</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03079300000000007</v>
+        <v>-0.05849100000000007</v>
       </c>
       <c r="H41" t="n">
-        <v>-0.05174000000000001</v>
+        <v>-0.08534000000000008</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>INE068V01023</t>
+          <t>INE780C01023</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Gland Pharma Limited</t>
+          <t>JM FINANCIAL LIMITED</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1772,19 +1772,19 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>0.795698</v>
+        <v>0.787061</v>
       </c>
       <c r="E42" t="n">
-        <v>0.802693</v>
+        <v>0.842314</v>
       </c>
       <c r="F42" t="n">
-        <v>0.87027</v>
+        <v>0.805246</v>
       </c>
       <c r="G42" t="n">
-        <v>-0.006994999999999973</v>
+        <v>-0.055253</v>
       </c>
       <c r="H42" t="n">
-        <v>-0.07457199999999997</v>
+        <v>-0.01818500000000001</v>
       </c>
     </row>
     <row r="43">
@@ -1804,30 +1804,30 @@
         </is>
       </c>
       <c r="D43" t="n">
+        <v>0.620131</v>
+      </c>
+      <c r="E43" t="n">
         <v>0.584853</v>
-      </c>
-      <c r="E43" t="n">
-        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.584853</v>
+        <v>0.03527800000000003</v>
       </c>
       <c r="H43" t="n">
-        <v>0.584853</v>
+        <v>0.620131</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>INE255A01020</t>
+          <t>INE03Q201024</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>EPL Limited</t>
+          <t>Alivus Life Sciences</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1836,30 +1836,30 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>0.570764</v>
+        <v>0.612621</v>
       </c>
       <c r="E44" t="n">
-        <v>0.534283</v>
+        <v>0.537195</v>
       </c>
       <c r="F44" t="n">
-        <v>0.521818</v>
+        <v>0.519865</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0364810000000001</v>
+        <v>0.07542599999999999</v>
       </c>
       <c r="H44" t="n">
-        <v>0.04894600000000005</v>
+        <v>0.09275599999999995</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>INE03Q201024</t>
+          <t>INE769A01020</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Alivus Life Sciences</t>
+          <t>Aarti Industries Ltd</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1868,19 +1868,19 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>0.537195</v>
+        <v>0.566976</v>
       </c>
       <c r="E45" t="n">
-        <v>0.519865</v>
+        <v>0.524012</v>
       </c>
       <c r="F45" t="n">
-        <v>0.370064</v>
+        <v>0.460778</v>
       </c>
       <c r="G45" t="n">
-        <v>0.01732999999999996</v>
+        <v>0.042964</v>
       </c>
       <c r="H45" t="n">
-        <v>0.167131</v>
+        <v>0.106198</v>
       </c>
     </row>
     <row r="46">
@@ -1900,30 +1900,30 @@
         </is>
       </c>
       <c r="D46" t="n">
+        <v>0.561349</v>
+      </c>
+      <c r="E46" t="n">
         <v>0.53332</v>
       </c>
-      <c r="E46" t="n">
+      <c r="F46" t="n">
         <v>0.587969</v>
       </c>
-      <c r="F46" t="n">
-        <v>0.515339</v>
-      </c>
       <c r="G46" t="n">
-        <v>-0.05464899999999995</v>
+        <v>0.02802899999999997</v>
       </c>
       <c r="H46" t="n">
-        <v>0.01798100000000002</v>
+        <v>-0.02661999999999998</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>INE192B01031</t>
+          <t>INE821I01022</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Welspun Living Limited</t>
+          <t>IRB Infrastructure Developers Limited</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1932,30 +1932,30 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>0.531398</v>
+        <v>0.556196</v>
       </c>
       <c r="E47" t="n">
-        <v>0.59794</v>
+        <v>0.4749</v>
       </c>
       <c r="F47" t="n">
-        <v>0.515202</v>
+        <v>0.478426</v>
       </c>
       <c r="G47" t="n">
-        <v>-0.06654199999999999</v>
+        <v>0.08129600000000003</v>
       </c>
       <c r="H47" t="n">
-        <v>0.01619599999999999</v>
+        <v>0.07777000000000001</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>INE769A01020</t>
+          <t>INE255A01020</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Aarti Industries Ltd</t>
+          <t>EPL Limited</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1964,30 +1964,30 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>0.524012</v>
+        <v>0.553644</v>
       </c>
       <c r="E48" t="n">
-        <v>0.460778</v>
+        <v>0.570764</v>
       </c>
       <c r="F48" t="n">
-        <v>0.452921</v>
+        <v>0.534283</v>
       </c>
       <c r="G48" t="n">
-        <v>0.06323400000000001</v>
+        <v>-0.01712000000000002</v>
       </c>
       <c r="H48" t="n">
-        <v>0.07109100000000002</v>
+        <v>0.01936100000000007</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>INE696F01016</t>
+          <t>INE192B01031</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Juniper Hotels Limited</t>
+          <t>Welspun Living Limited</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1996,30 +1996,30 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>0.5106889999999999</v>
+        <v>0.548588</v>
       </c>
       <c r="E49" t="n">
-        <v>0.476679</v>
+        <v>0.531398</v>
       </c>
       <c r="F49" t="n">
-        <v>0.538784</v>
+        <v>0.59794</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03400999999999993</v>
+        <v>0.01718999999999993</v>
       </c>
       <c r="H49" t="n">
-        <v>-0.02809500000000009</v>
+        <v>-0.04935200000000006</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>INE988S01028</t>
+          <t>INE026A01025</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Apeejay Surrendra Park Hotels Limited</t>
+          <t>Gujarat State Fert &amp; Chemicals Ltd</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2028,30 +2028,30 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>0.477535</v>
+        <v>0.516219</v>
       </c>
       <c r="E50" t="n">
-        <v>0.486209</v>
+        <v>0.469597</v>
       </c>
       <c r="F50" t="n">
-        <v>0.525119</v>
+        <v>0.468403</v>
       </c>
       <c r="G50" t="n">
-        <v>-0.008674000000000015</v>
+        <v>0.046622</v>
       </c>
       <c r="H50" t="n">
-        <v>-0.04758400000000002</v>
+        <v>0.04781599999999997</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>INE821I01022</t>
+          <t>INE696F01016</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>IRB Infrastructure Developers Limited</t>
+          <t>Juniper Hotels Limited</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2060,30 +2060,30 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>0.4749</v>
+        <v>0.496127</v>
       </c>
       <c r="E51" t="n">
-        <v>0.478426</v>
+        <v>0.5106889999999999</v>
       </c>
       <c r="F51" t="n">
-        <v>0</v>
+        <v>0.476679</v>
       </c>
       <c r="G51" t="n">
-        <v>-0.003526000000000029</v>
+        <v>-0.01456199999999996</v>
       </c>
       <c r="H51" t="n">
-        <v>0.4749</v>
+        <v>0.01944799999999997</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>INE026A01025</t>
+          <t>INE988S01028</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Gujarat State Fert &amp; Chemicals Ltd</t>
+          <t>Apeejay Surrendra Park Hotels Limited</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2092,19 +2092,19 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>0.469597</v>
+        <v>0.470498</v>
       </c>
       <c r="E52" t="n">
-        <v>0.468403</v>
+        <v>0.477535</v>
       </c>
       <c r="F52" t="n">
-        <v>0.479189</v>
+        <v>0.486209</v>
       </c>
       <c r="G52" t="n">
-        <v>0.001193999999999973</v>
+        <v>-0.00703699999999996</v>
       </c>
       <c r="H52" t="n">
-        <v>-0.009591999999999989</v>
+        <v>-0.01571099999999997</v>
       </c>
     </row>
     <row r="53">
@@ -2124,19 +2124,19 @@
         </is>
       </c>
       <c r="D53" t="n">
+        <v>0.43852</v>
+      </c>
+      <c r="E53" t="n">
         <v>0.466133</v>
       </c>
-      <c r="E53" t="n">
+      <c r="F53" t="n">
         <v>0.468393</v>
       </c>
-      <c r="F53" t="n">
-        <v>0.483942</v>
-      </c>
       <c r="G53" t="n">
-        <v>-0.002259999999999984</v>
+        <v>-0.027613</v>
       </c>
       <c r="H53" t="n">
-        <v>-0.01780899999999996</v>
+        <v>-0.02987299999999998</v>
       </c>
     </row>
     <row r="54">
@@ -2156,19 +2156,19 @@
         </is>
       </c>
       <c r="D54" t="n">
+        <v>0.417815</v>
+      </c>
+      <c r="E54" t="n">
         <v>0.416323</v>
       </c>
-      <c r="E54" t="n">
+      <c r="F54" t="n">
         <v>0.470802</v>
       </c>
-      <c r="F54" t="n">
-        <v>0.46128</v>
-      </c>
       <c r="G54" t="n">
-        <v>-0.054479</v>
+        <v>0.001491999999999993</v>
       </c>
       <c r="H54" t="n">
-        <v>-0.04495700000000002</v>
+        <v>-0.05298700000000001</v>
       </c>
     </row>
     <row r="55">
@@ -2188,19 +2188,19 @@
         </is>
       </c>
       <c r="D55" t="n">
+        <v>0.36701</v>
+      </c>
+      <c r="E55" t="n">
         <v>0.341964</v>
       </c>
-      <c r="E55" t="n">
+      <c r="F55" t="n">
         <v>0.337598</v>
       </c>
-      <c r="F55" t="n">
-        <v>0.379953</v>
-      </c>
       <c r="G55" t="n">
-        <v>0.004365999999999981</v>
+        <v>0.02504600000000001</v>
       </c>
       <c r="H55" t="n">
-        <v>-0.03798899999999999</v>
+        <v>0.02941199999999999</v>
       </c>
     </row>
     <row r="56">
@@ -2220,19 +2220,19 @@
         </is>
       </c>
       <c r="D56" t="n">
+        <v>0.345066</v>
+      </c>
+      <c r="E56" t="n">
         <v>0.334876</v>
       </c>
-      <c r="E56" t="n">
+      <c r="F56" t="n">
         <v>0.315628</v>
       </c>
-      <c r="F56" t="n">
-        <v>0</v>
-      </c>
       <c r="G56" t="n">
-        <v>0.01924799999999999</v>
+        <v>0.01018999999999998</v>
       </c>
       <c r="H56" t="n">
-        <v>0.334876</v>
+        <v>0.02943799999999996</v>
       </c>
     </row>
     <row r="57">
@@ -2252,30 +2252,30 @@
         </is>
       </c>
       <c r="D57" t="n">
+        <v>0.333543</v>
+      </c>
+      <c r="E57" t="n">
         <v>0.330755</v>
       </c>
-      <c r="E57" t="n">
+      <c r="F57" t="n">
         <v>0.356527</v>
       </c>
-      <c r="F57" t="n">
-        <v>0.384277</v>
-      </c>
       <c r="G57" t="n">
-        <v>-0.02577199999999996</v>
+        <v>0.002787999999999957</v>
       </c>
       <c r="H57" t="n">
-        <v>-0.05352199999999996</v>
+        <v>-0.022984</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>INE373A01013</t>
+          <t>INE229H01012</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>BASF India Ltd</t>
+          <t>Nitin Spinners Limited</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2284,30 +2284,30 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>0.323195</v>
+        <v>0.329047</v>
       </c>
       <c r="E58" t="n">
-        <v>0.335078</v>
+        <v>0.288639</v>
       </c>
       <c r="F58" t="n">
-        <v>0.246725</v>
+        <v>0.297851</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.01188299999999998</v>
+        <v>0.040408</v>
       </c>
       <c r="H58" t="n">
-        <v>0.07647000000000001</v>
+        <v>0.031196</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>INE142Q01026</t>
+          <t>INE373A01013</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Sula Vineyards Limited</t>
+          <t>BASF India Ltd</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2316,30 +2316,30 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>0.305641</v>
+        <v>0.305238</v>
       </c>
       <c r="E59" t="n">
-        <v>0.324855</v>
+        <v>0.323195</v>
       </c>
       <c r="F59" t="n">
-        <v>0.346381</v>
+        <v>0.335078</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.01921400000000001</v>
+        <v>-0.017957</v>
       </c>
       <c r="H59" t="n">
-        <v>-0.04074</v>
+        <v>-0.02983999999999998</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>INE229H01012</t>
+          <t>INE119A01028</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Nitin Spinners Limited</t>
+          <t>Balrampur Chini Mills Limited</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2348,30 +2348,30 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>0.288639</v>
+        <v>0.291744</v>
       </c>
       <c r="E60" t="n">
-        <v>0.297851</v>
+        <v>0.283577</v>
       </c>
       <c r="F60" t="n">
-        <v>0.297403</v>
+        <v>0.281973</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.009211999999999998</v>
+        <v>0.00816699999999998</v>
       </c>
       <c r="H60" t="n">
-        <v>-0.008763999999999994</v>
+        <v>0.00977100000000003</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>INE119A01028</t>
+          <t>INE142Q01026</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Balrampur Chini Mills Limited</t>
+          <t>Sula Vineyards Limited</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2380,19 +2380,19 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>0.283577</v>
+        <v>0.280532</v>
       </c>
       <c r="E61" t="n">
-        <v>0.281973</v>
+        <v>0.305641</v>
       </c>
       <c r="F61" t="n">
-        <v>0.285951</v>
+        <v>0.324855</v>
       </c>
       <c r="G61" t="n">
-        <v>0.00160400000000005</v>
+        <v>-0.02510899999999999</v>
       </c>
       <c r="H61" t="n">
-        <v>-0.002373999999999987</v>
+        <v>-0.044323</v>
       </c>
     </row>
     <row r="62">
@@ -2412,30 +2412,30 @@
         </is>
       </c>
       <c r="D62" t="n">
+        <v>0.275034</v>
+      </c>
+      <c r="E62" t="n">
         <v>0.277239</v>
       </c>
-      <c r="E62" t="n">
+      <c r="F62" t="n">
         <v>0.527796</v>
       </c>
-      <c r="F62" t="n">
-        <v>0.643083</v>
-      </c>
       <c r="G62" t="n">
-        <v>-0.250557</v>
+        <v>-0.002205000000000013</v>
       </c>
       <c r="H62" t="n">
-        <v>-0.3658439999999999</v>
+        <v>-0.252762</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>INE495B01038</t>
+          <t>INE0N2P01017</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Suven Life Sciences Ltd.</t>
+          <t>RISHABH INSTRUMENTS LIMITED</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2444,30 +2444,30 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>0.262457</v>
+        <v>0.256353</v>
       </c>
       <c r="E63" t="n">
-        <v>0.268254</v>
+        <v>0.25429</v>
       </c>
       <c r="F63" t="n">
-        <v>0.304474</v>
+        <v>0.267958</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.005796999999999997</v>
+        <v>0.002062999999999982</v>
       </c>
       <c r="H63" t="n">
-        <v>-0.04201700000000003</v>
+        <v>-0.01160499999999998</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>INE0BYP01024</t>
+          <t>INE271B01025</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>OSWAL PUMPS LIMITED</t>
+          <t>Maharashtra Seamless Ltd</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2476,19 +2476,19 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>0.259404</v>
+        <v>0.247001</v>
       </c>
       <c r="E64" t="n">
-        <v>0.267826</v>
+        <v>0.245105</v>
       </c>
       <c r="F64" t="n">
-        <v>0.34881</v>
+        <v>0.253938</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.008421999999999985</v>
+        <v>0.001896000000000009</v>
       </c>
       <c r="H64" t="n">
-        <v>-0.08940599999999999</v>
+        <v>-0.006936999999999999</v>
       </c>
     </row>
     <row r="65">
@@ -2508,30 +2508,30 @@
         </is>
       </c>
       <c r="D65" t="n">
+        <v>0.24242</v>
+      </c>
+      <c r="E65" t="n">
         <v>0.258898</v>
       </c>
-      <c r="E65" t="n">
+      <c r="F65" t="n">
         <v>0.256213</v>
       </c>
-      <c r="F65" t="n">
-        <v>0.294439</v>
-      </c>
       <c r="G65" t="n">
-        <v>0.002684999999999993</v>
+        <v>-0.01647800000000002</v>
       </c>
       <c r="H65" t="n">
-        <v>-0.03554099999999999</v>
+        <v>-0.01379300000000003</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>INE0N2P01017</t>
+          <t>INE495B01038</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>RISHABH INSTRUMENTS LIMITED</t>
+          <t>Suven Life Sciences Ltd.</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2540,30 +2540,30 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>0.25429</v>
+        <v>0.228018</v>
       </c>
       <c r="E66" t="n">
-        <v>0.267958</v>
+        <v>0.262457</v>
       </c>
       <c r="F66" t="n">
-        <v>0.254788</v>
+        <v>0.268254</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.01366799999999996</v>
+        <v>-0.034439</v>
       </c>
       <c r="H66" t="n">
-        <v>-0.0004979999999999984</v>
+        <v>-0.04023599999999999</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>INE271B01025</t>
+          <t>INE812G01025</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Maharashtra Seamless Ltd</t>
+          <t>SMS Pharmaceuticals Limited</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2572,30 +2572,30 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>0.245105</v>
+        <v>0.215007</v>
       </c>
       <c r="E67" t="n">
-        <v>0.253938</v>
+        <v>0.193807</v>
       </c>
       <c r="F67" t="n">
-        <v>0.242156</v>
+        <v>0.196757</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.008833000000000008</v>
+        <v>0.0212</v>
       </c>
       <c r="H67" t="n">
-        <v>0.002948999999999979</v>
+        <v>0.01825000000000002</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>INE922K01024</t>
+          <t>INE0BYP01024</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>INDIA SHELTER FIN CORP LTD</t>
+          <t>OSWAL PUMPS LIMITED</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -2604,19 +2604,19 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>0.219961</v>
+        <v>0.211969</v>
       </c>
       <c r="E68" t="n">
-        <v>0.237899</v>
+        <v>0.259404</v>
       </c>
       <c r="F68" t="n">
-        <v>0.294314</v>
+        <v>0.267826</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.01793800000000001</v>
+        <v>-0.04743500000000003</v>
       </c>
       <c r="H68" t="n">
-        <v>-0.07435300000000003</v>
+        <v>-0.05585700000000002</v>
       </c>
     </row>
     <row r="69">
@@ -2636,30 +2636,30 @@
         </is>
       </c>
       <c r="D69" t="n">
+        <v>0.208514</v>
+      </c>
+      <c r="E69" t="n">
         <v>0.200454</v>
       </c>
-      <c r="E69" t="n">
+      <c r="F69" t="n">
         <v>0.197586</v>
       </c>
-      <c r="F69" t="n">
-        <v>0.198224</v>
-      </c>
       <c r="G69" t="n">
-        <v>0.002867999999999982</v>
+        <v>0.008060000000000012</v>
       </c>
       <c r="H69" t="n">
-        <v>0.002229999999999982</v>
+        <v>0.01092799999999999</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>INE812G01025</t>
+          <t>INE410B01037</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>SMS Pharmaceuticals Limited</t>
+          <t>Vinati Organics Ltd</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -2668,30 +2668,30 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>0.193807</v>
+        <v>0.201925</v>
       </c>
       <c r="E70" t="n">
-        <v>0.196757</v>
+        <v>0.193263</v>
       </c>
       <c r="F70" t="n">
-        <v>0.174169</v>
+        <v>0.189655</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.00294999999999998</v>
+        <v>0.008662000000000003</v>
       </c>
       <c r="H70" t="n">
-        <v>0.01963800000000002</v>
+        <v>0.01227</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>INE410B01037</t>
+          <t>INE212I01016</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Vinati Organics Ltd</t>
+          <t>S. P. Apparels Limited</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -2700,30 +2700,30 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>0.193263</v>
+        <v>0.198222</v>
       </c>
       <c r="E71" t="n">
-        <v>0.189655</v>
+        <v>0.189883</v>
       </c>
       <c r="F71" t="n">
-        <v>0.196195</v>
+        <v>0</v>
       </c>
       <c r="G71" t="n">
-        <v>0.003608</v>
+        <v>0.008339000000000013</v>
       </c>
       <c r="H71" t="n">
-        <v>-0.002932000000000018</v>
+        <v>0.198222</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>INE212I01016</t>
+          <t>INE069I01010</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>S. P. Apparels Limited</t>
+          <t>Embassy Developments Limited</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -2732,19 +2732,19 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>0.189883</v>
+        <v>0.192585</v>
       </c>
       <c r="E72" t="n">
-        <v>0</v>
+        <v>0.157253</v>
       </c>
       <c r="F72" t="n">
-        <v>0</v>
+        <v>0.203941</v>
       </c>
       <c r="G72" t="n">
-        <v>0.189883</v>
+        <v>0.035332</v>
       </c>
       <c r="H72" t="n">
-        <v>0.189883</v>
+        <v>-0.011356</v>
       </c>
     </row>
     <row r="73">
@@ -2764,19 +2764,19 @@
         </is>
       </c>
       <c r="D73" t="n">
+        <v>0.192413</v>
+      </c>
+      <c r="E73" t="n">
         <v>0.187311</v>
       </c>
-      <c r="E73" t="n">
+      <c r="F73" t="n">
         <v>0.09783</v>
       </c>
-      <c r="F73" t="n">
-        <v>0.10663</v>
-      </c>
       <c r="G73" t="n">
-        <v>0.089481</v>
+        <v>0.005101999999999995</v>
       </c>
       <c r="H73" t="n">
-        <v>0.080681</v>
+        <v>0.094583</v>
       </c>
     </row>
     <row r="74">
@@ -2796,30 +2796,30 @@
         </is>
       </c>
       <c r="D74" t="n">
+        <v>0.175187</v>
+      </c>
+      <c r="E74" t="n">
         <v>0.180028</v>
       </c>
-      <c r="E74" t="n">
+      <c r="F74" t="n">
         <v>0.174252</v>
       </c>
-      <c r="F74" t="n">
-        <v>0.187474</v>
-      </c>
       <c r="G74" t="n">
-        <v>0.005776000000000003</v>
+        <v>-0.004840999999999984</v>
       </c>
       <c r="H74" t="n">
-        <v>-0.007446000000000008</v>
+        <v>0.0009350000000000191</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>INE264T01014</t>
+          <t>INE306R01017</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Capacite Infraprojects Limited</t>
+          <t>Intellect Design Arena Limited</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -2828,30 +2828,30 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>0.173101</v>
+        <v>0.168149</v>
       </c>
       <c r="E75" t="n">
-        <v>0.186307</v>
+        <v>0.164292</v>
       </c>
       <c r="F75" t="n">
-        <v>0.190508</v>
+        <v>0.18583</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.013206</v>
+        <v>0.003856999999999999</v>
       </c>
       <c r="H75" t="n">
-        <v>-0.01740700000000001</v>
+        <v>-0.017681</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>INE777F01014</t>
+          <t>INE032B01021</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Exicom Tele-Systems Limited</t>
+          <t>Prime Securities Limited</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -2860,30 +2860,30 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>0.171187</v>
+        <v>0.166175</v>
       </c>
       <c r="E76" t="n">
-        <v>0.16107</v>
+        <v>0.152948</v>
       </c>
       <c r="F76" t="n">
-        <v>0.197576</v>
+        <v>0.166281</v>
       </c>
       <c r="G76" t="n">
-        <v>0.01011700000000001</v>
+        <v>0.01322699999999999</v>
       </c>
       <c r="H76" t="n">
-        <v>-0.026389</v>
+        <v>-0.0001060000000000227</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>INE306R01017</t>
+          <t>INE264T01014</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Intellect Design Arena Limited</t>
+          <t>Capacite Infraprojects Limited</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -2892,30 +2892,30 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>0.164292</v>
+        <v>0.164482</v>
       </c>
       <c r="E77" t="n">
-        <v>0.18583</v>
+        <v>0.173101</v>
       </c>
       <c r="F77" t="n">
-        <v>0.187261</v>
+        <v>0.186307</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.021538</v>
+        <v>-0.008619000000000016</v>
       </c>
       <c r="H77" t="n">
-        <v>-0.02296900000000002</v>
+        <v>-0.02182500000000001</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>INE069I01010</t>
+          <t>INE777F01014</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Embassy Developments Limited</t>
+          <t>Exicom Tele-Systems Limited</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -2924,30 +2924,30 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>0.157253</v>
+        <v>0.157755</v>
       </c>
       <c r="E78" t="n">
-        <v>0.203941</v>
+        <v>0.171187</v>
       </c>
       <c r="F78" t="n">
-        <v>0.242425</v>
+        <v>0.16107</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.04668800000000001</v>
+        <v>-0.013432</v>
       </c>
       <c r="H78" t="n">
-        <v>-0.085172</v>
+        <v>-0.003314999999999985</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>INE032B01021</t>
+          <t>INE0U4701011</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Prime Securities Limited</t>
+          <t>Digitide Solutions Limited</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -2956,30 +2956,30 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>0.152948</v>
+        <v>0.111814</v>
       </c>
       <c r="E79" t="n">
-        <v>0.166281</v>
+        <v>0.118387</v>
       </c>
       <c r="F79" t="n">
-        <v>0.156965</v>
+        <v>0.125856</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.01333300000000001</v>
+        <v>-0.006573000000000009</v>
       </c>
       <c r="H79" t="n">
-        <v>-0.004016999999999993</v>
+        <v>-0.014042</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>INE619B01017</t>
+          <t>INE998I01010</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Newgen Software Technologies Limited</t>
+          <t>Mahindra Holidays &amp; Resorts Ind Ltd</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -2988,30 +2988,30 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>0.142884</v>
+        <v>0.107956</v>
       </c>
       <c r="E80" t="n">
-        <v>0.147078</v>
+        <v>0.103751</v>
       </c>
       <c r="F80" t="n">
-        <v>0.161139</v>
+        <v>0.10516</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.004193999999999976</v>
+        <v>0.004205</v>
       </c>
       <c r="H80" t="n">
-        <v>-0.01825499999999999</v>
+        <v>0.002795999999999993</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>INE825A01020</t>
+          <t>INE323C01030</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Vardhman Textiles Limited</t>
+          <t>INDIAN HUME PIPE COMPANY LIMITED</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -3020,30 +3020,30 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>0.12718</v>
+        <v>0.107523</v>
       </c>
       <c r="E81" t="n">
-        <v>0.125428</v>
+        <v>0.105236</v>
       </c>
       <c r="F81" t="n">
-        <v>0.123753</v>
+        <v>0.101164</v>
       </c>
       <c r="G81" t="n">
-        <v>0.001751999999999976</v>
+        <v>0.002286999999999997</v>
       </c>
       <c r="H81" t="n">
-        <v>0.003426999999999986</v>
+        <v>0.00635899999999999</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>INE0U4701011</t>
+          <t>INE619B01017</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Digitide Solutions Limited</t>
+          <t>Newgen Software Technologies Limited</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -3052,30 +3052,30 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>0.118387</v>
+        <v>0.107027</v>
       </c>
       <c r="E82" t="n">
-        <v>0.125856</v>
+        <v>0.142884</v>
       </c>
       <c r="F82" t="n">
-        <v>0.087579</v>
+        <v>0.147078</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.00746899999999999</v>
+        <v>-0.03585700000000001</v>
       </c>
       <c r="H82" t="n">
-        <v>0.030808</v>
+        <v>-0.04005099999999999</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>INE438K01021</t>
+          <t>INE371A01025</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Sai Silks (Kalamandir) Limited</t>
+          <t>Graphite India Limited</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -3084,30 +3084,30 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>0.110371</v>
+        <v>0.102408</v>
       </c>
       <c r="E83" t="n">
-        <v>0.114345</v>
+        <v>0.097876</v>
       </c>
       <c r="F83" t="n">
-        <v>0.12516</v>
+        <v>0.08357100000000001</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.003974000000000005</v>
+        <v>0.004531999999999994</v>
       </c>
       <c r="H83" t="n">
-        <v>-0.014789</v>
+        <v>0.01883699999999999</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>INE323C01030</t>
+          <t>INE058A01010</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>INDIAN HUME PIPE COMPANY LIMITED</t>
+          <t>SANOFI INDIA LIMITED</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -3116,30 +3116,30 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>0.105236</v>
+        <v>0.093768</v>
       </c>
       <c r="E84" t="n">
-        <v>0.101164</v>
+        <v>0.087702</v>
       </c>
       <c r="F84" t="n">
-        <v>0.090283</v>
+        <v>0.092948</v>
       </c>
       <c r="G84" t="n">
-        <v>0.004071999999999992</v>
+        <v>0.006066000000000002</v>
       </c>
       <c r="H84" t="n">
-        <v>0.01495299999999999</v>
+        <v>0.0008200000000000013</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>INE998I01010</t>
+          <t>INE04TZ01018</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Mahindra Holidays &amp; Resorts Ind Ltd</t>
+          <t>ETHOS LIMITED</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -3148,30 +3148,30 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>0.103751</v>
+        <v>0.088648</v>
       </c>
       <c r="E85" t="n">
-        <v>0.10516</v>
+        <v>0.095058</v>
       </c>
       <c r="F85" t="n">
-        <v>0.107675</v>
+        <v>0.09621499999999999</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.001409000000000007</v>
+        <v>-0.006409999999999999</v>
       </c>
       <c r="H85" t="n">
-        <v>-0.003924000000000011</v>
+        <v>-0.00756699999999999</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>INE371A01025</t>
+          <t>INE438K01021</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Graphite India Limited</t>
+          <t>Sai Silks (Kalamandir) Limited</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -3180,30 +3180,30 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>0.097876</v>
+        <v>0.08568099999999999</v>
       </c>
       <c r="E86" t="n">
-        <v>0.08357100000000001</v>
+        <v>0.110371</v>
       </c>
       <c r="F86" t="n">
-        <v>0</v>
+        <v>0.114345</v>
       </c>
       <c r="G86" t="n">
-        <v>0.014305</v>
+        <v>-0.02469</v>
       </c>
       <c r="H86" t="n">
-        <v>0.097876</v>
+        <v>-0.02866400000000001</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>INE04TZ01018</t>
+          <t>INE0AE001013</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>ETHOS LIMITED</t>
+          <t>Vishnu Prakash R Punglia Limited</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -3212,30 +3212,30 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>0.095058</v>
+        <v>0.082398</v>
       </c>
       <c r="E87" t="n">
-        <v>0.09621499999999999</v>
+        <v>0.089935</v>
       </c>
       <c r="F87" t="n">
-        <v>0.083632</v>
+        <v>0.138753</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.001156999999999991</v>
+        <v>-0.007537000000000002</v>
       </c>
       <c r="H87" t="n">
-        <v>0.01142600000000001</v>
+        <v>-0.05635499999999999</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>INE0AE001013</t>
+          <t>INE750A01020</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Vishnu Prakash R Punglia Limited</t>
+          <t>Oriental Hotels Limited</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -3244,30 +3244,30 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>0.089935</v>
+        <v>0.075681</v>
       </c>
       <c r="E88" t="n">
-        <v>0.138753</v>
+        <v>0.070594</v>
       </c>
       <c r="F88" t="n">
-        <v>0.152725</v>
+        <v>0.100891</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.04881799999999999</v>
+        <v>0.005086999999999994</v>
       </c>
       <c r="H88" t="n">
-        <v>-0.06279</v>
+        <v>-0.02521</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>INE058A01010</t>
+          <t>INE052T01021</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>SANOFI INDIA LIMITED</t>
+          <t>Best Agrolife Limited</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -3276,30 +3276,30 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>0.087702</v>
+        <v>0.051901</v>
       </c>
       <c r="E89" t="n">
-        <v>0.092948</v>
+        <v>0</v>
       </c>
       <c r="F89" t="n">
-        <v>0.10016</v>
+        <v>0</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.005246000000000001</v>
+        <v>0.051901</v>
       </c>
       <c r="H89" t="n">
-        <v>-0.012458</v>
+        <v>0.051901</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>INE750A01020</t>
+          <t>INE322A01010</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Oriental Hotels Limited</t>
+          <t>Gillette India Ltd</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -3308,30 +3308,30 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>0.070594</v>
+        <v>0.051407</v>
       </c>
       <c r="E90" t="n">
-        <v>0.100891</v>
+        <v>0</v>
       </c>
       <c r="F90" t="n">
-        <v>0.132231</v>
+        <v>0</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.03029699999999999</v>
+        <v>0.051407</v>
       </c>
       <c r="H90" t="n">
-        <v>-0.06163699999999998</v>
+        <v>0.051407</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>INE052T01013</t>
+          <t>INE01A001028</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Best Agrolife Limited</t>
+          <t>Stanley Lifestyles Limited</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -3340,30 +3340,30 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>0.06390899999999999</v>
+        <v>0.045133</v>
       </c>
       <c r="E91" t="n">
-        <v>0.06653199999999999</v>
+        <v>0.043615</v>
       </c>
       <c r="F91" t="n">
-        <v>0.053689</v>
+        <v>0.049967</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.002623</v>
+        <v>0.001517999999999999</v>
       </c>
       <c r="H91" t="n">
-        <v>0.01021999999999999</v>
+        <v>-0.004833999999999998</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>INE01A001028</t>
+          <t>INE206N01018</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Stanley Lifestyles Limited</t>
+          <t>Ravindra Energy Limited</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -3372,30 +3372,30 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>0.043615</v>
+        <v>0.037485</v>
       </c>
       <c r="E92" t="n">
-        <v>0.049967</v>
+        <v>0.037335</v>
       </c>
       <c r="F92" t="n">
-        <v>0.060883</v>
+        <v>0</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.006351999999999997</v>
+        <v>0.0001499999999999974</v>
       </c>
       <c r="H92" t="n">
-        <v>-0.017268</v>
+        <v>0.037485</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>INE213A01029</t>
+          <t>INE607A01022</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Oil and Natural Gas Corporation Ltd.</t>
+          <t>PUNJAB ALKALIES AND CHEMICALS LTD</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -3404,30 +3404,30 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>0.040329</v>
+        <v>0.033382</v>
       </c>
       <c r="E93" t="n">
-        <v>1.482511</v>
+        <v>0.036628</v>
       </c>
       <c r="F93" t="n">
-        <v>1.539301</v>
+        <v>0.038833</v>
       </c>
       <c r="G93" t="n">
-        <v>-1.442182</v>
+        <v>-0.003245999999999999</v>
       </c>
       <c r="H93" t="n">
-        <v>-1.498972</v>
+        <v>-0.005450999999999998</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>INE206N01018</t>
+          <t>INE239D01028</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Ravindra Energy Limited</t>
+          <t>OM INFRA LIMITED</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -3436,30 +3436,30 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>0.037335</v>
+        <v>0.004015</v>
       </c>
       <c r="E94" t="n">
-        <v>0</v>
+        <v>0.004603</v>
       </c>
       <c r="F94" t="n">
-        <v>0</v>
+        <v>0.005088</v>
       </c>
       <c r="G94" t="n">
-        <v>0.037335</v>
+        <v>-0.000588</v>
       </c>
       <c r="H94" t="n">
-        <v>0.037335</v>
+        <v>-0.001072999999999999</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>INE607A01022</t>
+          <t>INE825A01020</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>PUNJAB ALKALIES AND CHEMICALS LTD</t>
+          <t>Vardhman Textiles Limited</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -3468,19 +3468,19 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>0.036628</v>
+        <v>0</v>
       </c>
       <c r="E95" t="n">
-        <v>0.038833</v>
+        <v>0.12718</v>
       </c>
       <c r="F95" t="n">
-        <v>0.034957</v>
+        <v>0.125428</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.002204999999999999</v>
+        <v>-0.12718</v>
       </c>
       <c r="H95" t="n">
-        <v>0.001670999999999999</v>
+        <v>-0.125428</v>
       </c>
     </row>
     <row r="96">
@@ -3500,30 +3500,30 @@
         </is>
       </c>
       <c r="D96" t="n">
+        <v>0</v>
+      </c>
+      <c r="E96" t="n">
         <v>0.031936</v>
       </c>
-      <c r="E96" t="n">
+      <c r="F96" t="n">
         <v>0.031194</v>
       </c>
-      <c r="F96" t="n">
-        <v>0</v>
-      </c>
       <c r="G96" t="n">
-        <v>0.0007419999999999996</v>
+        <v>-0.031936</v>
       </c>
       <c r="H96" t="n">
-        <v>0.031936</v>
+        <v>-0.031194</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>INE239D01028</t>
+          <t>INE0J1Y01017</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>OM INFRA LIMITED</t>
+          <t>Life Insurance Corporation Of India</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -3532,30 +3532,30 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>0.004603</v>
+        <v>0</v>
       </c>
       <c r="E97" t="n">
-        <v>0.005088</v>
+        <v>0</v>
       </c>
       <c r="F97" t="n">
-        <v>0.005279</v>
+        <v>0.218202</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.0004849999999999993</v>
+        <v>0</v>
       </c>
       <c r="H97" t="n">
-        <v>-0.0006759999999999995</v>
+        <v>-0.218202</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>INE423A20016</t>
+          <t>INE922K01024</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Adani Enterprises Limited Rights</t>
+          <t>INDIA SHELTER FIN CORP LTD</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -3567,27 +3567,27 @@
         <v>0</v>
       </c>
       <c r="E98" t="n">
-        <v>0.043433</v>
+        <v>0.219961</v>
       </c>
       <c r="F98" t="n">
-        <v>0</v>
+        <v>0.237899</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.043433</v>
+        <v>-0.219961</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>-0.237899</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>INE681B01017</t>
+          <t>INE423A20016</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Indraprastha Medical Corporation Limited</t>
+          <t>Adani Enterprises Limited Rights</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -3602,24 +3602,24 @@
         <v>0</v>
       </c>
       <c r="F99" t="n">
-        <v>0.143495</v>
+        <v>0.043433</v>
       </c>
       <c r="G99" t="n">
         <v>0</v>
       </c>
       <c r="H99" t="n">
-        <v>-0.143495</v>
+        <v>-0.043433</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>INE930P01018</t>
+          <t>INE052T01013</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Anupam Rasayan India Limited</t>
+          <t>Best Agrolife Limited</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -3631,27 +3631,27 @@
         <v>0</v>
       </c>
       <c r="E100" t="n">
-        <v>0</v>
+        <v>0.06390899999999999</v>
       </c>
       <c r="F100" t="n">
-        <v>0.153942</v>
+        <v>0.06653199999999999</v>
       </c>
       <c r="G100" t="n">
-        <v>0</v>
+        <v>-0.06390899999999999</v>
       </c>
       <c r="H100" t="n">
-        <v>-0.153942</v>
+        <v>-0.06653199999999999</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>INE148O01028</t>
+          <t>INE213A01029</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Delhivery Limited</t>
+          <t>Oil and Natural Gas Corporation Ltd.</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -3663,80 +3663,16 @@
         <v>0</v>
       </c>
       <c r="E101" t="n">
-        <v>0</v>
+        <v>0.040329</v>
       </c>
       <c r="F101" t="n">
-        <v>0.508482</v>
+        <v>1.482511</v>
       </c>
       <c r="G101" t="n">
-        <v>0</v>
+        <v>-0.040329</v>
       </c>
       <c r="H101" t="n">
-        <v>-0.508482</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>INE013P01021</t>
-        </is>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>One Source Specialty Pharma Ltd</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>quant Small Cap Fund</t>
-        </is>
-      </c>
-      <c r="D102" t="n">
-        <v>0</v>
-      </c>
-      <c r="E102" t="n">
-        <v>0</v>
-      </c>
-      <c r="F102" t="n">
-        <v>0.010017</v>
-      </c>
-      <c r="G102" t="n">
-        <v>0</v>
-      </c>
-      <c r="H102" t="n">
-        <v>-0.010017</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>INE0J1Y01017</t>
-        </is>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>Life Insurance Corporation Of India</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>quant Small Cap Fund</t>
-        </is>
-      </c>
-      <c r="D103" t="n">
-        <v>0</v>
-      </c>
-      <c r="E103" t="n">
-        <v>0.218202</v>
-      </c>
-      <c r="F103" t="n">
-        <v>0.215868</v>
-      </c>
-      <c r="G103" t="n">
-        <v>-0.218202</v>
-      </c>
-      <c r="H103" t="n">
-        <v>-0.215868</v>
+        <v>-1.482511</v>
       </c>
     </row>
   </sheetData>

--- a/mf-intelligence/data/processed/quant/quant_Small_Cap_Fund_Equity_Holdings_Comparison.xlsx
+++ b/mf-intelligence/data/processed/quant/quant_Small_Cap_Fund_Equity_Holdings_Comparison.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,25 +451,30 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>Status</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Jan_2026</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Dec_2025</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Nov_2025</t>
-        </is>
-      </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>Oct_2025</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MoM</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>QoQ</t>
         </is>
@@ -491,20 +496,25 @@
           <t>quant Small Cap Fund</t>
         </is>
       </c>
-      <c r="D2" t="n">
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Reducing Consistently</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
         <v>9.461577999999999</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>9.789971</v>
       </c>
-      <c r="F2" t="n">
-        <v>10.160455</v>
-      </c>
       <c r="G2" t="n">
+        <v>9.529057999999999</v>
+      </c>
+      <c r="H2" t="n">
         <v>-0.3283930000000002</v>
       </c>
-      <c r="H2" t="n">
-        <v>-0.6988770000000013</v>
+      <c r="I2" t="n">
+        <v>-0.06747999999999976</v>
       </c>
     </row>
     <row r="3">
@@ -523,20 +533,25 @@
           <t>quant Small Cap Fund</t>
         </is>
       </c>
-      <c r="D3" t="n">
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Reducing Consistently</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
         <v>5.621754</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>5.990163</v>
       </c>
-      <c r="F3" t="n">
-        <v>6.139252</v>
-      </c>
       <c r="G3" t="n">
+        <v>6.083792</v>
+      </c>
+      <c r="H3" t="n">
         <v>-0.3684089999999998</v>
       </c>
-      <c r="H3" t="n">
-        <v>-0.5174979999999998</v>
+      <c r="I3" t="n">
+        <v>-0.4620379999999997</v>
       </c>
     </row>
     <row r="4">
@@ -555,20 +570,25 @@
           <t>quant Small Cap Fund</t>
         </is>
       </c>
-      <c r="D4" t="n">
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Adding Consistently</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
         <v>4.135782</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>4.019464</v>
       </c>
-      <c r="F4" t="n">
-        <v>3.925428</v>
-      </c>
       <c r="G4" t="n">
+        <v>4.055724</v>
+      </c>
+      <c r="H4" t="n">
         <v>0.1163179999999997</v>
       </c>
-      <c r="H4" t="n">
-        <v>0.2103539999999997</v>
+      <c r="I4" t="n">
+        <v>0.08005800000000018</v>
       </c>
     </row>
     <row r="5">
@@ -587,20 +607,25 @@
           <t>quant Small Cap Fund</t>
         </is>
       </c>
-      <c r="D5" t="n">
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Adding Consistently</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
         <v>3.517004</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>3.176445</v>
       </c>
-      <c r="F5" t="n">
-        <v>3.337132</v>
-      </c>
       <c r="G5" t="n">
+        <v>3.24217</v>
+      </c>
+      <c r="H5" t="n">
         <v>0.3405589999999998</v>
       </c>
-      <c r="H5" t="n">
-        <v>0.179872</v>
+      <c r="I5" t="n">
+        <v>0.2748339999999998</v>
       </c>
     </row>
     <row r="6">
@@ -619,20 +644,25 @@
           <t>quant Small Cap Fund</t>
         </is>
       </c>
-      <c r="D6" t="n">
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Adding</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
         <v>2.987539</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>2.901156</v>
       </c>
-      <c r="F6" t="n">
-        <v>2.954255</v>
-      </c>
       <c r="G6" t="n">
+        <v>3.127078</v>
+      </c>
+      <c r="H6" t="n">
         <v>0.0863830000000001</v>
       </c>
-      <c r="H6" t="n">
-        <v>0.03328400000000009</v>
+      <c r="I6" t="n">
+        <v>-0.1395390000000001</v>
       </c>
     </row>
     <row r="7">
@@ -651,20 +681,25 @@
           <t>quant Small Cap Fund</t>
         </is>
       </c>
-      <c r="D7" t="n">
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Adding Consistently</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
         <v>2.975448</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>2.892171</v>
       </c>
-      <c r="F7" t="n">
-        <v>2.108147</v>
-      </c>
       <c r="G7" t="n">
+        <v>1.899245</v>
+      </c>
+      <c r="H7" t="n">
         <v>0.08327700000000027</v>
       </c>
-      <c r="H7" t="n">
-        <v>0.8673009999999999</v>
+      <c r="I7" t="n">
+        <v>1.076203</v>
       </c>
     </row>
     <row r="8">
@@ -683,20 +718,25 @@
           <t>quant Small Cap Fund</t>
         </is>
       </c>
-      <c r="D8" t="n">
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Adding Consistently</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
         <v>2.760392</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>2.391623</v>
       </c>
-      <c r="F8" t="n">
-        <v>2.225576</v>
-      </c>
       <c r="G8" t="n">
+        <v>1.597818</v>
+      </c>
+      <c r="H8" t="n">
         <v>0.3687689999999999</v>
       </c>
-      <c r="H8" t="n">
-        <v>0.5348159999999997</v>
+      <c r="I8" t="n">
+        <v>1.162574</v>
       </c>
     </row>
     <row r="9">
@@ -715,20 +755,25 @@
           <t>quant Small Cap Fund</t>
         </is>
       </c>
-      <c r="D9" t="n">
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Reducing Consistently</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
         <v>2.500822</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>2.691139</v>
       </c>
-      <c r="F9" t="n">
-        <v>2.466001</v>
-      </c>
       <c r="G9" t="n">
+        <v>2.607372</v>
+      </c>
+      <c r="H9" t="n">
         <v>-0.1903170000000003</v>
       </c>
-      <c r="H9" t="n">
-        <v>0.03482099999999999</v>
+      <c r="I9" t="n">
+        <v>-0.1065499999999999</v>
       </c>
     </row>
     <row r="10">
@@ -747,20 +792,25 @@
           <t>quant Small Cap Fund</t>
         </is>
       </c>
-      <c r="D10" t="n">
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Adding Consistently</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
         <v>2.419872</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>2.058688</v>
       </c>
-      <c r="F10" t="n">
-        <v>2.179082</v>
-      </c>
       <c r="G10" t="n">
+        <v>2.163527</v>
+      </c>
+      <c r="H10" t="n">
         <v>0.3611839999999997</v>
       </c>
-      <c r="H10" t="n">
-        <v>0.2407899999999996</v>
+      <c r="I10" t="n">
+        <v>0.2563449999999996</v>
       </c>
     </row>
     <row r="11">
@@ -779,20 +829,25 @@
           <t>quant Small Cap Fund</t>
         </is>
       </c>
-      <c r="D11" t="n">
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Adding Consistently</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
         <v>2.288202</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>2.151296</v>
       </c>
-      <c r="F11" t="n">
-        <v>2.011701</v>
-      </c>
       <c r="G11" t="n">
+        <v>2.014287</v>
+      </c>
+      <c r="H11" t="n">
         <v>0.1369060000000002</v>
       </c>
-      <c r="H11" t="n">
-        <v>0.2765010000000001</v>
+      <c r="I11" t="n">
+        <v>0.2739150000000001</v>
       </c>
     </row>
     <row r="12">
@@ -811,20 +866,25 @@
           <t>quant Small Cap Fund</t>
         </is>
       </c>
-      <c r="D12" t="n">
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Reducing Consistently</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
         <v>2.279483</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>2.341344</v>
       </c>
-      <c r="F12" t="n">
-        <v>2.493567</v>
-      </c>
       <c r="G12" t="n">
+        <v>2.512905</v>
+      </c>
+      <c r="H12" t="n">
         <v>-0.06186099999999994</v>
       </c>
-      <c r="H12" t="n">
-        <v>-0.2140840000000002</v>
+      <c r="I12" t="n">
+        <v>-0.233422</v>
       </c>
     </row>
     <row r="13">
@@ -843,20 +903,25 @@
           <t>quant Small Cap Fund</t>
         </is>
       </c>
-      <c r="D13" t="n">
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Adding Consistently</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
         <v>2.254241</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>2.047787</v>
       </c>
-      <c r="F13" t="n">
-        <v>1.862096</v>
-      </c>
       <c r="G13" t="n">
+        <v>1.821458</v>
+      </c>
+      <c r="H13" t="n">
         <v>0.2064539999999999</v>
       </c>
-      <c r="H13" t="n">
-        <v>0.392145</v>
+      <c r="I13" t="n">
+        <v>0.4327829999999999</v>
       </c>
     </row>
     <row r="14">
@@ -875,20 +940,25 @@
           <t>quant Small Cap Fund</t>
         </is>
       </c>
-      <c r="D14" t="n">
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Reducing Consistently</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
         <v>2.083482</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>2.309177</v>
       </c>
-      <c r="F14" t="n">
-        <v>2.180428</v>
-      </c>
       <c r="G14" t="n">
+        <v>2.19695</v>
+      </c>
+      <c r="H14" t="n">
         <v>-0.225695</v>
       </c>
-      <c r="H14" t="n">
-        <v>-0.09694599999999998</v>
+      <c r="I14" t="n">
+        <v>-0.1134680000000001</v>
       </c>
     </row>
     <row r="15">
@@ -907,20 +977,25 @@
           <t>quant Small Cap Fund</t>
         </is>
       </c>
-      <c r="D15" t="n">
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Adding</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
         <v>1.837088</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>1.757263</v>
       </c>
-      <c r="F15" t="n">
-        <v>1.774204</v>
-      </c>
       <c r="G15" t="n">
+        <v>1.893613</v>
+      </c>
+      <c r="H15" t="n">
         <v>0.07982500000000003</v>
       </c>
-      <c r="H15" t="n">
-        <v>0.06288400000000016</v>
+      <c r="I15" t="n">
+        <v>-0.05652499999999994</v>
       </c>
     </row>
     <row r="16">
@@ -939,20 +1014,25 @@
           <t>quant Small Cap Fund</t>
         </is>
       </c>
-      <c r="D16" t="n">
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Reducing Consistently</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
         <v>1.821111</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>1.856074</v>
       </c>
-      <c r="F16" t="n">
-        <v>1.865513</v>
-      </c>
       <c r="G16" t="n">
+        <v>2.007525</v>
+      </c>
+      <c r="H16" t="n">
         <v>-0.03496300000000008</v>
       </c>
-      <c r="H16" t="n">
-        <v>-0.04440200000000005</v>
+      <c r="I16" t="n">
+        <v>-0.1864139999999999</v>
       </c>
     </row>
     <row r="17">
@@ -971,20 +1051,25 @@
           <t>quant Small Cap Fund</t>
         </is>
       </c>
-      <c r="D17" t="n">
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Reducing</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
         <v>1.769144</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>2.0035</v>
       </c>
-      <c r="F17" t="n">
-        <v>1.895408</v>
-      </c>
       <c r="G17" t="n">
+        <v>1.653301</v>
+      </c>
+      <c r="H17" t="n">
         <v>-0.2343559999999998</v>
       </c>
-      <c r="H17" t="n">
-        <v>-0.1262639999999999</v>
+      <c r="I17" t="n">
+        <v>0.1158430000000001</v>
       </c>
     </row>
     <row r="18">
@@ -1003,19 +1088,24 @@
           <t>quant Small Cap Fund</t>
         </is>
       </c>
-      <c r="D18" t="n">
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Reducing</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
         <v>1.691998</v>
       </c>
-      <c r="E18" t="n">
+      <c r="F18" t="n">
         <v>1.852774</v>
       </c>
-      <c r="F18" t="n">
+      <c r="G18" t="n">
         <v>0</v>
       </c>
-      <c r="G18" t="n">
+      <c r="H18" t="n">
         <v>-0.160776</v>
       </c>
-      <c r="H18" t="n">
+      <c r="I18" t="n">
         <v>1.691998</v>
       </c>
     </row>
@@ -1035,20 +1125,25 @@
           <t>quant Small Cap Fund</t>
         </is>
       </c>
-      <c r="D19" t="n">
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Adding Consistently</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
         <v>1.69164</v>
       </c>
-      <c r="E19" t="n">
+      <c r="F19" t="n">
         <v>1.587268</v>
       </c>
-      <c r="F19" t="n">
-        <v>1.601522</v>
-      </c>
       <c r="G19" t="n">
+        <v>1.579491</v>
+      </c>
+      <c r="H19" t="n">
         <v>0.1043720000000001</v>
       </c>
-      <c r="H19" t="n">
-        <v>0.09011800000000014</v>
+      <c r="I19" t="n">
+        <v>0.1121490000000001</v>
       </c>
     </row>
     <row r="20">
@@ -1067,20 +1162,25 @@
           <t>quant Small Cap Fund</t>
         </is>
       </c>
-      <c r="D20" t="n">
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Adding Consistently</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
         <v>1.688801</v>
       </c>
-      <c r="E20" t="n">
+      <c r="F20" t="n">
         <v>1.576053</v>
       </c>
-      <c r="F20" t="n">
-        <v>1.729905</v>
-      </c>
       <c r="G20" t="n">
+        <v>1.477136</v>
+      </c>
+      <c r="H20" t="n">
         <v>0.1127480000000001</v>
       </c>
-      <c r="H20" t="n">
-        <v>-0.04110400000000003</v>
+      <c r="I20" t="n">
+        <v>0.211665</v>
       </c>
     </row>
     <row r="21">
@@ -1099,20 +1199,25 @@
           <t>quant Small Cap Fund</t>
         </is>
       </c>
-      <c r="D21" t="n">
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Adding Consistently</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
         <v>1.673107</v>
       </c>
-      <c r="E21" t="n">
+      <c r="F21" t="n">
         <v>1.575507</v>
       </c>
-      <c r="F21" t="n">
-        <v>1.666675</v>
-      </c>
       <c r="G21" t="n">
+        <v>1.583105</v>
+      </c>
+      <c r="H21" t="n">
         <v>0.09759999999999991</v>
       </c>
-      <c r="H21" t="n">
-        <v>0.006431999999999993</v>
+      <c r="I21" t="n">
+        <v>0.09000199999999992</v>
       </c>
     </row>
     <row r="22">
@@ -1131,20 +1236,25 @@
           <t>quant Small Cap Fund</t>
         </is>
       </c>
-      <c r="D22" t="n">
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Reducing Consistently</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
         <v>1.601505</v>
       </c>
-      <c r="E22" t="n">
+      <c r="F22" t="n">
         <v>1.633434</v>
       </c>
-      <c r="F22" t="n">
-        <v>1.519876</v>
-      </c>
       <c r="G22" t="n">
+        <v>1.633004</v>
+      </c>
+      <c r="H22" t="n">
         <v>-0.0319290000000001</v>
       </c>
-      <c r="H22" t="n">
-        <v>0.08162899999999995</v>
+      <c r="I22" t="n">
+        <v>-0.03149899999999994</v>
       </c>
     </row>
     <row r="23">
@@ -1163,20 +1273,25 @@
           <t>quant Small Cap Fund</t>
         </is>
       </c>
-      <c r="D23" t="n">
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Reducing</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
         <v>1.532076</v>
       </c>
-      <c r="E23" t="n">
+      <c r="F23" t="n">
         <v>1.711022</v>
       </c>
-      <c r="F23" t="n">
-        <v>1.568841</v>
-      </c>
       <c r="G23" t="n">
+        <v>1.410798</v>
+      </c>
+      <c r="H23" t="n">
         <v>-0.178946</v>
       </c>
-      <c r="H23" t="n">
-        <v>-0.03676499999999994</v>
+      <c r="I23" t="n">
+        <v>0.121278</v>
       </c>
     </row>
     <row r="24">
@@ -1195,20 +1310,25 @@
           <t>quant Small Cap Fund</t>
         </is>
       </c>
-      <c r="D24" t="n">
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Reducing</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
         <v>1.524076</v>
       </c>
-      <c r="E24" t="n">
+      <c r="F24" t="n">
         <v>1.53146</v>
       </c>
-      <c r="F24" t="n">
-        <v>1.50806</v>
-      </c>
       <c r="G24" t="n">
+        <v>1.494216</v>
+      </c>
+      <c r="H24" t="n">
         <v>-0.007384000000000057</v>
       </c>
-      <c r="H24" t="n">
-        <v>0.01601600000000003</v>
+      <c r="I24" t="n">
+        <v>0.02986</v>
       </c>
     </row>
     <row r="25">
@@ -1227,20 +1347,25 @@
           <t>quant Small Cap Fund</t>
         </is>
       </c>
-      <c r="D25" t="n">
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Adding Consistently</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
         <v>1.478918</v>
       </c>
-      <c r="E25" t="n">
+      <c r="F25" t="n">
         <v>1.378831</v>
       </c>
-      <c r="F25" t="n">
-        <v>1.288915</v>
-      </c>
       <c r="G25" t="n">
+        <v>1.411446</v>
+      </c>
+      <c r="H25" t="n">
         <v>0.100087</v>
       </c>
-      <c r="H25" t="n">
-        <v>0.1900029999999999</v>
+      <c r="I25" t="n">
+        <v>0.06747199999999998</v>
       </c>
     </row>
     <row r="26">
@@ -1259,20 +1384,25 @@
           <t>quant Small Cap Fund</t>
         </is>
       </c>
-      <c r="D26" t="n">
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Adding Consistently</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
         <v>1.470238</v>
       </c>
-      <c r="E26" t="n">
+      <c r="F26" t="n">
         <v>1.407774</v>
       </c>
-      <c r="F26" t="n">
-        <v>1.407111</v>
-      </c>
       <c r="G26" t="n">
+        <v>1.349653</v>
+      </c>
+      <c r="H26" t="n">
         <v>0.06246399999999985</v>
       </c>
-      <c r="H26" t="n">
-        <v>0.06312699999999993</v>
+      <c r="I26" t="n">
+        <v>0.1205849999999999</v>
       </c>
     </row>
     <row r="27">
@@ -1291,20 +1421,25 @@
           <t>quant Small Cap Fund</t>
         </is>
       </c>
-      <c r="D27" t="n">
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Adding Consistently</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
         <v>1.250535</v>
       </c>
-      <c r="E27" t="n">
+      <c r="F27" t="n">
         <v>1.209726</v>
       </c>
-      <c r="F27" t="n">
-        <v>1.160837</v>
-      </c>
       <c r="G27" t="n">
+        <v>1.081991</v>
+      </c>
+      <c r="H27" t="n">
         <v>0.04080899999999987</v>
       </c>
-      <c r="H27" t="n">
-        <v>0.08969800000000006</v>
+      <c r="I27" t="n">
+        <v>0.168544</v>
       </c>
     </row>
     <row r="28">
@@ -1323,20 +1458,25 @@
           <t>quant Small Cap Fund</t>
         </is>
       </c>
-      <c r="D28" t="n">
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Reducing Consistently</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
         <v>1.155854</v>
       </c>
-      <c r="E28" t="n">
+      <c r="F28" t="n">
         <v>1.17211</v>
       </c>
-      <c r="F28" t="n">
-        <v>1.169717</v>
-      </c>
       <c r="G28" t="n">
+        <v>1.233458</v>
+      </c>
+      <c r="H28" t="n">
         <v>-0.01625600000000005</v>
       </c>
-      <c r="H28" t="n">
-        <v>-0.01386299999999996</v>
+      <c r="I28" t="n">
+        <v>-0.07760400000000001</v>
       </c>
     </row>
     <row r="29">
@@ -1355,20 +1495,25 @@
           <t>quant Small Cap Fund</t>
         </is>
       </c>
-      <c r="D29" t="n">
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Reducing Consistently</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
         <v>1.150281</v>
       </c>
-      <c r="E29" t="n">
+      <c r="F29" t="n">
         <v>1.181058</v>
       </c>
-      <c r="F29" t="n">
-        <v>1.226112</v>
-      </c>
       <c r="G29" t="n">
+        <v>1.367499</v>
+      </c>
+      <c r="H29" t="n">
         <v>-0.03077699999999983</v>
       </c>
-      <c r="H29" t="n">
-        <v>-0.07583099999999998</v>
+      <c r="I29" t="n">
+        <v>-0.2172179999999999</v>
       </c>
     </row>
     <row r="30">
@@ -1387,20 +1532,25 @@
           <t>quant Small Cap Fund</t>
         </is>
       </c>
-      <c r="D30" t="n">
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Adding Consistently</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
         <v>1.138823</v>
       </c>
-      <c r="E30" t="n">
+      <c r="F30" t="n">
         <v>1.074915</v>
       </c>
-      <c r="F30" t="n">
-        <v>0.972723</v>
-      </c>
       <c r="G30" t="n">
+        <v>1.023713</v>
+      </c>
+      <c r="H30" t="n">
         <v>0.06390799999999985</v>
       </c>
-      <c r="H30" t="n">
-        <v>0.1660999999999999</v>
+      <c r="I30" t="n">
+        <v>0.1151099999999998</v>
       </c>
     </row>
     <row r="31">
@@ -1419,20 +1569,25 @@
           <t>quant Small Cap Fund</t>
         </is>
       </c>
-      <c r="D31" t="n">
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Adding</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
         <v>1.132126</v>
       </c>
-      <c r="E31" t="n">
+      <c r="F31" t="n">
         <v>1.099763</v>
       </c>
-      <c r="F31" t="n">
-        <v>1.114892</v>
-      </c>
       <c r="G31" t="n">
+        <v>1.150978</v>
+      </c>
+      <c r="H31" t="n">
         <v>0.03236299999999992</v>
       </c>
-      <c r="H31" t="n">
-        <v>0.01723399999999997</v>
+      <c r="I31" t="n">
+        <v>-0.01885200000000009</v>
       </c>
     </row>
     <row r="32">
@@ -1451,20 +1606,25 @@
           <t>quant Small Cap Fund</t>
         </is>
       </c>
-      <c r="D32" t="n">
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Adding Consistently</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
         <v>1.093847</v>
       </c>
-      <c r="E32" t="n">
+      <c r="F32" t="n">
         <v>1.068398</v>
       </c>
-      <c r="F32" t="n">
-        <v>0.876549</v>
-      </c>
       <c r="G32" t="n">
+        <v>0.785538</v>
+      </c>
+      <c r="H32" t="n">
         <v>0.02544900000000005</v>
       </c>
-      <c r="H32" t="n">
-        <v>0.217298</v>
+      <c r="I32" t="n">
+        <v>0.3083090000000001</v>
       </c>
     </row>
     <row r="33">
@@ -1483,20 +1643,25 @@
           <t>quant Small Cap Fund</t>
         </is>
       </c>
-      <c r="D33" t="n">
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Reducing Consistently</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
         <v>1.056762</v>
       </c>
-      <c r="E33" t="n">
+      <c r="F33" t="n">
         <v>1.062032</v>
       </c>
-      <c r="F33" t="n">
-        <v>1.064494</v>
-      </c>
       <c r="G33" t="n">
+        <v>1.063732</v>
+      </c>
+      <c r="H33" t="n">
         <v>-0.005270000000000108</v>
       </c>
-      <c r="H33" t="n">
-        <v>-0.007732000000000072</v>
+      <c r="I33" t="n">
+        <v>-0.006969999999999921</v>
       </c>
     </row>
     <row r="34">
@@ -1515,20 +1680,25 @@
           <t>quant Small Cap Fund</t>
         </is>
       </c>
-      <c r="D34" t="n">
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Reducing</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
         <v>0.980885</v>
       </c>
-      <c r="E34" t="n">
+      <c r="F34" t="n">
         <v>1.017995</v>
       </c>
-      <c r="F34" t="n">
-        <v>1.037423</v>
-      </c>
       <c r="G34" t="n">
+        <v>0.862168</v>
+      </c>
+      <c r="H34" t="n">
         <v>-0.03710999999999998</v>
       </c>
-      <c r="H34" t="n">
-        <v>-0.05653799999999998</v>
+      <c r="I34" t="n">
+        <v>0.118717</v>
       </c>
     </row>
     <row r="35">
@@ -1547,20 +1717,25 @@
           <t>quant Small Cap Fund</t>
         </is>
       </c>
-      <c r="D35" t="n">
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Adding Consistently</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
         <v>0.928073</v>
       </c>
-      <c r="E35" t="n">
+      <c r="F35" t="n">
         <v>0.795698</v>
       </c>
-      <c r="F35" t="n">
-        <v>0.802693</v>
-      </c>
       <c r="G35" t="n">
+        <v>0.87027</v>
+      </c>
+      <c r="H35" t="n">
         <v>0.132375</v>
       </c>
-      <c r="H35" t="n">
-        <v>0.12538</v>
+      <c r="I35" t="n">
+        <v>0.05780300000000005</v>
       </c>
     </row>
     <row r="36">
@@ -1579,20 +1754,25 @@
           <t>quant Small Cap Fund</t>
         </is>
       </c>
-      <c r="D36" t="n">
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Reducing Consistently</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
         <v>0.925366</v>
       </c>
-      <c r="E36" t="n">
+      <c r="F36" t="n">
         <v>0.932186</v>
       </c>
-      <c r="F36" t="n">
-        <v>0.983209</v>
-      </c>
       <c r="G36" t="n">
+        <v>1.089752</v>
+      </c>
+      <c r="H36" t="n">
         <v>-0.006819999999999937</v>
       </c>
-      <c r="H36" t="n">
-        <v>-0.05784299999999998</v>
+      <c r="I36" t="n">
+        <v>-0.164386</v>
       </c>
     </row>
     <row r="37">
@@ -1611,20 +1791,25 @@
           <t>quant Small Cap Fund</t>
         </is>
       </c>
-      <c r="D37" t="n">
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Reducing Consistently</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
         <v>0.922881</v>
       </c>
-      <c r="E37" t="n">
+      <c r="F37" t="n">
         <v>0.951082</v>
       </c>
-      <c r="F37" t="n">
-        <v>0.935492</v>
-      </c>
       <c r="G37" t="n">
+        <v>0.9624740000000001</v>
+      </c>
+      <c r="H37" t="n">
         <v>-0.02820100000000003</v>
       </c>
-      <c r="H37" t="n">
-        <v>-0.01261100000000004</v>
+      <c r="I37" t="n">
+        <v>-0.0395930000000001</v>
       </c>
     </row>
     <row r="38">
@@ -1643,20 +1828,25 @@
           <t>quant Small Cap Fund</t>
         </is>
       </c>
-      <c r="D38" t="n">
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Adding</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
         <v>0.919845</v>
       </c>
-      <c r="E38" t="n">
+      <c r="F38" t="n">
         <v>0.917497</v>
       </c>
-      <c r="F38" t="n">
-        <v>0.920833</v>
-      </c>
       <c r="G38" t="n">
+        <v>0.956677</v>
+      </c>
+      <c r="H38" t="n">
         <v>0.002348000000000017</v>
       </c>
-      <c r="H38" t="n">
-        <v>-0.0009879999999999889</v>
+      <c r="I38" t="n">
+        <v>-0.03683199999999998</v>
       </c>
     </row>
     <row r="39">
@@ -1675,20 +1865,25 @@
           <t>quant Small Cap Fund</t>
         </is>
       </c>
-      <c r="D39" t="n">
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Adding Consistently</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
         <v>0.884838</v>
       </c>
-      <c r="E39" t="n">
+      <c r="F39" t="n">
         <v>0.883169</v>
       </c>
-      <c r="F39" t="n">
-        <v>0.957194</v>
-      </c>
       <c r="G39" t="n">
+        <v>0.825231</v>
+      </c>
+      <c r="H39" t="n">
         <v>0.001669000000000032</v>
       </c>
-      <c r="H39" t="n">
-        <v>-0.07235599999999998</v>
+      <c r="I39" t="n">
+        <v>0.05960699999999997</v>
       </c>
     </row>
     <row r="40">
@@ -1707,20 +1902,25 @@
           <t>quant Small Cap Fund</t>
         </is>
       </c>
-      <c r="D40" t="n">
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Adding</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
         <v>0.806009</v>
       </c>
-      <c r="E40" t="n">
+      <c r="F40" t="n">
         <v>0.805594</v>
       </c>
-      <c r="F40" t="n">
-        <v>0.774801</v>
-      </c>
       <c r="G40" t="n">
+        <v>0.857334</v>
+      </c>
+      <c r="H40" t="n">
         <v>0.0004149999999999432</v>
       </c>
-      <c r="H40" t="n">
-        <v>0.03120800000000001</v>
+      <c r="I40" t="n">
+        <v>-0.05132500000000007</v>
       </c>
     </row>
     <row r="41">
@@ -1739,20 +1939,25 @@
           <t>quant Small Cap Fund</t>
         </is>
       </c>
-      <c r="D41" t="n">
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Reducing Consistently</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
         <v>0.804213</v>
       </c>
-      <c r="E41" t="n">
+      <c r="F41" t="n">
         <v>0.862704</v>
       </c>
-      <c r="F41" t="n">
-        <v>0.889553</v>
-      </c>
       <c r="G41" t="n">
+        <v>0.975479</v>
+      </c>
+      <c r="H41" t="n">
         <v>-0.05849100000000007</v>
       </c>
-      <c r="H41" t="n">
-        <v>-0.08534000000000008</v>
+      <c r="I41" t="n">
+        <v>-0.171266</v>
       </c>
     </row>
     <row r="42">
@@ -1771,20 +1976,25 @@
           <t>quant Small Cap Fund</t>
         </is>
       </c>
-      <c r="D42" t="n">
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Reducing Consistently</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
         <v>0.787061</v>
       </c>
-      <c r="E42" t="n">
+      <c r="F42" t="n">
         <v>0.842314</v>
       </c>
-      <c r="F42" t="n">
-        <v>0.805246</v>
-      </c>
       <c r="G42" t="n">
+        <v>0.898709</v>
+      </c>
+      <c r="H42" t="n">
         <v>-0.055253</v>
       </c>
-      <c r="H42" t="n">
-        <v>-0.01818500000000001</v>
+      <c r="I42" t="n">
+        <v>-0.111648</v>
       </c>
     </row>
     <row r="43">
@@ -1803,19 +2013,24 @@
           <t>quant Small Cap Fund</t>
         </is>
       </c>
-      <c r="D43" t="n">
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Adding Consistently</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
         <v>0.620131</v>
       </c>
-      <c r="E43" t="n">
+      <c r="F43" t="n">
         <v>0.584853</v>
       </c>
-      <c r="F43" t="n">
+      <c r="G43" t="n">
         <v>0</v>
       </c>
-      <c r="G43" t="n">
+      <c r="H43" t="n">
         <v>0.03527800000000003</v>
       </c>
-      <c r="H43" t="n">
+      <c r="I43" t="n">
         <v>0.620131</v>
       </c>
     </row>
@@ -1835,20 +2050,25 @@
           <t>quant Small Cap Fund</t>
         </is>
       </c>
-      <c r="D44" t="n">
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Adding Consistently</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
         <v>0.612621</v>
       </c>
-      <c r="E44" t="n">
+      <c r="F44" t="n">
         <v>0.537195</v>
       </c>
-      <c r="F44" t="n">
-        <v>0.519865</v>
-      </c>
       <c r="G44" t="n">
+        <v>0.370064</v>
+      </c>
+      <c r="H44" t="n">
         <v>0.07542599999999999</v>
       </c>
-      <c r="H44" t="n">
-        <v>0.09275599999999995</v>
+      <c r="I44" t="n">
+        <v>0.242557</v>
       </c>
     </row>
     <row r="45">
@@ -1867,20 +2087,25 @@
           <t>quant Small Cap Fund</t>
         </is>
       </c>
-      <c r="D45" t="n">
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Adding Consistently</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
         <v>0.566976</v>
       </c>
-      <c r="E45" t="n">
+      <c r="F45" t="n">
         <v>0.524012</v>
       </c>
-      <c r="F45" t="n">
-        <v>0.460778</v>
-      </c>
       <c r="G45" t="n">
+        <v>0.452921</v>
+      </c>
+      <c r="H45" t="n">
         <v>0.042964</v>
       </c>
-      <c r="H45" t="n">
-        <v>0.106198</v>
+      <c r="I45" t="n">
+        <v>0.114055</v>
       </c>
     </row>
     <row r="46">
@@ -1899,20 +2124,25 @@
           <t>quant Small Cap Fund</t>
         </is>
       </c>
-      <c r="D46" t="n">
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Adding Consistently</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
         <v>0.561349</v>
       </c>
-      <c r="E46" t="n">
+      <c r="F46" t="n">
         <v>0.53332</v>
       </c>
-      <c r="F46" t="n">
-        <v>0.587969</v>
-      </c>
       <c r="G46" t="n">
+        <v>0.515339</v>
+      </c>
+      <c r="H46" t="n">
         <v>0.02802899999999997</v>
       </c>
-      <c r="H46" t="n">
-        <v>-0.02661999999999998</v>
+      <c r="I46" t="n">
+        <v>0.04601</v>
       </c>
     </row>
     <row r="47">
@@ -1931,20 +2161,25 @@
           <t>quant Small Cap Fund</t>
         </is>
       </c>
-      <c r="D47" t="n">
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Adding Consistently</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
         <v>0.556196</v>
       </c>
-      <c r="E47" t="n">
+      <c r="F47" t="n">
         <v>0.4749</v>
       </c>
-      <c r="F47" t="n">
-        <v>0.478426</v>
-      </c>
       <c r="G47" t="n">
+        <v>0</v>
+      </c>
+      <c r="H47" t="n">
         <v>0.08129600000000003</v>
       </c>
-      <c r="H47" t="n">
-        <v>0.07777000000000001</v>
+      <c r="I47" t="n">
+        <v>0.556196</v>
       </c>
     </row>
     <row r="48">
@@ -1963,20 +2198,25 @@
           <t>quant Small Cap Fund</t>
         </is>
       </c>
-      <c r="D48" t="n">
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Reducing</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
         <v>0.553644</v>
       </c>
-      <c r="E48" t="n">
+      <c r="F48" t="n">
         <v>0.570764</v>
       </c>
-      <c r="F48" t="n">
-        <v>0.534283</v>
-      </c>
       <c r="G48" t="n">
+        <v>0.521818</v>
+      </c>
+      <c r="H48" t="n">
         <v>-0.01712000000000002</v>
       </c>
-      <c r="H48" t="n">
-        <v>0.01936100000000007</v>
+      <c r="I48" t="n">
+        <v>0.03182600000000002</v>
       </c>
     </row>
     <row r="49">
@@ -1995,20 +2235,25 @@
           <t>quant Small Cap Fund</t>
         </is>
       </c>
-      <c r="D49" t="n">
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Adding Consistently</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
         <v>0.548588</v>
       </c>
-      <c r="E49" t="n">
+      <c r="F49" t="n">
         <v>0.531398</v>
       </c>
-      <c r="F49" t="n">
-        <v>0.59794</v>
-      </c>
       <c r="G49" t="n">
+        <v>0.515202</v>
+      </c>
+      <c r="H49" t="n">
         <v>0.01718999999999993</v>
       </c>
-      <c r="H49" t="n">
-        <v>-0.04935200000000006</v>
+      <c r="I49" t="n">
+        <v>0.03338599999999992</v>
       </c>
     </row>
     <row r="50">
@@ -2027,20 +2272,25 @@
           <t>quant Small Cap Fund</t>
         </is>
       </c>
-      <c r="D50" t="n">
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Adding Consistently</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
         <v>0.516219</v>
       </c>
-      <c r="E50" t="n">
+      <c r="F50" t="n">
         <v>0.469597</v>
       </c>
-      <c r="F50" t="n">
-        <v>0.468403</v>
-      </c>
       <c r="G50" t="n">
+        <v>0.479189</v>
+      </c>
+      <c r="H50" t="n">
         <v>0.046622</v>
       </c>
-      <c r="H50" t="n">
-        <v>0.04781599999999997</v>
+      <c r="I50" t="n">
+        <v>0.03703000000000001</v>
       </c>
     </row>
     <row r="51">
@@ -2059,20 +2309,25 @@
           <t>quant Small Cap Fund</t>
         </is>
       </c>
-      <c r="D51" t="n">
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Reducing Consistently</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
         <v>0.496127</v>
       </c>
-      <c r="E51" t="n">
+      <c r="F51" t="n">
         <v>0.5106889999999999</v>
       </c>
-      <c r="F51" t="n">
-        <v>0.476679</v>
-      </c>
       <c r="G51" t="n">
+        <v>0.538784</v>
+      </c>
+      <c r="H51" t="n">
         <v>-0.01456199999999996</v>
       </c>
-      <c r="H51" t="n">
-        <v>0.01944799999999997</v>
+      <c r="I51" t="n">
+        <v>-0.04265700000000006</v>
       </c>
     </row>
     <row r="52">
@@ -2091,20 +2346,25 @@
           <t>quant Small Cap Fund</t>
         </is>
       </c>
-      <c r="D52" t="n">
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Reducing Consistently</t>
+        </is>
+      </c>
+      <c r="E52" t="n">
         <v>0.470498</v>
       </c>
-      <c r="E52" t="n">
+      <c r="F52" t="n">
         <v>0.477535</v>
       </c>
-      <c r="F52" t="n">
-        <v>0.486209</v>
-      </c>
       <c r="G52" t="n">
+        <v>0.525119</v>
+      </c>
+      <c r="H52" t="n">
         <v>-0.00703699999999996</v>
       </c>
-      <c r="H52" t="n">
-        <v>-0.01571099999999997</v>
+      <c r="I52" t="n">
+        <v>-0.05462099999999998</v>
       </c>
     </row>
     <row r="53">
@@ -2123,20 +2383,25 @@
           <t>quant Small Cap Fund</t>
         </is>
       </c>
-      <c r="D53" t="n">
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Reducing Consistently</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
         <v>0.43852</v>
       </c>
-      <c r="E53" t="n">
+      <c r="F53" t="n">
         <v>0.466133</v>
       </c>
-      <c r="F53" t="n">
-        <v>0.468393</v>
-      </c>
       <c r="G53" t="n">
+        <v>0.483942</v>
+      </c>
+      <c r="H53" t="n">
         <v>-0.027613</v>
       </c>
-      <c r="H53" t="n">
-        <v>-0.02987299999999998</v>
+      <c r="I53" t="n">
+        <v>-0.04542199999999996</v>
       </c>
     </row>
     <row r="54">
@@ -2155,20 +2420,25 @@
           <t>quant Small Cap Fund</t>
         </is>
       </c>
-      <c r="D54" t="n">
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Adding</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
         <v>0.417815</v>
       </c>
-      <c r="E54" t="n">
+      <c r="F54" t="n">
         <v>0.416323</v>
       </c>
-      <c r="F54" t="n">
-        <v>0.470802</v>
-      </c>
       <c r="G54" t="n">
+        <v>0.46128</v>
+      </c>
+      <c r="H54" t="n">
         <v>0.001491999999999993</v>
       </c>
-      <c r="H54" t="n">
-        <v>-0.05298700000000001</v>
+      <c r="I54" t="n">
+        <v>-0.04346500000000003</v>
       </c>
     </row>
     <row r="55">
@@ -2187,20 +2457,25 @@
           <t>quant Small Cap Fund</t>
         </is>
       </c>
-      <c r="D55" t="n">
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Adding</t>
+        </is>
+      </c>
+      <c r="E55" t="n">
         <v>0.36701</v>
       </c>
-      <c r="E55" t="n">
+      <c r="F55" t="n">
         <v>0.341964</v>
       </c>
-      <c r="F55" t="n">
-        <v>0.337598</v>
-      </c>
       <c r="G55" t="n">
+        <v>0.379953</v>
+      </c>
+      <c r="H55" t="n">
         <v>0.02504600000000001</v>
       </c>
-      <c r="H55" t="n">
-        <v>0.02941199999999999</v>
+      <c r="I55" t="n">
+        <v>-0.01294299999999998</v>
       </c>
     </row>
     <row r="56">
@@ -2219,20 +2494,25 @@
           <t>quant Small Cap Fund</t>
         </is>
       </c>
-      <c r="D56" t="n">
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Adding Consistently</t>
+        </is>
+      </c>
+      <c r="E56" t="n">
         <v>0.345066</v>
       </c>
-      <c r="E56" t="n">
+      <c r="F56" t="n">
         <v>0.334876</v>
       </c>
-      <c r="F56" t="n">
-        <v>0.315628</v>
-      </c>
       <c r="G56" t="n">
+        <v>0</v>
+      </c>
+      <c r="H56" t="n">
         <v>0.01018999999999998</v>
       </c>
-      <c r="H56" t="n">
-        <v>0.02943799999999996</v>
+      <c r="I56" t="n">
+        <v>0.345066</v>
       </c>
     </row>
     <row r="57">
@@ -2251,20 +2531,25 @@
           <t>quant Small Cap Fund</t>
         </is>
       </c>
-      <c r="D57" t="n">
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Adding</t>
+        </is>
+      </c>
+      <c r="E57" t="n">
         <v>0.333543</v>
       </c>
-      <c r="E57" t="n">
+      <c r="F57" t="n">
         <v>0.330755</v>
       </c>
-      <c r="F57" t="n">
-        <v>0.356527</v>
-      </c>
       <c r="G57" t="n">
+        <v>0.384277</v>
+      </c>
+      <c r="H57" t="n">
         <v>0.002787999999999957</v>
       </c>
-      <c r="H57" t="n">
-        <v>-0.022984</v>
+      <c r="I57" t="n">
+        <v>-0.050734</v>
       </c>
     </row>
     <row r="58">
@@ -2283,20 +2568,25 @@
           <t>quant Small Cap Fund</t>
         </is>
       </c>
-      <c r="D58" t="n">
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Adding Consistently</t>
+        </is>
+      </c>
+      <c r="E58" t="n">
         <v>0.329047</v>
       </c>
-      <c r="E58" t="n">
+      <c r="F58" t="n">
         <v>0.288639</v>
       </c>
-      <c r="F58" t="n">
-        <v>0.297851</v>
-      </c>
       <c r="G58" t="n">
+        <v>0.297403</v>
+      </c>
+      <c r="H58" t="n">
         <v>0.040408</v>
       </c>
-      <c r="H58" t="n">
-        <v>0.031196</v>
+      <c r="I58" t="n">
+        <v>0.03164400000000001</v>
       </c>
     </row>
     <row r="59">
@@ -2315,20 +2605,25 @@
           <t>quant Small Cap Fund</t>
         </is>
       </c>
-      <c r="D59" t="n">
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Reducing</t>
+        </is>
+      </c>
+      <c r="E59" t="n">
         <v>0.305238</v>
       </c>
-      <c r="E59" t="n">
+      <c r="F59" t="n">
         <v>0.323195</v>
       </c>
-      <c r="F59" t="n">
-        <v>0.335078</v>
-      </c>
       <c r="G59" t="n">
+        <v>0.246725</v>
+      </c>
+      <c r="H59" t="n">
         <v>-0.017957</v>
       </c>
-      <c r="H59" t="n">
-        <v>-0.02983999999999998</v>
+      <c r="I59" t="n">
+        <v>0.05851300000000001</v>
       </c>
     </row>
     <row r="60">
@@ -2347,20 +2642,25 @@
           <t>quant Small Cap Fund</t>
         </is>
       </c>
-      <c r="D60" t="n">
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Adding Consistently</t>
+        </is>
+      </c>
+      <c r="E60" t="n">
         <v>0.291744</v>
       </c>
-      <c r="E60" t="n">
+      <c r="F60" t="n">
         <v>0.283577</v>
       </c>
-      <c r="F60" t="n">
-        <v>0.281973</v>
-      </c>
       <c r="G60" t="n">
+        <v>0.285951</v>
+      </c>
+      <c r="H60" t="n">
         <v>0.00816699999999998</v>
       </c>
-      <c r="H60" t="n">
-        <v>0.00977100000000003</v>
+      <c r="I60" t="n">
+        <v>0.005792999999999993</v>
       </c>
     </row>
     <row r="61">
@@ -2379,20 +2679,25 @@
           <t>quant Small Cap Fund</t>
         </is>
       </c>
-      <c r="D61" t="n">
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Reducing Consistently</t>
+        </is>
+      </c>
+      <c r="E61" t="n">
         <v>0.280532</v>
       </c>
-      <c r="E61" t="n">
+      <c r="F61" t="n">
         <v>0.305641</v>
       </c>
-      <c r="F61" t="n">
-        <v>0.324855</v>
-      </c>
       <c r="G61" t="n">
+        <v>0.346381</v>
+      </c>
+      <c r="H61" t="n">
         <v>-0.02510899999999999</v>
       </c>
-      <c r="H61" t="n">
-        <v>-0.044323</v>
+      <c r="I61" t="n">
+        <v>-0.06584899999999999</v>
       </c>
     </row>
     <row r="62">
@@ -2411,20 +2716,25 @@
           <t>quant Small Cap Fund</t>
         </is>
       </c>
-      <c r="D62" t="n">
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Reducing Consistently</t>
+        </is>
+      </c>
+      <c r="E62" t="n">
         <v>0.275034</v>
       </c>
-      <c r="E62" t="n">
+      <c r="F62" t="n">
         <v>0.277239</v>
       </c>
-      <c r="F62" t="n">
-        <v>0.527796</v>
-      </c>
       <c r="G62" t="n">
+        <v>0.643083</v>
+      </c>
+      <c r="H62" t="n">
         <v>-0.002205000000000013</v>
       </c>
-      <c r="H62" t="n">
-        <v>-0.252762</v>
+      <c r="I62" t="n">
+        <v>-0.368049</v>
       </c>
     </row>
     <row r="63">
@@ -2443,20 +2753,25 @@
           <t>quant Small Cap Fund</t>
         </is>
       </c>
-      <c r="D63" t="n">
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Adding Consistently</t>
+        </is>
+      </c>
+      <c r="E63" t="n">
         <v>0.256353</v>
       </c>
-      <c r="E63" t="n">
+      <c r="F63" t="n">
         <v>0.25429</v>
       </c>
-      <c r="F63" t="n">
-        <v>0.267958</v>
-      </c>
       <c r="G63" t="n">
+        <v>0.254788</v>
+      </c>
+      <c r="H63" t="n">
         <v>0.002062999999999982</v>
       </c>
-      <c r="H63" t="n">
-        <v>-0.01160499999999998</v>
+      <c r="I63" t="n">
+        <v>0.001564999999999983</v>
       </c>
     </row>
     <row r="64">
@@ -2475,20 +2790,25 @@
           <t>quant Small Cap Fund</t>
         </is>
       </c>
-      <c r="D64" t="n">
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Adding Consistently</t>
+        </is>
+      </c>
+      <c r="E64" t="n">
         <v>0.247001</v>
       </c>
-      <c r="E64" t="n">
+      <c r="F64" t="n">
         <v>0.245105</v>
       </c>
-      <c r="F64" t="n">
-        <v>0.253938</v>
-      </c>
       <c r="G64" t="n">
+        <v>0.242156</v>
+      </c>
+      <c r="H64" t="n">
         <v>0.001896000000000009</v>
       </c>
-      <c r="H64" t="n">
-        <v>-0.006936999999999999</v>
+      <c r="I64" t="n">
+        <v>0.004844999999999988</v>
       </c>
     </row>
     <row r="65">
@@ -2507,20 +2827,25 @@
           <t>quant Small Cap Fund</t>
         </is>
       </c>
-      <c r="D65" t="n">
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Reducing Consistently</t>
+        </is>
+      </c>
+      <c r="E65" t="n">
         <v>0.24242</v>
       </c>
-      <c r="E65" t="n">
+      <c r="F65" t="n">
         <v>0.258898</v>
       </c>
-      <c r="F65" t="n">
-        <v>0.256213</v>
-      </c>
       <c r="G65" t="n">
+        <v>0.294439</v>
+      </c>
+      <c r="H65" t="n">
         <v>-0.01647800000000002</v>
       </c>
-      <c r="H65" t="n">
-        <v>-0.01379300000000003</v>
+      <c r="I65" t="n">
+        <v>-0.05201900000000001</v>
       </c>
     </row>
     <row r="66">
@@ -2539,20 +2864,25 @@
           <t>quant Small Cap Fund</t>
         </is>
       </c>
-      <c r="D66" t="n">
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Reducing Consistently</t>
+        </is>
+      </c>
+      <c r="E66" t="n">
         <v>0.228018</v>
       </c>
-      <c r="E66" t="n">
+      <c r="F66" t="n">
         <v>0.262457</v>
       </c>
-      <c r="F66" t="n">
-        <v>0.268254</v>
-      </c>
       <c r="G66" t="n">
+        <v>0.304474</v>
+      </c>
+      <c r="H66" t="n">
         <v>-0.034439</v>
       </c>
-      <c r="H66" t="n">
-        <v>-0.04023599999999999</v>
+      <c r="I66" t="n">
+        <v>-0.07645600000000002</v>
       </c>
     </row>
     <row r="67">
@@ -2571,20 +2901,25 @@
           <t>quant Small Cap Fund</t>
         </is>
       </c>
-      <c r="D67" t="n">
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Adding Consistently</t>
+        </is>
+      </c>
+      <c r="E67" t="n">
         <v>0.215007</v>
       </c>
-      <c r="E67" t="n">
+      <c r="F67" t="n">
         <v>0.193807</v>
       </c>
-      <c r="F67" t="n">
-        <v>0.196757</v>
-      </c>
       <c r="G67" t="n">
+        <v>0.174169</v>
+      </c>
+      <c r="H67" t="n">
         <v>0.0212</v>
       </c>
-      <c r="H67" t="n">
-        <v>0.01825000000000002</v>
+      <c r="I67" t="n">
+        <v>0.04083800000000001</v>
       </c>
     </row>
     <row r="68">
@@ -2603,20 +2938,25 @@
           <t>quant Small Cap Fund</t>
         </is>
       </c>
-      <c r="D68" t="n">
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Reducing Consistently</t>
+        </is>
+      </c>
+      <c r="E68" t="n">
         <v>0.211969</v>
       </c>
-      <c r="E68" t="n">
+      <c r="F68" t="n">
         <v>0.259404</v>
       </c>
-      <c r="F68" t="n">
-        <v>0.267826</v>
-      </c>
       <c r="G68" t="n">
+        <v>0.34881</v>
+      </c>
+      <c r="H68" t="n">
         <v>-0.04743500000000003</v>
       </c>
-      <c r="H68" t="n">
-        <v>-0.05585700000000002</v>
+      <c r="I68" t="n">
+        <v>-0.136841</v>
       </c>
     </row>
     <row r="69">
@@ -2635,20 +2975,25 @@
           <t>quant Small Cap Fund</t>
         </is>
       </c>
-      <c r="D69" t="n">
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Adding Consistently</t>
+        </is>
+      </c>
+      <c r="E69" t="n">
         <v>0.208514</v>
       </c>
-      <c r="E69" t="n">
+      <c r="F69" t="n">
         <v>0.200454</v>
       </c>
-      <c r="F69" t="n">
-        <v>0.197586</v>
-      </c>
       <c r="G69" t="n">
+        <v>0.198224</v>
+      </c>
+      <c r="H69" t="n">
         <v>0.008060000000000012</v>
       </c>
-      <c r="H69" t="n">
-        <v>0.01092799999999999</v>
+      <c r="I69" t="n">
+        <v>0.01028999999999999</v>
       </c>
     </row>
     <row r="70">
@@ -2667,20 +3012,25 @@
           <t>quant Small Cap Fund</t>
         </is>
       </c>
-      <c r="D70" t="n">
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Adding Consistently</t>
+        </is>
+      </c>
+      <c r="E70" t="n">
         <v>0.201925</v>
       </c>
-      <c r="E70" t="n">
+      <c r="F70" t="n">
         <v>0.193263</v>
       </c>
-      <c r="F70" t="n">
-        <v>0.189655</v>
-      </c>
       <c r="G70" t="n">
+        <v>0.196195</v>
+      </c>
+      <c r="H70" t="n">
         <v>0.008662000000000003</v>
       </c>
-      <c r="H70" t="n">
-        <v>0.01227</v>
+      <c r="I70" t="n">
+        <v>0.005729999999999985</v>
       </c>
     </row>
     <row r="71">
@@ -2699,19 +3049,24 @@
           <t>quant Small Cap Fund</t>
         </is>
       </c>
-      <c r="D71" t="n">
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Adding Consistently</t>
+        </is>
+      </c>
+      <c r="E71" t="n">
         <v>0.198222</v>
       </c>
-      <c r="E71" t="n">
+      <c r="F71" t="n">
         <v>0.189883</v>
       </c>
-      <c r="F71" t="n">
+      <c r="G71" t="n">
         <v>0</v>
       </c>
-      <c r="G71" t="n">
+      <c r="H71" t="n">
         <v>0.008339000000000013</v>
       </c>
-      <c r="H71" t="n">
+      <c r="I71" t="n">
         <v>0.198222</v>
       </c>
     </row>
@@ -2731,20 +3086,25 @@
           <t>quant Small Cap Fund</t>
         </is>
       </c>
-      <c r="D72" t="n">
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Adding</t>
+        </is>
+      </c>
+      <c r="E72" t="n">
         <v>0.192585</v>
       </c>
-      <c r="E72" t="n">
+      <c r="F72" t="n">
         <v>0.157253</v>
       </c>
-      <c r="F72" t="n">
-        <v>0.203941</v>
-      </c>
       <c r="G72" t="n">
+        <v>0.242425</v>
+      </c>
+      <c r="H72" t="n">
         <v>0.035332</v>
       </c>
-      <c r="H72" t="n">
-        <v>-0.011356</v>
+      <c r="I72" t="n">
+        <v>-0.04984</v>
       </c>
     </row>
     <row r="73">
@@ -2763,20 +3123,25 @@
           <t>quant Small Cap Fund</t>
         </is>
       </c>
-      <c r="D73" t="n">
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Adding Consistently</t>
+        </is>
+      </c>
+      <c r="E73" t="n">
         <v>0.192413</v>
       </c>
-      <c r="E73" t="n">
+      <c r="F73" t="n">
         <v>0.187311</v>
       </c>
-      <c r="F73" t="n">
-        <v>0.09783</v>
-      </c>
       <c r="G73" t="n">
+        <v>0.10663</v>
+      </c>
+      <c r="H73" t="n">
         <v>0.005101999999999995</v>
       </c>
-      <c r="H73" t="n">
-        <v>0.094583</v>
+      <c r="I73" t="n">
+        <v>0.085783</v>
       </c>
     </row>
     <row r="74">
@@ -2795,20 +3160,25 @@
           <t>quant Small Cap Fund</t>
         </is>
       </c>
-      <c r="D74" t="n">
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Reducing Consistently</t>
+        </is>
+      </c>
+      <c r="E74" t="n">
         <v>0.175187</v>
       </c>
-      <c r="E74" t="n">
+      <c r="F74" t="n">
         <v>0.180028</v>
       </c>
-      <c r="F74" t="n">
-        <v>0.174252</v>
-      </c>
       <c r="G74" t="n">
+        <v>0.187474</v>
+      </c>
+      <c r="H74" t="n">
         <v>-0.004840999999999984</v>
       </c>
-      <c r="H74" t="n">
-        <v>0.0009350000000000191</v>
+      <c r="I74" t="n">
+        <v>-0.01228699999999999</v>
       </c>
     </row>
     <row r="75">
@@ -2827,20 +3197,25 @@
           <t>quant Small Cap Fund</t>
         </is>
       </c>
-      <c r="D75" t="n">
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Adding</t>
+        </is>
+      </c>
+      <c r="E75" t="n">
         <v>0.168149</v>
       </c>
-      <c r="E75" t="n">
+      <c r="F75" t="n">
         <v>0.164292</v>
       </c>
-      <c r="F75" t="n">
-        <v>0.18583</v>
-      </c>
       <c r="G75" t="n">
+        <v>0.187261</v>
+      </c>
+      <c r="H75" t="n">
         <v>0.003856999999999999</v>
       </c>
-      <c r="H75" t="n">
-        <v>-0.017681</v>
+      <c r="I75" t="n">
+        <v>-0.01911200000000002</v>
       </c>
     </row>
     <row r="76">
@@ -2859,20 +3234,25 @@
           <t>quant Small Cap Fund</t>
         </is>
       </c>
-      <c r="D76" t="n">
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Adding Consistently</t>
+        </is>
+      </c>
+      <c r="E76" t="n">
         <v>0.166175</v>
       </c>
-      <c r="E76" t="n">
+      <c r="F76" t="n">
         <v>0.152948</v>
       </c>
-      <c r="F76" t="n">
-        <v>0.166281</v>
-      </c>
       <c r="G76" t="n">
+        <v>0.156965</v>
+      </c>
+      <c r="H76" t="n">
         <v>0.01322699999999999</v>
       </c>
-      <c r="H76" t="n">
-        <v>-0.0001060000000000227</v>
+      <c r="I76" t="n">
+        <v>0.009209999999999996</v>
       </c>
     </row>
     <row r="77">
@@ -2891,20 +3271,25 @@
           <t>quant Small Cap Fund</t>
         </is>
       </c>
-      <c r="D77" t="n">
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Reducing Consistently</t>
+        </is>
+      </c>
+      <c r="E77" t="n">
         <v>0.164482</v>
       </c>
-      <c r="E77" t="n">
+      <c r="F77" t="n">
         <v>0.173101</v>
       </c>
-      <c r="F77" t="n">
-        <v>0.186307</v>
-      </c>
       <c r="G77" t="n">
+        <v>0.190508</v>
+      </c>
+      <c r="H77" t="n">
         <v>-0.008619000000000016</v>
       </c>
-      <c r="H77" t="n">
-        <v>-0.02182500000000001</v>
+      <c r="I77" t="n">
+        <v>-0.02602600000000002</v>
       </c>
     </row>
     <row r="78">
@@ -2923,20 +3308,25 @@
           <t>quant Small Cap Fund</t>
         </is>
       </c>
-      <c r="D78" t="n">
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Reducing Consistently</t>
+        </is>
+      </c>
+      <c r="E78" t="n">
         <v>0.157755</v>
       </c>
-      <c r="E78" t="n">
+      <c r="F78" t="n">
         <v>0.171187</v>
       </c>
-      <c r="F78" t="n">
-        <v>0.16107</v>
-      </c>
       <c r="G78" t="n">
+        <v>0.197576</v>
+      </c>
+      <c r="H78" t="n">
         <v>-0.013432</v>
       </c>
-      <c r="H78" t="n">
-        <v>-0.003314999999999985</v>
+      <c r="I78" t="n">
+        <v>-0.039821</v>
       </c>
     </row>
     <row r="79">
@@ -2955,20 +3345,25 @@
           <t>quant Small Cap Fund</t>
         </is>
       </c>
-      <c r="D79" t="n">
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Reducing</t>
+        </is>
+      </c>
+      <c r="E79" t="n">
         <v>0.111814</v>
       </c>
-      <c r="E79" t="n">
+      <c r="F79" t="n">
         <v>0.118387</v>
       </c>
-      <c r="F79" t="n">
-        <v>0.125856</v>
-      </c>
       <c r="G79" t="n">
+        <v>0.087579</v>
+      </c>
+      <c r="H79" t="n">
         <v>-0.006573000000000009</v>
       </c>
-      <c r="H79" t="n">
-        <v>-0.014042</v>
+      <c r="I79" t="n">
+        <v>0.02423499999999999</v>
       </c>
     </row>
     <row r="80">
@@ -2987,20 +3382,25 @@
           <t>quant Small Cap Fund</t>
         </is>
       </c>
-      <c r="D80" t="n">
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Adding Consistently</t>
+        </is>
+      </c>
+      <c r="E80" t="n">
         <v>0.107956</v>
       </c>
-      <c r="E80" t="n">
+      <c r="F80" t="n">
         <v>0.103751</v>
       </c>
-      <c r="F80" t="n">
-        <v>0.10516</v>
-      </c>
       <c r="G80" t="n">
+        <v>0.107675</v>
+      </c>
+      <c r="H80" t="n">
         <v>0.004205</v>
       </c>
-      <c r="H80" t="n">
-        <v>0.002795999999999993</v>
+      <c r="I80" t="n">
+        <v>0.0002809999999999896</v>
       </c>
     </row>
     <row r="81">
@@ -3019,20 +3419,25 @@
           <t>quant Small Cap Fund</t>
         </is>
       </c>
-      <c r="D81" t="n">
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Adding Consistently</t>
+        </is>
+      </c>
+      <c r="E81" t="n">
         <v>0.107523</v>
       </c>
-      <c r="E81" t="n">
+      <c r="F81" t="n">
         <v>0.105236</v>
       </c>
-      <c r="F81" t="n">
-        <v>0.101164</v>
-      </c>
       <c r="G81" t="n">
+        <v>0.090283</v>
+      </c>
+      <c r="H81" t="n">
         <v>0.002286999999999997</v>
       </c>
-      <c r="H81" t="n">
-        <v>0.00635899999999999</v>
+      <c r="I81" t="n">
+        <v>0.01723999999999999</v>
       </c>
     </row>
     <row r="82">
@@ -3051,20 +3456,25 @@
           <t>quant Small Cap Fund</t>
         </is>
       </c>
-      <c r="D82" t="n">
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Reducing Consistently</t>
+        </is>
+      </c>
+      <c r="E82" t="n">
         <v>0.107027</v>
       </c>
-      <c r="E82" t="n">
+      <c r="F82" t="n">
         <v>0.142884</v>
       </c>
-      <c r="F82" t="n">
-        <v>0.147078</v>
-      </c>
       <c r="G82" t="n">
+        <v>0.161139</v>
+      </c>
+      <c r="H82" t="n">
         <v>-0.03585700000000001</v>
       </c>
-      <c r="H82" t="n">
-        <v>-0.04005099999999999</v>
+      <c r="I82" t="n">
+        <v>-0.05411200000000001</v>
       </c>
     </row>
     <row r="83">
@@ -3083,20 +3493,25 @@
           <t>quant Small Cap Fund</t>
         </is>
       </c>
-      <c r="D83" t="n">
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Adding Consistently</t>
+        </is>
+      </c>
+      <c r="E83" t="n">
         <v>0.102408</v>
       </c>
-      <c r="E83" t="n">
+      <c r="F83" t="n">
         <v>0.097876</v>
       </c>
-      <c r="F83" t="n">
-        <v>0.08357100000000001</v>
-      </c>
       <c r="G83" t="n">
+        <v>0</v>
+      </c>
+      <c r="H83" t="n">
         <v>0.004531999999999994</v>
       </c>
-      <c r="H83" t="n">
-        <v>0.01883699999999999</v>
+      <c r="I83" t="n">
+        <v>0.102408</v>
       </c>
     </row>
     <row r="84">
@@ -3115,20 +3530,25 @@
           <t>quant Small Cap Fund</t>
         </is>
       </c>
-      <c r="D84" t="n">
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Adding</t>
+        </is>
+      </c>
+      <c r="E84" t="n">
         <v>0.093768</v>
       </c>
-      <c r="E84" t="n">
+      <c r="F84" t="n">
         <v>0.087702</v>
       </c>
-      <c r="F84" t="n">
-        <v>0.092948</v>
-      </c>
       <c r="G84" t="n">
+        <v>0.10016</v>
+      </c>
+      <c r="H84" t="n">
         <v>0.006066000000000002</v>
       </c>
-      <c r="H84" t="n">
-        <v>0.0008200000000000013</v>
+      <c r="I84" t="n">
+        <v>-0.006391999999999995</v>
       </c>
     </row>
     <row r="85">
@@ -3147,20 +3567,25 @@
           <t>quant Small Cap Fund</t>
         </is>
       </c>
-      <c r="D85" t="n">
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Reducing</t>
+        </is>
+      </c>
+      <c r="E85" t="n">
         <v>0.088648</v>
       </c>
-      <c r="E85" t="n">
+      <c r="F85" t="n">
         <v>0.095058</v>
       </c>
-      <c r="F85" t="n">
-        <v>0.09621499999999999</v>
-      </c>
       <c r="G85" t="n">
+        <v>0.083632</v>
+      </c>
+      <c r="H85" t="n">
         <v>-0.006409999999999999</v>
       </c>
-      <c r="H85" t="n">
-        <v>-0.00756699999999999</v>
+      <c r="I85" t="n">
+        <v>0.005016000000000007</v>
       </c>
     </row>
     <row r="86">
@@ -3179,20 +3604,25 @@
           <t>quant Small Cap Fund</t>
         </is>
       </c>
-      <c r="D86" t="n">
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Reducing Consistently</t>
+        </is>
+      </c>
+      <c r="E86" t="n">
         <v>0.08568099999999999</v>
       </c>
-      <c r="E86" t="n">
+      <c r="F86" t="n">
         <v>0.110371</v>
       </c>
-      <c r="F86" t="n">
-        <v>0.114345</v>
-      </c>
       <c r="G86" t="n">
+        <v>0.12516</v>
+      </c>
+      <c r="H86" t="n">
         <v>-0.02469</v>
       </c>
-      <c r="H86" t="n">
-        <v>-0.02866400000000001</v>
+      <c r="I86" t="n">
+        <v>-0.039479</v>
       </c>
     </row>
     <row r="87">
@@ -3211,20 +3641,25 @@
           <t>quant Small Cap Fund</t>
         </is>
       </c>
-      <c r="D87" t="n">
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Reducing Consistently</t>
+        </is>
+      </c>
+      <c r="E87" t="n">
         <v>0.082398</v>
       </c>
-      <c r="E87" t="n">
+      <c r="F87" t="n">
         <v>0.089935</v>
       </c>
-      <c r="F87" t="n">
-        <v>0.138753</v>
-      </c>
       <c r="G87" t="n">
+        <v>0.152725</v>
+      </c>
+      <c r="H87" t="n">
         <v>-0.007537000000000002</v>
       </c>
-      <c r="H87" t="n">
-        <v>-0.05635499999999999</v>
+      <c r="I87" t="n">
+        <v>-0.070327</v>
       </c>
     </row>
     <row r="88">
@@ -3243,20 +3678,25 @@
           <t>quant Small Cap Fund</t>
         </is>
       </c>
-      <c r="D88" t="n">
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Adding</t>
+        </is>
+      </c>
+      <c r="E88" t="n">
         <v>0.075681</v>
       </c>
-      <c r="E88" t="n">
+      <c r="F88" t="n">
         <v>0.070594</v>
       </c>
-      <c r="F88" t="n">
-        <v>0.100891</v>
-      </c>
       <c r="G88" t="n">
+        <v>0.132231</v>
+      </c>
+      <c r="H88" t="n">
         <v>0.005086999999999994</v>
       </c>
-      <c r="H88" t="n">
-        <v>-0.02521</v>
+      <c r="I88" t="n">
+        <v>-0.05654999999999999</v>
       </c>
     </row>
     <row r="89">
@@ -3275,21 +3715,26 @@
           <t>quant Small Cap Fund</t>
         </is>
       </c>
-      <c r="D89" t="n">
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Fresh Entry</t>
+        </is>
+      </c>
+      <c r="E89" t="n">
         <v>0.051901</v>
-      </c>
-      <c r="E89" t="n">
-        <v>0</v>
       </c>
       <c r="F89" t="n">
         <v>0</v>
       </c>
       <c r="G89" t="n">
-        <v>0.051901</v>
+        <v>0</v>
       </c>
       <c r="H89" t="n">
         <v>0.051901</v>
       </c>
+      <c r="I89" t="n">
+        <v>0.051901</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -3307,21 +3752,26 @@
           <t>quant Small Cap Fund</t>
         </is>
       </c>
-      <c r="D90" t="n">
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Fresh Entry</t>
+        </is>
+      </c>
+      <c r="E90" t="n">
         <v>0.051407</v>
-      </c>
-      <c r="E90" t="n">
-        <v>0</v>
       </c>
       <c r="F90" t="n">
         <v>0</v>
       </c>
       <c r="G90" t="n">
-        <v>0.051407</v>
+        <v>0</v>
       </c>
       <c r="H90" t="n">
         <v>0.051407</v>
       </c>
+      <c r="I90" t="n">
+        <v>0.051407</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -3339,20 +3789,25 @@
           <t>quant Small Cap Fund</t>
         </is>
       </c>
-      <c r="D91" t="n">
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Adding</t>
+        </is>
+      </c>
+      <c r="E91" t="n">
         <v>0.045133</v>
       </c>
-      <c r="E91" t="n">
+      <c r="F91" t="n">
         <v>0.043615</v>
       </c>
-      <c r="F91" t="n">
-        <v>0.049967</v>
-      </c>
       <c r="G91" t="n">
+        <v>0.060883</v>
+      </c>
+      <c r="H91" t="n">
         <v>0.001517999999999999</v>
       </c>
-      <c r="H91" t="n">
-        <v>-0.004833999999999998</v>
+      <c r="I91" t="n">
+        <v>-0.01575</v>
       </c>
     </row>
     <row r="92">
@@ -3371,19 +3826,24 @@
           <t>quant Small Cap Fund</t>
         </is>
       </c>
-      <c r="D92" t="n">
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Adding Consistently</t>
+        </is>
+      </c>
+      <c r="E92" t="n">
         <v>0.037485</v>
       </c>
-      <c r="E92" t="n">
+      <c r="F92" t="n">
         <v>0.037335</v>
       </c>
-      <c r="F92" t="n">
+      <c r="G92" t="n">
         <v>0</v>
       </c>
-      <c r="G92" t="n">
+      <c r="H92" t="n">
         <v>0.0001499999999999974</v>
       </c>
-      <c r="H92" t="n">
+      <c r="I92" t="n">
         <v>0.037485</v>
       </c>
     </row>
@@ -3403,20 +3863,25 @@
           <t>quant Small Cap Fund</t>
         </is>
       </c>
-      <c r="D93" t="n">
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Reducing Consistently</t>
+        </is>
+      </c>
+      <c r="E93" t="n">
         <v>0.033382</v>
       </c>
-      <c r="E93" t="n">
+      <c r="F93" t="n">
         <v>0.036628</v>
       </c>
-      <c r="F93" t="n">
-        <v>0.038833</v>
-      </c>
       <c r="G93" t="n">
+        <v>0.034957</v>
+      </c>
+      <c r="H93" t="n">
         <v>-0.003245999999999999</v>
       </c>
-      <c r="H93" t="n">
-        <v>-0.005450999999999998</v>
+      <c r="I93" t="n">
+        <v>-0.001575</v>
       </c>
     </row>
     <row r="94">
@@ -3435,20 +3900,25 @@
           <t>quant Small Cap Fund</t>
         </is>
       </c>
-      <c r="D94" t="n">
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Reducing Consistently</t>
+        </is>
+      </c>
+      <c r="E94" t="n">
         <v>0.004015</v>
       </c>
-      <c r="E94" t="n">
+      <c r="F94" t="n">
         <v>0.004603</v>
       </c>
-      <c r="F94" t="n">
-        <v>0.005088</v>
-      </c>
       <c r="G94" t="n">
+        <v>0.005279</v>
+      </c>
+      <c r="H94" t="n">
         <v>-0.000588</v>
       </c>
-      <c r="H94" t="n">
-        <v>-0.001072999999999999</v>
+      <c r="I94" t="n">
+        <v>-0.001263999999999999</v>
       </c>
     </row>
     <row r="95">
@@ -3467,31 +3937,36 @@
           <t>quant Small Cap Fund</t>
         </is>
       </c>
-      <c r="D95" t="n">
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
+      </c>
+      <c r="E95" t="n">
         <v>0</v>
       </c>
-      <c r="E95" t="n">
+      <c r="F95" t="n">
         <v>0.12718</v>
       </c>
-      <c r="F95" t="n">
-        <v>0.125428</v>
-      </c>
       <c r="G95" t="n">
+        <v>0.123753</v>
+      </c>
+      <c r="H95" t="n">
         <v>-0.12718</v>
       </c>
-      <c r="H95" t="n">
-        <v>-0.125428</v>
+      <c r="I95" t="n">
+        <v>-0.123753</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>INE258G01013</t>
+          <t>INE681B01017</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Sumitomo Chemical India Limited</t>
+          <t>Indraprastha Medical Corporation Limited</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -3499,20 +3974,25 @@
           <t>quant Small Cap Fund</t>
         </is>
       </c>
-      <c r="D96" t="n">
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
+      </c>
+      <c r="E96" t="n">
         <v>0</v>
       </c>
-      <c r="E96" t="n">
-        <v>0.031936</v>
-      </c>
       <c r="F96" t="n">
-        <v>0.031194</v>
+        <v>0</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.031936</v>
+        <v>0.143495</v>
       </c>
       <c r="H96" t="n">
-        <v>-0.031194</v>
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
+        <v>-0.143495</v>
       </c>
     </row>
     <row r="97">
@@ -3531,31 +4011,36 @@
           <t>quant Small Cap Fund</t>
         </is>
       </c>
-      <c r="D97" t="n">
-        <v>0</v>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
       </c>
       <c r="E97" t="n">
         <v>0</v>
       </c>
       <c r="F97" t="n">
-        <v>0.218202</v>
+        <v>0</v>
       </c>
       <c r="G97" t="n">
+        <v>0.215868</v>
+      </c>
+      <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="H97" t="n">
-        <v>-0.218202</v>
+      <c r="I97" t="n">
+        <v>-0.215868</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>INE922K01024</t>
+          <t>INE213A01029</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>INDIA SHELTER FIN CORP LTD</t>
+          <t>Oil and Natural Gas Corporation Ltd.</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -3563,31 +4048,36 @@
           <t>quant Small Cap Fund</t>
         </is>
       </c>
-      <c r="D98" t="n">
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
+      </c>
+      <c r="E98" t="n">
         <v>0</v>
       </c>
-      <c r="E98" t="n">
-        <v>0.219961</v>
-      </c>
       <c r="F98" t="n">
-        <v>0.237899</v>
+        <v>0.040329</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.219961</v>
+        <v>1.539301</v>
       </c>
       <c r="H98" t="n">
-        <v>-0.237899</v>
+        <v>-0.040329</v>
+      </c>
+      <c r="I98" t="n">
+        <v>-1.539301</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>INE423A20016</t>
+          <t>INE922K01024</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Adani Enterprises Limited Rights</t>
+          <t>INDIA SHELTER FIN CORP LTD</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -3595,31 +4085,36 @@
           <t>quant Small Cap Fund</t>
         </is>
       </c>
-      <c r="D99" t="n">
-        <v>0</v>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
       </c>
       <c r="E99" t="n">
         <v>0</v>
       </c>
       <c r="F99" t="n">
-        <v>0.043433</v>
+        <v>0.219961</v>
       </c>
       <c r="G99" t="n">
-        <v>0</v>
+        <v>0.294314</v>
       </c>
       <c r="H99" t="n">
-        <v>-0.043433</v>
+        <v>-0.219961</v>
+      </c>
+      <c r="I99" t="n">
+        <v>-0.294314</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>INE052T01013</t>
+          <t>INE258G01013</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Best Agrolife Limited</t>
+          <t>Sumitomo Chemical India Limited</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -3627,31 +4122,36 @@
           <t>quant Small Cap Fund</t>
         </is>
       </c>
-      <c r="D100" t="n">
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
+      </c>
+      <c r="E100" t="n">
         <v>0</v>
       </c>
-      <c r="E100" t="n">
-        <v>0.06390899999999999</v>
-      </c>
       <c r="F100" t="n">
-        <v>0.06653199999999999</v>
+        <v>0.031936</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.06390899999999999</v>
+        <v>0</v>
       </c>
       <c r="H100" t="n">
-        <v>-0.06653199999999999</v>
+        <v>-0.031936</v>
+      </c>
+      <c r="I100" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>INE213A01029</t>
+          <t>INE930P01018</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Oil and Natural Gas Corporation Ltd.</t>
+          <t>Anupam Rasayan India Limited</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -3659,20 +4159,136 @@
           <t>quant Small Cap Fund</t>
         </is>
       </c>
-      <c r="D101" t="n">
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
+      </c>
+      <c r="E101" t="n">
         <v>0</v>
       </c>
-      <c r="E101" t="n">
-        <v>0.040329</v>
-      </c>
       <c r="F101" t="n">
-        <v>1.482511</v>
+        <v>0</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.040329</v>
+        <v>0.153942</v>
       </c>
       <c r="H101" t="n">
-        <v>-1.482511</v>
+        <v>0</v>
+      </c>
+      <c r="I101" t="n">
+        <v>-0.153942</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>INE052T01013</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Best Agrolife Limited</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>quant Small Cap Fund</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
+      </c>
+      <c r="E102" t="n">
+        <v>0</v>
+      </c>
+      <c r="F102" t="n">
+        <v>0.06390899999999999</v>
+      </c>
+      <c r="G102" t="n">
+        <v>0.053689</v>
+      </c>
+      <c r="H102" t="n">
+        <v>-0.06390899999999999</v>
+      </c>
+      <c r="I102" t="n">
+        <v>-0.053689</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>INE013P01021</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>One Source Specialty Pharma Ltd</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>quant Small Cap Fund</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
+      </c>
+      <c r="E103" t="n">
+        <v>0</v>
+      </c>
+      <c r="F103" t="n">
+        <v>0</v>
+      </c>
+      <c r="G103" t="n">
+        <v>0.010017</v>
+      </c>
+      <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="n">
+        <v>-0.010017</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>INE148O01028</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Delhivery Limited</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>quant Small Cap Fund</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
+      </c>
+      <c r="E104" t="n">
+        <v>0</v>
+      </c>
+      <c r="F104" t="n">
+        <v>0</v>
+      </c>
+      <c r="G104" t="n">
+        <v>0.508482</v>
+      </c>
+      <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="n">
+        <v>-0.508482</v>
       </c>
     </row>
   </sheetData>

--- a/mf-intelligence/data/processed/quant/quant_Small_Cap_Fund_Equity_Holdings_Comparison.xlsx
+++ b/mf-intelligence/data/processed/quant/quant_Small_Cap_Fund_Equity_Holdings_Comparison.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I104"/>
+  <dimension ref="A1:J104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,35 +446,40 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Industry</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>Mutual Fund</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Status</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Jan_2026</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Dec_2025</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Oct_2025</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>MoM</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>QoQ</t>
         </is>
@@ -493,27 +498,32 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>quant Small Cap Fund</t>
+          <t>Petroleum Products</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>quant Small Cap Fund</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>Reducing Consistently</t>
         </is>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>9.461577999999999</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>9.789971</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>9.529057999999999</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>-0.3283930000000002</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>-0.06747999999999976</v>
       </c>
     </row>
@@ -530,27 +540,32 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>quant Small Cap Fund</t>
+          <t>Finance</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>quant Small Cap Fund</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>Reducing Consistently</t>
         </is>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>5.621754</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>5.990163</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
         <v>6.083792</v>
       </c>
-      <c r="H3" t="n">
+      <c r="I3" t="n">
         <v>-0.3684089999999998</v>
       </c>
-      <c r="I3" t="n">
+      <c r="J3" t="n">
         <v>-0.4620379999999997</v>
       </c>
     </row>
@@ -567,27 +582,32 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>quant Small Cap Fund</t>
+          <t>Banks</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>quant Small Cap Fund</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>Adding Consistently</t>
         </is>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>4.135782</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>4.019464</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>4.055724</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>0.1163179999999997</v>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>0.08005800000000018</v>
       </c>
     </row>
@@ -604,27 +624,32 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>quant Small Cap Fund</t>
+          <t>Gas</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>quant Small Cap Fund</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Adding Consistently</t>
         </is>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>3.517004</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>3.176445</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
         <v>3.24217</v>
       </c>
-      <c r="H5" t="n">
+      <c r="I5" t="n">
         <v>0.3405589999999998</v>
       </c>
-      <c r="I5" t="n">
+      <c r="J5" t="n">
         <v>0.2748339999999998</v>
       </c>
     </row>
@@ -641,27 +666,32 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>quant Small Cap Fund</t>
+          <t>Power</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>quant Small Cap Fund</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Adding</t>
         </is>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>2.987539</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
         <v>2.901156</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
         <v>3.127078</v>
       </c>
-      <c r="H6" t="n">
+      <c r="I6" t="n">
         <v>0.0863830000000001</v>
       </c>
-      <c r="I6" t="n">
+      <c r="J6" t="n">
         <v>-0.1395390000000001</v>
       </c>
     </row>
@@ -678,27 +708,32 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>quant Small Cap Fund</t>
+          <t>Entertainment</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>quant Small Cap Fund</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Adding Consistently</t>
         </is>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>2.975448</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
         <v>2.892171</v>
       </c>
-      <c r="G7" t="n">
+      <c r="H7" t="n">
         <v>1.899245</v>
       </c>
-      <c r="H7" t="n">
+      <c r="I7" t="n">
         <v>0.08327700000000027</v>
       </c>
-      <c r="I7" t="n">
+      <c r="J7" t="n">
         <v>1.076203</v>
       </c>
     </row>
@@ -715,27 +750,32 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>quant Small Cap Fund</t>
+          <t>Finance</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>quant Small Cap Fund</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Adding Consistently</t>
         </is>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>2.760392</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
         <v>2.391623</v>
       </c>
-      <c r="G8" t="n">
+      <c r="H8" t="n">
         <v>1.597818</v>
       </c>
-      <c r="H8" t="n">
+      <c r="I8" t="n">
         <v>0.3687689999999999</v>
       </c>
-      <c r="I8" t="n">
+      <c r="J8" t="n">
         <v>1.162574</v>
       </c>
     </row>
@@ -752,27 +792,32 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>quant Small Cap Fund</t>
+          <t>Capital Markets</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
+          <t>quant Small Cap Fund</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Reducing Consistently</t>
         </is>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>2.500822</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
         <v>2.691139</v>
       </c>
-      <c r="G9" t="n">
+      <c r="H9" t="n">
         <v>2.607372</v>
       </c>
-      <c r="H9" t="n">
+      <c r="I9" t="n">
         <v>-0.1903170000000003</v>
       </c>
-      <c r="I9" t="n">
+      <c r="J9" t="n">
         <v>-0.1065499999999999</v>
       </c>
     </row>
@@ -789,27 +834,32 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>quant Small Cap Fund</t>
+          <t>Healthcare Equipment &amp; Supplies</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
+          <t>quant Small Cap Fund</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Adding Consistently</t>
         </is>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>2.419872</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
         <v>2.058688</v>
       </c>
-      <c r="G10" t="n">
+      <c r="H10" t="n">
         <v>2.163527</v>
       </c>
-      <c r="H10" t="n">
+      <c r="I10" t="n">
         <v>0.3611839999999997</v>
       </c>
-      <c r="I10" t="n">
+      <c r="J10" t="n">
         <v>0.2563449999999996</v>
       </c>
     </row>
@@ -826,27 +876,32 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>quant Small Cap Fund</t>
+          <t>Leisure Services</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
+          <t>quant Small Cap Fund</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>Adding Consistently</t>
         </is>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>2.288202</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
         <v>2.151296</v>
       </c>
-      <c r="G11" t="n">
+      <c r="H11" t="n">
         <v>2.014287</v>
       </c>
-      <c r="H11" t="n">
+      <c r="I11" t="n">
         <v>0.1369060000000002</v>
       </c>
-      <c r="I11" t="n">
+      <c r="J11" t="n">
         <v>0.2739150000000001</v>
       </c>
     </row>
@@ -863,27 +918,32 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>quant Small Cap Fund</t>
+          <t>Healthcare Services</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
+          <t>quant Small Cap Fund</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>Reducing Consistently</t>
         </is>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>2.279483</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
         <v>2.341344</v>
       </c>
-      <c r="G12" t="n">
+      <c r="H12" t="n">
         <v>2.512905</v>
       </c>
-      <c r="H12" t="n">
+      <c r="I12" t="n">
         <v>-0.06186099999999994</v>
       </c>
-      <c r="I12" t="n">
+      <c r="J12" t="n">
         <v>-0.233422</v>
       </c>
     </row>
@@ -900,27 +960,32 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>quant Small Cap Fund</t>
+          <t>Telecom - Services</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
+          <t>quant Small Cap Fund</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
           <t>Adding Consistently</t>
         </is>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>2.254241</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
         <v>2.047787</v>
       </c>
-      <c r="G13" t="n">
+      <c r="H13" t="n">
         <v>1.821458</v>
       </c>
-      <c r="H13" t="n">
+      <c r="I13" t="n">
         <v>0.2064539999999999</v>
       </c>
-      <c r="I13" t="n">
+      <c r="J13" t="n">
         <v>0.4327829999999999</v>
       </c>
     </row>
@@ -937,27 +1002,32 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>quant Small Cap Fund</t>
+          <t>Food Products</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
+          <t>quant Small Cap Fund</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
           <t>Reducing Consistently</t>
         </is>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>2.083482</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
         <v>2.309177</v>
       </c>
-      <c r="G14" t="n">
+      <c r="H14" t="n">
         <v>2.19695</v>
       </c>
-      <c r="H14" t="n">
+      <c r="I14" t="n">
         <v>-0.225695</v>
       </c>
-      <c r="I14" t="n">
+      <c r="J14" t="n">
         <v>-0.1134680000000001</v>
       </c>
     </row>
@@ -974,27 +1044,32 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>quant Small Cap Fund</t>
+          <t>Finance</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
+          <t>quant Small Cap Fund</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
           <t>Adding</t>
         </is>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>1.837088</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
         <v>1.757263</v>
       </c>
-      <c r="G15" t="n">
+      <c r="H15" t="n">
         <v>1.893613</v>
       </c>
-      <c r="H15" t="n">
+      <c r="I15" t="n">
         <v>0.07982500000000003</v>
       </c>
-      <c r="I15" t="n">
+      <c r="J15" t="n">
         <v>-0.05652499999999994</v>
       </c>
     </row>
@@ -1011,27 +1086,32 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>quant Small Cap Fund</t>
+          <t>Metals &amp; Minerals Trading</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
+          <t>quant Small Cap Fund</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
           <t>Reducing Consistently</t>
         </is>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>1.821111</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
         <v>1.856074</v>
       </c>
-      <c r="G16" t="n">
+      <c r="H16" t="n">
         <v>2.007525</v>
       </c>
-      <c r="H16" t="n">
+      <c r="I16" t="n">
         <v>-0.03496300000000008</v>
       </c>
-      <c r="I16" t="n">
+      <c r="J16" t="n">
         <v>-0.1864139999999999</v>
       </c>
     </row>
@@ -1048,27 +1128,32 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>quant Small Cap Fund</t>
+          <t>Construction</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
+          <t>quant Small Cap Fund</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
           <t>Reducing</t>
         </is>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>1.769144</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
         <v>2.0035</v>
       </c>
-      <c r="G17" t="n">
+      <c r="H17" t="n">
         <v>1.653301</v>
       </c>
-      <c r="H17" t="n">
+      <c r="I17" t="n">
         <v>-0.2343559999999998</v>
       </c>
-      <c r="I17" t="n">
+      <c r="J17" t="n">
         <v>0.1158430000000001</v>
       </c>
     </row>
@@ -1085,27 +1170,32 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>quant Small Cap Fund</t>
+          <t>Power</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
+          <t>quant Small Cap Fund</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
           <t>Reducing</t>
         </is>
       </c>
-      <c r="E18" t="n">
+      <c r="F18" t="n">
         <v>1.691998</v>
       </c>
-      <c r="F18" t="n">
+      <c r="G18" t="n">
         <v>1.852774</v>
       </c>
-      <c r="G18" t="n">
+      <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="H18" t="n">
+      <c r="I18" t="n">
         <v>-0.160776</v>
       </c>
-      <c r="I18" t="n">
+      <c r="J18" t="n">
         <v>1.691998</v>
       </c>
     </row>
@@ -1122,27 +1212,32 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>quant Small Cap Fund</t>
+          <t>Fertilizers &amp; Agrochemicals</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
+          <t>quant Small Cap Fund</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
           <t>Adding Consistently</t>
         </is>
       </c>
-      <c r="E19" t="n">
+      <c r="F19" t="n">
         <v>1.69164</v>
       </c>
-      <c r="F19" t="n">
+      <c r="G19" t="n">
         <v>1.587268</v>
       </c>
-      <c r="G19" t="n">
+      <c r="H19" t="n">
         <v>1.579491</v>
       </c>
-      <c r="H19" t="n">
+      <c r="I19" t="n">
         <v>0.1043720000000001</v>
       </c>
-      <c r="I19" t="n">
+      <c r="J19" t="n">
         <v>0.1121490000000001</v>
       </c>
     </row>
@@ -1159,27 +1254,32 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>quant Small Cap Fund</t>
+          <t>Textiles &amp; Apparels</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
+          <t>quant Small Cap Fund</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
           <t>Adding Consistently</t>
         </is>
       </c>
-      <c r="E20" t="n">
+      <c r="F20" t="n">
         <v>1.688801</v>
       </c>
-      <c r="F20" t="n">
+      <c r="G20" t="n">
         <v>1.576053</v>
       </c>
-      <c r="G20" t="n">
+      <c r="H20" t="n">
         <v>1.477136</v>
       </c>
-      <c r="H20" t="n">
+      <c r="I20" t="n">
         <v>0.1127480000000001</v>
       </c>
-      <c r="I20" t="n">
+      <c r="J20" t="n">
         <v>0.211665</v>
       </c>
     </row>
@@ -1196,27 +1296,32 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>quant Small Cap Fund</t>
+          <t>Pharmaceuticals &amp; Biotechnology</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
+          <t>quant Small Cap Fund</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
           <t>Adding Consistently</t>
         </is>
       </c>
-      <c r="E21" t="n">
+      <c r="F21" t="n">
         <v>1.673107</v>
       </c>
-      <c r="F21" t="n">
+      <c r="G21" t="n">
         <v>1.575507</v>
       </c>
-      <c r="G21" t="n">
+      <c r="H21" t="n">
         <v>1.583105</v>
       </c>
-      <c r="H21" t="n">
+      <c r="I21" t="n">
         <v>0.09759999999999991</v>
       </c>
-      <c r="I21" t="n">
+      <c r="J21" t="n">
         <v>0.09000199999999992</v>
       </c>
     </row>
@@ -1233,27 +1338,32 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>quant Small Cap Fund</t>
+          <t>Industrial Products</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
+          <t>quant Small Cap Fund</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
           <t>Reducing Consistently</t>
         </is>
       </c>
-      <c r="E22" t="n">
+      <c r="F22" t="n">
         <v>1.601505</v>
       </c>
-      <c r="F22" t="n">
+      <c r="G22" t="n">
         <v>1.633434</v>
       </c>
-      <c r="G22" t="n">
+      <c r="H22" t="n">
         <v>1.633004</v>
       </c>
-      <c r="H22" t="n">
+      <c r="I22" t="n">
         <v>-0.0319290000000001</v>
       </c>
-      <c r="I22" t="n">
+      <c r="J22" t="n">
         <v>-0.03149899999999994</v>
       </c>
     </row>
@@ -1270,27 +1380,32 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>quant Small Cap Fund</t>
+          <t>Retailing</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
+          <t>quant Small Cap Fund</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
           <t>Reducing</t>
         </is>
       </c>
-      <c r="E23" t="n">
+      <c r="F23" t="n">
         <v>1.532076</v>
       </c>
-      <c r="F23" t="n">
+      <c r="G23" t="n">
         <v>1.711022</v>
       </c>
-      <c r="G23" t="n">
+      <c r="H23" t="n">
         <v>1.410798</v>
       </c>
-      <c r="H23" t="n">
+      <c r="I23" t="n">
         <v>-0.178946</v>
       </c>
-      <c r="I23" t="n">
+      <c r="J23" t="n">
         <v>0.121278</v>
       </c>
     </row>
@@ -1307,27 +1422,32 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>quant Small Cap Fund</t>
+          <t>Pharmaceuticals &amp; Biotechnology</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
+          <t>quant Small Cap Fund</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
           <t>Reducing</t>
         </is>
       </c>
-      <c r="E24" t="n">
+      <c r="F24" t="n">
         <v>1.524076</v>
       </c>
-      <c r="F24" t="n">
+      <c r="G24" t="n">
         <v>1.53146</v>
       </c>
-      <c r="G24" t="n">
+      <c r="H24" t="n">
         <v>1.494216</v>
       </c>
-      <c r="H24" t="n">
+      <c r="I24" t="n">
         <v>-0.007384000000000057</v>
       </c>
-      <c r="I24" t="n">
+      <c r="J24" t="n">
         <v>0.02986</v>
       </c>
     </row>
@@ -1344,27 +1464,32 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>quant Small Cap Fund</t>
+          <t>Food Products</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
+          <t>quant Small Cap Fund</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
           <t>Adding Consistently</t>
         </is>
       </c>
-      <c r="E25" t="n">
+      <c r="F25" t="n">
         <v>1.478918</v>
       </c>
-      <c r="F25" t="n">
+      <c r="G25" t="n">
         <v>1.378831</v>
       </c>
-      <c r="G25" t="n">
+      <c r="H25" t="n">
         <v>1.411446</v>
       </c>
-      <c r="H25" t="n">
+      <c r="I25" t="n">
         <v>0.100087</v>
       </c>
-      <c r="I25" t="n">
+      <c r="J25" t="n">
         <v>0.06747199999999998</v>
       </c>
     </row>
@@ -1381,27 +1506,32 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>quant Small Cap Fund</t>
+          <t>Auto Components</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
+          <t>quant Small Cap Fund</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
           <t>Adding Consistently</t>
         </is>
       </c>
-      <c r="E26" t="n">
+      <c r="F26" t="n">
         <v>1.470238</v>
       </c>
-      <c r="F26" t="n">
+      <c r="G26" t="n">
         <v>1.407774</v>
       </c>
-      <c r="G26" t="n">
+      <c r="H26" t="n">
         <v>1.349653</v>
       </c>
-      <c r="H26" t="n">
+      <c r="I26" t="n">
         <v>0.06246399999999985</v>
       </c>
-      <c r="I26" t="n">
+      <c r="J26" t="n">
         <v>0.1205849999999999</v>
       </c>
     </row>
@@ -1418,27 +1548,32 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>quant Small Cap Fund</t>
+          <t>Realty</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
+          <t>quant Small Cap Fund</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
           <t>Adding Consistently</t>
         </is>
       </c>
-      <c r="E27" t="n">
+      <c r="F27" t="n">
         <v>1.250535</v>
       </c>
-      <c r="F27" t="n">
+      <c r="G27" t="n">
         <v>1.209726</v>
       </c>
-      <c r="G27" t="n">
+      <c r="H27" t="n">
         <v>1.081991</v>
       </c>
-      <c r="H27" t="n">
+      <c r="I27" t="n">
         <v>0.04080899999999987</v>
       </c>
-      <c r="I27" t="n">
+      <c r="J27" t="n">
         <v>0.168544</v>
       </c>
     </row>
@@ -1455,27 +1590,32 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>quant Small Cap Fund</t>
+          <t>Construction</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
+          <t>quant Small Cap Fund</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
           <t>Reducing Consistently</t>
         </is>
       </c>
-      <c r="E28" t="n">
+      <c r="F28" t="n">
         <v>1.155854</v>
       </c>
-      <c r="F28" t="n">
+      <c r="G28" t="n">
         <v>1.17211</v>
       </c>
-      <c r="G28" t="n">
+      <c r="H28" t="n">
         <v>1.233458</v>
       </c>
-      <c r="H28" t="n">
+      <c r="I28" t="n">
         <v>-0.01625600000000005</v>
       </c>
-      <c r="I28" t="n">
+      <c r="J28" t="n">
         <v>-0.07760400000000001</v>
       </c>
     </row>
@@ -1492,27 +1632,32 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>quant Small Cap Fund</t>
+          <t>Industrial Products</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
+          <t>quant Small Cap Fund</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
           <t>Reducing Consistently</t>
         </is>
       </c>
-      <c r="E29" t="n">
+      <c r="F29" t="n">
         <v>1.150281</v>
       </c>
-      <c r="F29" t="n">
+      <c r="G29" t="n">
         <v>1.181058</v>
       </c>
-      <c r="G29" t="n">
+      <c r="H29" t="n">
         <v>1.367499</v>
       </c>
-      <c r="H29" t="n">
+      <c r="I29" t="n">
         <v>-0.03077699999999983</v>
       </c>
-      <c r="I29" t="n">
+      <c r="J29" t="n">
         <v>-0.2172179999999999</v>
       </c>
     </row>
@@ -1529,27 +1674,32 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>quant Small Cap Fund</t>
+          <t>Pharmaceuticals &amp; Biotechnology</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
+          <t>quant Small Cap Fund</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
           <t>Adding Consistently</t>
         </is>
       </c>
-      <c r="E30" t="n">
+      <c r="F30" t="n">
         <v>1.138823</v>
       </c>
-      <c r="F30" t="n">
+      <c r="G30" t="n">
         <v>1.074915</v>
       </c>
-      <c r="G30" t="n">
+      <c r="H30" t="n">
         <v>1.023713</v>
       </c>
-      <c r="H30" t="n">
+      <c r="I30" t="n">
         <v>0.06390799999999985</v>
       </c>
-      <c r="I30" t="n">
+      <c r="J30" t="n">
         <v>0.1151099999999998</v>
       </c>
     </row>
@@ -1566,27 +1716,32 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>quant Small Cap Fund</t>
+          <t>Realty</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
+          <t>quant Small Cap Fund</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
           <t>Adding</t>
         </is>
       </c>
-      <c r="E31" t="n">
+      <c r="F31" t="n">
         <v>1.132126</v>
       </c>
-      <c r="F31" t="n">
+      <c r="G31" t="n">
         <v>1.099763</v>
       </c>
-      <c r="G31" t="n">
+      <c r="H31" t="n">
         <v>1.150978</v>
       </c>
-      <c r="H31" t="n">
+      <c r="I31" t="n">
         <v>0.03236299999999992</v>
       </c>
-      <c r="I31" t="n">
+      <c r="J31" t="n">
         <v>-0.01885200000000009</v>
       </c>
     </row>
@@ -1603,27 +1758,32 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>quant Small Cap Fund</t>
+          <t>Auto Components</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
+          <t>quant Small Cap Fund</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
           <t>Adding Consistently</t>
         </is>
       </c>
-      <c r="E32" t="n">
+      <c r="F32" t="n">
         <v>1.093847</v>
       </c>
-      <c r="F32" t="n">
+      <c r="G32" t="n">
         <v>1.068398</v>
       </c>
-      <c r="G32" t="n">
+      <c r="H32" t="n">
         <v>0.785538</v>
       </c>
-      <c r="H32" t="n">
+      <c r="I32" t="n">
         <v>0.02544900000000005</v>
       </c>
-      <c r="I32" t="n">
+      <c r="J32" t="n">
         <v>0.3083090000000001</v>
       </c>
     </row>
@@ -1640,27 +1800,32 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>quant Small Cap Fund</t>
+          <t>Pharmaceuticals &amp; Biotechnology</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
+          <t>quant Small Cap Fund</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
           <t>Reducing Consistently</t>
         </is>
       </c>
-      <c r="E33" t="n">
+      <c r="F33" t="n">
         <v>1.056762</v>
       </c>
-      <c r="F33" t="n">
+      <c r="G33" t="n">
         <v>1.062032</v>
       </c>
-      <c r="G33" t="n">
+      <c r="H33" t="n">
         <v>1.063732</v>
       </c>
-      <c r="H33" t="n">
+      <c r="I33" t="n">
         <v>-0.005270000000000108</v>
       </c>
-      <c r="I33" t="n">
+      <c r="J33" t="n">
         <v>-0.006969999999999921</v>
       </c>
     </row>
@@ -1677,27 +1842,32 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>quant Small Cap Fund</t>
+          <t>Banks</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
+          <t>quant Small Cap Fund</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
           <t>Reducing</t>
         </is>
       </c>
-      <c r="E34" t="n">
+      <c r="F34" t="n">
         <v>0.980885</v>
       </c>
-      <c r="F34" t="n">
+      <c r="G34" t="n">
         <v>1.017995</v>
       </c>
-      <c r="G34" t="n">
+      <c r="H34" t="n">
         <v>0.862168</v>
       </c>
-      <c r="H34" t="n">
+      <c r="I34" t="n">
         <v>-0.03710999999999998</v>
       </c>
-      <c r="I34" t="n">
+      <c r="J34" t="n">
         <v>0.118717</v>
       </c>
     </row>
@@ -1714,27 +1884,32 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>quant Small Cap Fund</t>
+          <t>Pharmaceuticals &amp; Biotechnology</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
+          <t>quant Small Cap Fund</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
           <t>Adding Consistently</t>
         </is>
       </c>
-      <c r="E35" t="n">
+      <c r="F35" t="n">
         <v>0.928073</v>
       </c>
-      <c r="F35" t="n">
+      <c r="G35" t="n">
         <v>0.795698</v>
       </c>
-      <c r="G35" t="n">
+      <c r="H35" t="n">
         <v>0.87027</v>
       </c>
-      <c r="H35" t="n">
+      <c r="I35" t="n">
         <v>0.132375</v>
       </c>
-      <c r="I35" t="n">
+      <c r="J35" t="n">
         <v>0.05780300000000005</v>
       </c>
     </row>
@@ -1751,27 +1926,32 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>quant Small Cap Fund</t>
+          <t>Construction</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
+          <t>quant Small Cap Fund</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
           <t>Reducing Consistently</t>
         </is>
       </c>
-      <c r="E36" t="n">
+      <c r="F36" t="n">
         <v>0.925366</v>
       </c>
-      <c r="F36" t="n">
+      <c r="G36" t="n">
         <v>0.932186</v>
       </c>
-      <c r="G36" t="n">
+      <c r="H36" t="n">
         <v>1.089752</v>
       </c>
-      <c r="H36" t="n">
+      <c r="I36" t="n">
         <v>-0.006819999999999937</v>
       </c>
-      <c r="I36" t="n">
+      <c r="J36" t="n">
         <v>-0.164386</v>
       </c>
     </row>
@@ -1788,27 +1968,32 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>quant Small Cap Fund</t>
+          <t>Food Products</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
+          <t>quant Small Cap Fund</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
           <t>Reducing Consistently</t>
         </is>
       </c>
-      <c r="E37" t="n">
+      <c r="F37" t="n">
         <v>0.922881</v>
       </c>
-      <c r="F37" t="n">
+      <c r="G37" t="n">
         <v>0.951082</v>
       </c>
-      <c r="G37" t="n">
+      <c r="H37" t="n">
         <v>0.9624740000000001</v>
       </c>
-      <c r="H37" t="n">
+      <c r="I37" t="n">
         <v>-0.02820100000000003</v>
       </c>
-      <c r="I37" t="n">
+      <c r="J37" t="n">
         <v>-0.0395930000000001</v>
       </c>
     </row>
@@ -1825,27 +2010,32 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>quant Small Cap Fund</t>
+          <t>Retailing</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
+          <t>quant Small Cap Fund</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
           <t>Adding</t>
         </is>
       </c>
-      <c r="E38" t="n">
+      <c r="F38" t="n">
         <v>0.919845</v>
       </c>
-      <c r="F38" t="n">
+      <c r="G38" t="n">
         <v>0.917497</v>
       </c>
-      <c r="G38" t="n">
+      <c r="H38" t="n">
         <v>0.956677</v>
       </c>
-      <c r="H38" t="n">
+      <c r="I38" t="n">
         <v>0.002348000000000017</v>
       </c>
-      <c r="I38" t="n">
+      <c r="J38" t="n">
         <v>-0.03683199999999998</v>
       </c>
     </row>
@@ -1862,27 +2052,32 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>quant Small Cap Fund</t>
+          <t>Pharmaceuticals &amp; Biotechnology</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
+          <t>quant Small Cap Fund</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
           <t>Adding Consistently</t>
         </is>
       </c>
-      <c r="E39" t="n">
+      <c r="F39" t="n">
         <v>0.884838</v>
       </c>
-      <c r="F39" t="n">
+      <c r="G39" t="n">
         <v>0.883169</v>
       </c>
-      <c r="G39" t="n">
+      <c r="H39" t="n">
         <v>0.825231</v>
       </c>
-      <c r="H39" t="n">
+      <c r="I39" t="n">
         <v>0.001669000000000032</v>
       </c>
-      <c r="I39" t="n">
+      <c r="J39" t="n">
         <v>0.05960699999999997</v>
       </c>
     </row>
@@ -1899,27 +2094,32 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>quant Small Cap Fund</t>
+          <t>Pharmaceuticals &amp; Biotechnology</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
+          <t>quant Small Cap Fund</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
           <t>Adding</t>
         </is>
       </c>
-      <c r="E40" t="n">
+      <c r="F40" t="n">
         <v>0.806009</v>
       </c>
-      <c r="F40" t="n">
+      <c r="G40" t="n">
         <v>0.805594</v>
       </c>
-      <c r="G40" t="n">
+      <c r="H40" t="n">
         <v>0.857334</v>
       </c>
-      <c r="H40" t="n">
+      <c r="I40" t="n">
         <v>0.0004149999999999432</v>
       </c>
-      <c r="I40" t="n">
+      <c r="J40" t="n">
         <v>-0.05132500000000007</v>
       </c>
     </row>
@@ -1936,27 +2136,32 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>quant Small Cap Fund</t>
+          <t>Construction</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
+          <t>quant Small Cap Fund</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
           <t>Reducing Consistently</t>
         </is>
       </c>
-      <c r="E41" t="n">
+      <c r="F41" t="n">
         <v>0.804213</v>
       </c>
-      <c r="F41" t="n">
+      <c r="G41" t="n">
         <v>0.862704</v>
       </c>
-      <c r="G41" t="n">
+      <c r="H41" t="n">
         <v>0.975479</v>
       </c>
-      <c r="H41" t="n">
+      <c r="I41" t="n">
         <v>-0.05849100000000007</v>
       </c>
-      <c r="I41" t="n">
+      <c r="J41" t="n">
         <v>-0.171266</v>
       </c>
     </row>
@@ -1973,27 +2178,32 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>quant Small Cap Fund</t>
+          <t>Finance</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
+          <t>quant Small Cap Fund</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
           <t>Reducing Consistently</t>
         </is>
       </c>
-      <c r="E42" t="n">
+      <c r="F42" t="n">
         <v>0.787061</v>
       </c>
-      <c r="F42" t="n">
+      <c r="G42" t="n">
         <v>0.842314</v>
       </c>
-      <c r="G42" t="n">
+      <c r="H42" t="n">
         <v>0.898709</v>
       </c>
-      <c r="H42" t="n">
+      <c r="I42" t="n">
         <v>-0.055253</v>
       </c>
-      <c r="I42" t="n">
+      <c r="J42" t="n">
         <v>-0.111648</v>
       </c>
     </row>
@@ -2010,27 +2220,32 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>quant Small Cap Fund</t>
+          <t>Insurance</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
+          <t>quant Small Cap Fund</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
           <t>Adding Consistently</t>
         </is>
       </c>
-      <c r="E43" t="n">
+      <c r="F43" t="n">
         <v>0.620131</v>
       </c>
-      <c r="F43" t="n">
+      <c r="G43" t="n">
         <v>0.584853</v>
       </c>
-      <c r="G43" t="n">
+      <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="H43" t="n">
+      <c r="I43" t="n">
         <v>0.03527800000000003</v>
       </c>
-      <c r="I43" t="n">
+      <c r="J43" t="n">
         <v>0.620131</v>
       </c>
     </row>
@@ -2047,27 +2262,32 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>quant Small Cap Fund</t>
+          <t>Pharmaceuticals &amp; Biotechnology</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
+          <t>quant Small Cap Fund</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
           <t>Adding Consistently</t>
         </is>
       </c>
-      <c r="E44" t="n">
+      <c r="F44" t="n">
         <v>0.612621</v>
       </c>
-      <c r="F44" t="n">
+      <c r="G44" t="n">
         <v>0.537195</v>
       </c>
-      <c r="G44" t="n">
+      <c r="H44" t="n">
         <v>0.370064</v>
       </c>
-      <c r="H44" t="n">
+      <c r="I44" t="n">
         <v>0.07542599999999999</v>
       </c>
-      <c r="I44" t="n">
+      <c r="J44" t="n">
         <v>0.242557</v>
       </c>
     </row>
@@ -2084,27 +2304,32 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>quant Small Cap Fund</t>
+          <t>Chemicals &amp; Petrochemicals</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
+          <t>quant Small Cap Fund</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
           <t>Adding Consistently</t>
         </is>
       </c>
-      <c r="E45" t="n">
+      <c r="F45" t="n">
         <v>0.566976</v>
       </c>
-      <c r="F45" t="n">
+      <c r="G45" t="n">
         <v>0.524012</v>
       </c>
-      <c r="G45" t="n">
+      <c r="H45" t="n">
         <v>0.452921</v>
       </c>
-      <c r="H45" t="n">
+      <c r="I45" t="n">
         <v>0.042964</v>
       </c>
-      <c r="I45" t="n">
+      <c r="J45" t="n">
         <v>0.114055</v>
       </c>
     </row>
@@ -2121,27 +2346,32 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>quant Small Cap Fund</t>
+          <t>Auto Components</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
+          <t>quant Small Cap Fund</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
           <t>Adding Consistently</t>
         </is>
       </c>
-      <c r="E46" t="n">
+      <c r="F46" t="n">
         <v>0.561349</v>
       </c>
-      <c r="F46" t="n">
+      <c r="G46" t="n">
         <v>0.53332</v>
       </c>
-      <c r="G46" t="n">
+      <c r="H46" t="n">
         <v>0.515339</v>
       </c>
-      <c r="H46" t="n">
+      <c r="I46" t="n">
         <v>0.02802899999999997</v>
       </c>
-      <c r="I46" t="n">
+      <c r="J46" t="n">
         <v>0.04601</v>
       </c>
     </row>
@@ -2158,27 +2388,32 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>quant Small Cap Fund</t>
+          <t>Construction</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
+          <t>quant Small Cap Fund</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
           <t>Adding Consistently</t>
         </is>
       </c>
-      <c r="E47" t="n">
+      <c r="F47" t="n">
         <v>0.556196</v>
       </c>
-      <c r="F47" t="n">
+      <c r="G47" t="n">
         <v>0.4749</v>
       </c>
-      <c r="G47" t="n">
+      <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="H47" t="n">
+      <c r="I47" t="n">
         <v>0.08129600000000003</v>
       </c>
-      <c r="I47" t="n">
+      <c r="J47" t="n">
         <v>0.556196</v>
       </c>
     </row>
@@ -2195,27 +2430,32 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>quant Small Cap Fund</t>
+          <t>Industrial Products</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
+          <t>quant Small Cap Fund</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
           <t>Reducing</t>
         </is>
       </c>
-      <c r="E48" t="n">
+      <c r="F48" t="n">
         <v>0.553644</v>
       </c>
-      <c r="F48" t="n">
+      <c r="G48" t="n">
         <v>0.570764</v>
       </c>
-      <c r="G48" t="n">
+      <c r="H48" t="n">
         <v>0.521818</v>
       </c>
-      <c r="H48" t="n">
+      <c r="I48" t="n">
         <v>-0.01712000000000002</v>
       </c>
-      <c r="I48" t="n">
+      <c r="J48" t="n">
         <v>0.03182600000000002</v>
       </c>
     </row>
@@ -2232,27 +2472,32 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>quant Small Cap Fund</t>
+          <t>Textiles &amp; Apparels</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
+          <t>quant Small Cap Fund</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
           <t>Adding Consistently</t>
         </is>
       </c>
-      <c r="E49" t="n">
+      <c r="F49" t="n">
         <v>0.548588</v>
       </c>
-      <c r="F49" t="n">
+      <c r="G49" t="n">
         <v>0.531398</v>
       </c>
-      <c r="G49" t="n">
+      <c r="H49" t="n">
         <v>0.515202</v>
       </c>
-      <c r="H49" t="n">
+      <c r="I49" t="n">
         <v>0.01718999999999993</v>
       </c>
-      <c r="I49" t="n">
+      <c r="J49" t="n">
         <v>0.03338599999999992</v>
       </c>
     </row>
@@ -2269,27 +2514,32 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>quant Small Cap Fund</t>
+          <t>Fertilizers &amp; Agrochemicals</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
+          <t>quant Small Cap Fund</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
           <t>Adding Consistently</t>
         </is>
       </c>
-      <c r="E50" t="n">
+      <c r="F50" t="n">
         <v>0.516219</v>
       </c>
-      <c r="F50" t="n">
+      <c r="G50" t="n">
         <v>0.469597</v>
       </c>
-      <c r="G50" t="n">
+      <c r="H50" t="n">
         <v>0.479189</v>
       </c>
-      <c r="H50" t="n">
+      <c r="I50" t="n">
         <v>0.046622</v>
       </c>
-      <c r="I50" t="n">
+      <c r="J50" t="n">
         <v>0.03703000000000001</v>
       </c>
     </row>
@@ -2306,27 +2556,32 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>quant Small Cap Fund</t>
+          <t>Leisure Services</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
+          <t>quant Small Cap Fund</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
           <t>Reducing Consistently</t>
         </is>
       </c>
-      <c r="E51" t="n">
+      <c r="F51" t="n">
         <v>0.496127</v>
       </c>
-      <c r="F51" t="n">
+      <c r="G51" t="n">
         <v>0.5106889999999999</v>
       </c>
-      <c r="G51" t="n">
+      <c r="H51" t="n">
         <v>0.538784</v>
       </c>
-      <c r="H51" t="n">
+      <c r="I51" t="n">
         <v>-0.01456199999999996</v>
       </c>
-      <c r="I51" t="n">
+      <c r="J51" t="n">
         <v>-0.04265700000000006</v>
       </c>
     </row>
@@ -2343,27 +2598,32 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>quant Small Cap Fund</t>
+          <t>Leisure Services</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
+          <t>quant Small Cap Fund</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
           <t>Reducing Consistently</t>
         </is>
       </c>
-      <c r="E52" t="n">
+      <c r="F52" t="n">
         <v>0.470498</v>
       </c>
-      <c r="F52" t="n">
+      <c r="G52" t="n">
         <v>0.477535</v>
       </c>
-      <c r="G52" t="n">
+      <c r="H52" t="n">
         <v>0.525119</v>
       </c>
-      <c r="H52" t="n">
+      <c r="I52" t="n">
         <v>-0.00703699999999996</v>
       </c>
-      <c r="I52" t="n">
+      <c r="J52" t="n">
         <v>-0.05462099999999998</v>
       </c>
     </row>
@@ -2380,27 +2640,32 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>quant Small Cap Fund</t>
+          <t>Retailing</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
+          <t>quant Small Cap Fund</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
           <t>Reducing Consistently</t>
         </is>
       </c>
-      <c r="E53" t="n">
+      <c r="F53" t="n">
         <v>0.43852</v>
       </c>
-      <c r="F53" t="n">
+      <c r="G53" t="n">
         <v>0.466133</v>
       </c>
-      <c r="G53" t="n">
+      <c r="H53" t="n">
         <v>0.483942</v>
       </c>
-      <c r="H53" t="n">
+      <c r="I53" t="n">
         <v>-0.027613</v>
       </c>
-      <c r="I53" t="n">
+      <c r="J53" t="n">
         <v>-0.04542199999999996</v>
       </c>
     </row>
@@ -2417,27 +2682,32 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>quant Small Cap Fund</t>
+          <t>Textiles &amp; Apparels</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
+          <t>quant Small Cap Fund</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
           <t>Adding</t>
         </is>
       </c>
-      <c r="E54" t="n">
+      <c r="F54" t="n">
         <v>0.417815</v>
       </c>
-      <c r="F54" t="n">
+      <c r="G54" t="n">
         <v>0.416323</v>
       </c>
-      <c r="G54" t="n">
+      <c r="H54" t="n">
         <v>0.46128</v>
       </c>
-      <c r="H54" t="n">
+      <c r="I54" t="n">
         <v>0.001491999999999993</v>
       </c>
-      <c r="I54" t="n">
+      <c r="J54" t="n">
         <v>-0.04346500000000003</v>
       </c>
     </row>
@@ -2454,27 +2724,32 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>quant Small Cap Fund</t>
+          <t>Finance</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
+          <t>quant Small Cap Fund</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
           <t>Adding</t>
         </is>
       </c>
-      <c r="E55" t="n">
+      <c r="F55" t="n">
         <v>0.36701</v>
       </c>
-      <c r="F55" t="n">
+      <c r="G55" t="n">
         <v>0.341964</v>
       </c>
-      <c r="G55" t="n">
+      <c r="H55" t="n">
         <v>0.379953</v>
       </c>
-      <c r="H55" t="n">
+      <c r="I55" t="n">
         <v>0.02504600000000001</v>
       </c>
-      <c r="I55" t="n">
+      <c r="J55" t="n">
         <v>-0.01294299999999998</v>
       </c>
     </row>
@@ -2491,27 +2766,32 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>quant Small Cap Fund</t>
+          <t>IT - Services</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
+          <t>quant Small Cap Fund</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
           <t>Adding Consistently</t>
         </is>
       </c>
-      <c r="E56" t="n">
+      <c r="F56" t="n">
         <v>0.345066</v>
       </c>
-      <c r="F56" t="n">
+      <c r="G56" t="n">
         <v>0.334876</v>
       </c>
-      <c r="G56" t="n">
+      <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="H56" t="n">
+      <c r="I56" t="n">
         <v>0.01018999999999998</v>
       </c>
-      <c r="I56" t="n">
+      <c r="J56" t="n">
         <v>0.345066</v>
       </c>
     </row>
@@ -2528,27 +2808,32 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>quant Small Cap Fund</t>
+          <t>Pharmaceuticals &amp; Biotechnology</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
+          <t>quant Small Cap Fund</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
           <t>Adding</t>
         </is>
       </c>
-      <c r="E57" t="n">
+      <c r="F57" t="n">
         <v>0.333543</v>
       </c>
-      <c r="F57" t="n">
+      <c r="G57" t="n">
         <v>0.330755</v>
       </c>
-      <c r="G57" t="n">
+      <c r="H57" t="n">
         <v>0.384277</v>
       </c>
-      <c r="H57" t="n">
+      <c r="I57" t="n">
         <v>0.002787999999999957</v>
       </c>
-      <c r="I57" t="n">
+      <c r="J57" t="n">
         <v>-0.050734</v>
       </c>
     </row>
@@ -2565,27 +2850,32 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>quant Small Cap Fund</t>
+          <t>Textiles &amp; Apparels</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
+          <t>quant Small Cap Fund</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
           <t>Adding Consistently</t>
         </is>
       </c>
-      <c r="E58" t="n">
+      <c r="F58" t="n">
         <v>0.329047</v>
       </c>
-      <c r="F58" t="n">
+      <c r="G58" t="n">
         <v>0.288639</v>
       </c>
-      <c r="G58" t="n">
+      <c r="H58" t="n">
         <v>0.297403</v>
       </c>
-      <c r="H58" t="n">
+      <c r="I58" t="n">
         <v>0.040408</v>
       </c>
-      <c r="I58" t="n">
+      <c r="J58" t="n">
         <v>0.03164400000000001</v>
       </c>
     </row>
@@ -2602,27 +2892,32 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>quant Small Cap Fund</t>
+          <t>Chemicals &amp; Petrochemicals</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
+          <t>quant Small Cap Fund</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
           <t>Reducing</t>
         </is>
       </c>
-      <c r="E59" t="n">
+      <c r="F59" t="n">
         <v>0.305238</v>
       </c>
-      <c r="F59" t="n">
+      <c r="G59" t="n">
         <v>0.323195</v>
       </c>
-      <c r="G59" t="n">
+      <c r="H59" t="n">
         <v>0.246725</v>
       </c>
-      <c r="H59" t="n">
+      <c r="I59" t="n">
         <v>-0.017957</v>
       </c>
-      <c r="I59" t="n">
+      <c r="J59" t="n">
         <v>0.05851300000000001</v>
       </c>
     </row>
@@ -2639,27 +2934,32 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>quant Small Cap Fund</t>
+          <t>Agricultural Food &amp; other Products</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
+          <t>quant Small Cap Fund</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
           <t>Adding Consistently</t>
         </is>
       </c>
-      <c r="E60" t="n">
+      <c r="F60" t="n">
         <v>0.291744</v>
       </c>
-      <c r="F60" t="n">
+      <c r="G60" t="n">
         <v>0.283577</v>
       </c>
-      <c r="G60" t="n">
+      <c r="H60" t="n">
         <v>0.285951</v>
       </c>
-      <c r="H60" t="n">
+      <c r="I60" t="n">
         <v>0.00816699999999998</v>
       </c>
-      <c r="I60" t="n">
+      <c r="J60" t="n">
         <v>0.005792999999999993</v>
       </c>
     </row>
@@ -2676,27 +2976,32 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>quant Small Cap Fund</t>
+          <t>Beverages</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
+          <t>quant Small Cap Fund</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
           <t>Reducing Consistently</t>
         </is>
       </c>
-      <c r="E61" t="n">
+      <c r="F61" t="n">
         <v>0.280532</v>
       </c>
-      <c r="F61" t="n">
+      <c r="G61" t="n">
         <v>0.305641</v>
       </c>
-      <c r="G61" t="n">
+      <c r="H61" t="n">
         <v>0.346381</v>
       </c>
-      <c r="H61" t="n">
+      <c r="I61" t="n">
         <v>-0.02510899999999999</v>
       </c>
-      <c r="I61" t="n">
+      <c r="J61" t="n">
         <v>-0.06584899999999999</v>
       </c>
     </row>
@@ -2713,27 +3018,32 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>quant Small Cap Fund</t>
+          <t>Consumer Durables</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
+          <t>quant Small Cap Fund</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
           <t>Reducing Consistently</t>
         </is>
       </c>
-      <c r="E62" t="n">
+      <c r="F62" t="n">
         <v>0.275034</v>
       </c>
-      <c r="F62" t="n">
+      <c r="G62" t="n">
         <v>0.277239</v>
       </c>
-      <c r="G62" t="n">
+      <c r="H62" t="n">
         <v>0.643083</v>
       </c>
-      <c r="H62" t="n">
+      <c r="I62" t="n">
         <v>-0.002205000000000013</v>
       </c>
-      <c r="I62" t="n">
+      <c r="J62" t="n">
         <v>-0.368049</v>
       </c>
     </row>
@@ -2750,27 +3060,32 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>quant Small Cap Fund</t>
+          <t>Electrical Equipment</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
+          <t>quant Small Cap Fund</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
           <t>Adding Consistently</t>
         </is>
       </c>
-      <c r="E63" t="n">
+      <c r="F63" t="n">
         <v>0.256353</v>
       </c>
-      <c r="F63" t="n">
+      <c r="G63" t="n">
         <v>0.25429</v>
       </c>
-      <c r="G63" t="n">
+      <c r="H63" t="n">
         <v>0.254788</v>
       </c>
-      <c r="H63" t="n">
+      <c r="I63" t="n">
         <v>0.002062999999999982</v>
       </c>
-      <c r="I63" t="n">
+      <c r="J63" t="n">
         <v>0.001564999999999983</v>
       </c>
     </row>
@@ -2787,27 +3102,32 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>quant Small Cap Fund</t>
+          <t>Industrial Products</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
+          <t>quant Small Cap Fund</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
           <t>Adding Consistently</t>
         </is>
       </c>
-      <c r="E64" t="n">
+      <c r="F64" t="n">
         <v>0.247001</v>
       </c>
-      <c r="F64" t="n">
+      <c r="G64" t="n">
         <v>0.245105</v>
       </c>
-      <c r="G64" t="n">
+      <c r="H64" t="n">
         <v>0.242156</v>
       </c>
-      <c r="H64" t="n">
+      <c r="I64" t="n">
         <v>0.001896000000000009</v>
       </c>
-      <c r="I64" t="n">
+      <c r="J64" t="n">
         <v>0.004844999999999988</v>
       </c>
     </row>
@@ -2824,27 +3144,32 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>quant Small Cap Fund</t>
+          <t>Construction</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
+          <t>quant Small Cap Fund</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
           <t>Reducing Consistently</t>
         </is>
       </c>
-      <c r="E65" t="n">
+      <c r="F65" t="n">
         <v>0.24242</v>
       </c>
-      <c r="F65" t="n">
+      <c r="G65" t="n">
         <v>0.258898</v>
       </c>
-      <c r="G65" t="n">
+      <c r="H65" t="n">
         <v>0.294439</v>
       </c>
-      <c r="H65" t="n">
+      <c r="I65" t="n">
         <v>-0.01647800000000002</v>
       </c>
-      <c r="I65" t="n">
+      <c r="J65" t="n">
         <v>-0.05201900000000001</v>
       </c>
     </row>
@@ -2861,27 +3186,32 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>quant Small Cap Fund</t>
+          <t>Healthcare Services</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
+          <t>quant Small Cap Fund</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
           <t>Reducing Consistently</t>
         </is>
       </c>
-      <c r="E66" t="n">
+      <c r="F66" t="n">
         <v>0.228018</v>
       </c>
-      <c r="F66" t="n">
+      <c r="G66" t="n">
         <v>0.262457</v>
       </c>
-      <c r="G66" t="n">
+      <c r="H66" t="n">
         <v>0.304474</v>
       </c>
-      <c r="H66" t="n">
+      <c r="I66" t="n">
         <v>-0.034439</v>
       </c>
-      <c r="I66" t="n">
+      <c r="J66" t="n">
         <v>-0.07645600000000002</v>
       </c>
     </row>
@@ -2898,27 +3228,32 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>quant Small Cap Fund</t>
+          <t>Pharmaceuticals &amp; Biotechnology</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
+          <t>quant Small Cap Fund</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
           <t>Adding Consistently</t>
         </is>
       </c>
-      <c r="E67" t="n">
+      <c r="F67" t="n">
         <v>0.215007</v>
       </c>
-      <c r="F67" t="n">
+      <c r="G67" t="n">
         <v>0.193807</v>
       </c>
-      <c r="G67" t="n">
+      <c r="H67" t="n">
         <v>0.174169</v>
       </c>
-      <c r="H67" t="n">
+      <c r="I67" t="n">
         <v>0.0212</v>
       </c>
-      <c r="I67" t="n">
+      <c r="J67" t="n">
         <v>0.04083800000000001</v>
       </c>
     </row>
@@ -2935,27 +3270,32 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>quant Small Cap Fund</t>
+          <t>Industrial Products</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
+          <t>quant Small Cap Fund</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
           <t>Reducing Consistently</t>
         </is>
       </c>
-      <c r="E68" t="n">
+      <c r="F68" t="n">
         <v>0.211969</v>
       </c>
-      <c r="F68" t="n">
+      <c r="G68" t="n">
         <v>0.259404</v>
       </c>
-      <c r="G68" t="n">
+      <c r="H68" t="n">
         <v>0.34881</v>
       </c>
-      <c r="H68" t="n">
+      <c r="I68" t="n">
         <v>-0.04743500000000003</v>
       </c>
-      <c r="I68" t="n">
+      <c r="J68" t="n">
         <v>-0.136841</v>
       </c>
     </row>
@@ -2972,27 +3312,32 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>quant Small Cap Fund</t>
+          <t>Petroleum Products</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
+          <t>quant Small Cap Fund</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
           <t>Adding Consistently</t>
         </is>
       </c>
-      <c r="E69" t="n">
+      <c r="F69" t="n">
         <v>0.208514</v>
       </c>
-      <c r="F69" t="n">
+      <c r="G69" t="n">
         <v>0.200454</v>
       </c>
-      <c r="G69" t="n">
+      <c r="H69" t="n">
         <v>0.198224</v>
       </c>
-      <c r="H69" t="n">
+      <c r="I69" t="n">
         <v>0.008060000000000012</v>
       </c>
-      <c r="I69" t="n">
+      <c r="J69" t="n">
         <v>0.01028999999999999</v>
       </c>
     </row>
@@ -3009,27 +3354,32 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>quant Small Cap Fund</t>
+          <t>Chemicals &amp; Petrochemicals</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
+          <t>quant Small Cap Fund</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
           <t>Adding Consistently</t>
         </is>
       </c>
-      <c r="E70" t="n">
+      <c r="F70" t="n">
         <v>0.201925</v>
       </c>
-      <c r="F70" t="n">
+      <c r="G70" t="n">
         <v>0.193263</v>
       </c>
-      <c r="G70" t="n">
+      <c r="H70" t="n">
         <v>0.196195</v>
       </c>
-      <c r="H70" t="n">
+      <c r="I70" t="n">
         <v>0.008662000000000003</v>
       </c>
-      <c r="I70" t="n">
+      <c r="J70" t="n">
         <v>0.005729999999999985</v>
       </c>
     </row>
@@ -3046,27 +3396,32 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>quant Small Cap Fund</t>
+          <t>Textiles &amp; Apparels</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
+          <t>quant Small Cap Fund</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
           <t>Adding Consistently</t>
         </is>
       </c>
-      <c r="E71" t="n">
+      <c r="F71" t="n">
         <v>0.198222</v>
       </c>
-      <c r="F71" t="n">
+      <c r="G71" t="n">
         <v>0.189883</v>
       </c>
-      <c r="G71" t="n">
+      <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="H71" t="n">
+      <c r="I71" t="n">
         <v>0.008339000000000013</v>
       </c>
-      <c r="I71" t="n">
+      <c r="J71" t="n">
         <v>0.198222</v>
       </c>
     </row>
@@ -3083,27 +3438,32 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>quant Small Cap Fund</t>
+          <t>Realty</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
+          <t>quant Small Cap Fund</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
           <t>Adding</t>
         </is>
       </c>
-      <c r="E72" t="n">
+      <c r="F72" t="n">
         <v>0.192585</v>
       </c>
-      <c r="F72" t="n">
+      <c r="G72" t="n">
         <v>0.157253</v>
       </c>
-      <c r="G72" t="n">
+      <c r="H72" t="n">
         <v>0.242425</v>
       </c>
-      <c r="H72" t="n">
+      <c r="I72" t="n">
         <v>0.035332</v>
       </c>
-      <c r="I72" t="n">
+      <c r="J72" t="n">
         <v>-0.04984</v>
       </c>
     </row>
@@ -3120,27 +3480,32 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>quant Small Cap Fund</t>
+          <t>Chemicals &amp; Petrochemicals</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
+          <t>quant Small Cap Fund</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
           <t>Adding Consistently</t>
         </is>
       </c>
-      <c r="E73" t="n">
+      <c r="F73" t="n">
         <v>0.192413</v>
       </c>
-      <c r="F73" t="n">
+      <c r="G73" t="n">
         <v>0.187311</v>
       </c>
-      <c r="G73" t="n">
+      <c r="H73" t="n">
         <v>0.10663</v>
       </c>
-      <c r="H73" t="n">
+      <c r="I73" t="n">
         <v>0.005101999999999995</v>
       </c>
-      <c r="I73" t="n">
+      <c r="J73" t="n">
         <v>0.085783</v>
       </c>
     </row>
@@ -3157,27 +3522,32 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>quant Small Cap Fund</t>
+          <t>Minerals &amp; Mining</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
+          <t>quant Small Cap Fund</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
           <t>Reducing Consistently</t>
         </is>
       </c>
-      <c r="E74" t="n">
+      <c r="F74" t="n">
         <v>0.175187</v>
       </c>
-      <c r="F74" t="n">
+      <c r="G74" t="n">
         <v>0.180028</v>
       </c>
-      <c r="G74" t="n">
+      <c r="H74" t="n">
         <v>0.187474</v>
       </c>
-      <c r="H74" t="n">
+      <c r="I74" t="n">
         <v>-0.004840999999999984</v>
       </c>
-      <c r="I74" t="n">
+      <c r="J74" t="n">
         <v>-0.01228699999999999</v>
       </c>
     </row>
@@ -3194,27 +3564,32 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>quant Small Cap Fund</t>
+          <t>IT - Software</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
+          <t>quant Small Cap Fund</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
           <t>Adding</t>
         </is>
       </c>
-      <c r="E75" t="n">
+      <c r="F75" t="n">
         <v>0.168149</v>
       </c>
-      <c r="F75" t="n">
+      <c r="G75" t="n">
         <v>0.164292</v>
       </c>
-      <c r="G75" t="n">
+      <c r="H75" t="n">
         <v>0.187261</v>
       </c>
-      <c r="H75" t="n">
+      <c r="I75" t="n">
         <v>0.003856999999999999</v>
       </c>
-      <c r="I75" t="n">
+      <c r="J75" t="n">
         <v>-0.01911200000000002</v>
       </c>
     </row>
@@ -3231,27 +3606,32 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>quant Small Cap Fund</t>
+          <t>Finance</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
+          <t>quant Small Cap Fund</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
           <t>Adding Consistently</t>
         </is>
       </c>
-      <c r="E76" t="n">
+      <c r="F76" t="n">
         <v>0.166175</v>
       </c>
-      <c r="F76" t="n">
+      <c r="G76" t="n">
         <v>0.152948</v>
       </c>
-      <c r="G76" t="n">
+      <c r="H76" t="n">
         <v>0.156965</v>
       </c>
-      <c r="H76" t="n">
+      <c r="I76" t="n">
         <v>0.01322699999999999</v>
       </c>
-      <c r="I76" t="n">
+      <c r="J76" t="n">
         <v>0.009209999999999996</v>
       </c>
     </row>
@@ -3268,27 +3648,32 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>quant Small Cap Fund</t>
+          <t>Construction</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
+          <t>quant Small Cap Fund</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
           <t>Reducing Consistently</t>
         </is>
       </c>
-      <c r="E77" t="n">
+      <c r="F77" t="n">
         <v>0.164482</v>
       </c>
-      <c r="F77" t="n">
+      <c r="G77" t="n">
         <v>0.173101</v>
       </c>
-      <c r="G77" t="n">
+      <c r="H77" t="n">
         <v>0.190508</v>
       </c>
-      <c r="H77" t="n">
+      <c r="I77" t="n">
         <v>-0.008619000000000016</v>
       </c>
-      <c r="I77" t="n">
+      <c r="J77" t="n">
         <v>-0.02602600000000002</v>
       </c>
     </row>
@@ -3305,27 +3690,32 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>quant Small Cap Fund</t>
+          <t>Electrical Equipment</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
+          <t>quant Small Cap Fund</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
           <t>Reducing Consistently</t>
         </is>
       </c>
-      <c r="E78" t="n">
+      <c r="F78" t="n">
         <v>0.157755</v>
       </c>
-      <c r="F78" t="n">
+      <c r="G78" t="n">
         <v>0.171187</v>
       </c>
-      <c r="G78" t="n">
+      <c r="H78" t="n">
         <v>0.197576</v>
       </c>
-      <c r="H78" t="n">
+      <c r="I78" t="n">
         <v>-0.013432</v>
       </c>
-      <c r="I78" t="n">
+      <c r="J78" t="n">
         <v>-0.039821</v>
       </c>
     </row>
@@ -3342,27 +3732,32 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>quant Small Cap Fund</t>
+          <t>IT - Services</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
+          <t>quant Small Cap Fund</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
           <t>Reducing</t>
         </is>
       </c>
-      <c r="E79" t="n">
+      <c r="F79" t="n">
         <v>0.111814</v>
       </c>
-      <c r="F79" t="n">
+      <c r="G79" t="n">
         <v>0.118387</v>
       </c>
-      <c r="G79" t="n">
+      <c r="H79" t="n">
         <v>0.087579</v>
       </c>
-      <c r="H79" t="n">
+      <c r="I79" t="n">
         <v>-0.006573000000000009</v>
       </c>
-      <c r="I79" t="n">
+      <c r="J79" t="n">
         <v>0.02423499999999999</v>
       </c>
     </row>
@@ -3379,27 +3774,32 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>quant Small Cap Fund</t>
+          <t>Leisure Services</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
+          <t>quant Small Cap Fund</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
           <t>Adding Consistently</t>
         </is>
       </c>
-      <c r="E80" t="n">
+      <c r="F80" t="n">
         <v>0.107956</v>
       </c>
-      <c r="F80" t="n">
+      <c r="G80" t="n">
         <v>0.103751</v>
       </c>
-      <c r="G80" t="n">
+      <c r="H80" t="n">
         <v>0.107675</v>
       </c>
-      <c r="H80" t="n">
+      <c r="I80" t="n">
         <v>0.004205</v>
       </c>
-      <c r="I80" t="n">
+      <c r="J80" t="n">
         <v>0.0002809999999999896</v>
       </c>
     </row>
@@ -3416,27 +3816,32 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>quant Small Cap Fund</t>
+          <t>Industrial Manufacturing</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
+          <t>quant Small Cap Fund</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
           <t>Adding Consistently</t>
         </is>
       </c>
-      <c r="E81" t="n">
+      <c r="F81" t="n">
         <v>0.107523</v>
       </c>
-      <c r="F81" t="n">
+      <c r="G81" t="n">
         <v>0.105236</v>
       </c>
-      <c r="G81" t="n">
+      <c r="H81" t="n">
         <v>0.090283</v>
       </c>
-      <c r="H81" t="n">
+      <c r="I81" t="n">
         <v>0.002286999999999997</v>
       </c>
-      <c r="I81" t="n">
+      <c r="J81" t="n">
         <v>0.01723999999999999</v>
       </c>
     </row>
@@ -3453,27 +3858,32 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>quant Small Cap Fund</t>
+          <t>IT - Software</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
+          <t>quant Small Cap Fund</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
           <t>Reducing Consistently</t>
         </is>
       </c>
-      <c r="E82" t="n">
+      <c r="F82" t="n">
         <v>0.107027</v>
       </c>
-      <c r="F82" t="n">
+      <c r="G82" t="n">
         <v>0.142884</v>
       </c>
-      <c r="G82" t="n">
+      <c r="H82" t="n">
         <v>0.161139</v>
       </c>
-      <c r="H82" t="n">
+      <c r="I82" t="n">
         <v>-0.03585700000000001</v>
       </c>
-      <c r="I82" t="n">
+      <c r="J82" t="n">
         <v>-0.05411200000000001</v>
       </c>
     </row>
@@ -3490,27 +3900,32 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>quant Small Cap Fund</t>
+          <t>Industrial Products</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
+          <t>quant Small Cap Fund</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
           <t>Adding Consistently</t>
         </is>
       </c>
-      <c r="E83" t="n">
+      <c r="F83" t="n">
         <v>0.102408</v>
       </c>
-      <c r="F83" t="n">
+      <c r="G83" t="n">
         <v>0.097876</v>
       </c>
-      <c r="G83" t="n">
+      <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="H83" t="n">
+      <c r="I83" t="n">
         <v>0.004531999999999994</v>
       </c>
-      <c r="I83" t="n">
+      <c r="J83" t="n">
         <v>0.102408</v>
       </c>
     </row>
@@ -3527,27 +3942,32 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>quant Small Cap Fund</t>
+          <t>Pharmaceuticals &amp; Biotechnology</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
+          <t>quant Small Cap Fund</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
           <t>Adding</t>
         </is>
       </c>
-      <c r="E84" t="n">
+      <c r="F84" t="n">
         <v>0.093768</v>
       </c>
-      <c r="F84" t="n">
+      <c r="G84" t="n">
         <v>0.087702</v>
       </c>
-      <c r="G84" t="n">
+      <c r="H84" t="n">
         <v>0.10016</v>
       </c>
-      <c r="H84" t="n">
+      <c r="I84" t="n">
         <v>0.006066000000000002</v>
       </c>
-      <c r="I84" t="n">
+      <c r="J84" t="n">
         <v>-0.006391999999999995</v>
       </c>
     </row>
@@ -3564,27 +3984,32 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>quant Small Cap Fund</t>
+          <t>Consumer Durables</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
+          <t>quant Small Cap Fund</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
           <t>Reducing</t>
         </is>
       </c>
-      <c r="E85" t="n">
+      <c r="F85" t="n">
         <v>0.088648</v>
       </c>
-      <c r="F85" t="n">
+      <c r="G85" t="n">
         <v>0.095058</v>
       </c>
-      <c r="G85" t="n">
+      <c r="H85" t="n">
         <v>0.083632</v>
       </c>
-      <c r="H85" t="n">
+      <c r="I85" t="n">
         <v>-0.006409999999999999</v>
       </c>
-      <c r="I85" t="n">
+      <c r="J85" t="n">
         <v>0.005016000000000007</v>
       </c>
     </row>
@@ -3601,27 +4026,32 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>quant Small Cap Fund</t>
+          <t>Retailing</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
+          <t>quant Small Cap Fund</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
           <t>Reducing Consistently</t>
         </is>
       </c>
-      <c r="E86" t="n">
+      <c r="F86" t="n">
         <v>0.08568099999999999</v>
       </c>
-      <c r="F86" t="n">
+      <c r="G86" t="n">
         <v>0.110371</v>
       </c>
-      <c r="G86" t="n">
+      <c r="H86" t="n">
         <v>0.12516</v>
       </c>
-      <c r="H86" t="n">
+      <c r="I86" t="n">
         <v>-0.02469</v>
       </c>
-      <c r="I86" t="n">
+      <c r="J86" t="n">
         <v>-0.039479</v>
       </c>
     </row>
@@ -3638,27 +4068,32 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>quant Small Cap Fund</t>
+          <t>Construction</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
+          <t>quant Small Cap Fund</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
           <t>Reducing Consistently</t>
         </is>
       </c>
-      <c r="E87" t="n">
+      <c r="F87" t="n">
         <v>0.082398</v>
       </c>
-      <c r="F87" t="n">
+      <c r="G87" t="n">
         <v>0.089935</v>
       </c>
-      <c r="G87" t="n">
+      <c r="H87" t="n">
         <v>0.152725</v>
       </c>
-      <c r="H87" t="n">
+      <c r="I87" t="n">
         <v>-0.007537000000000002</v>
       </c>
-      <c r="I87" t="n">
+      <c r="J87" t="n">
         <v>-0.070327</v>
       </c>
     </row>
@@ -3675,27 +4110,32 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>quant Small Cap Fund</t>
+          <t>Leisure Services</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
+          <t>quant Small Cap Fund</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
           <t>Adding</t>
         </is>
       </c>
-      <c r="E88" t="n">
+      <c r="F88" t="n">
         <v>0.075681</v>
       </c>
-      <c r="F88" t="n">
+      <c r="G88" t="n">
         <v>0.070594</v>
       </c>
-      <c r="G88" t="n">
+      <c r="H88" t="n">
         <v>0.132231</v>
       </c>
-      <c r="H88" t="n">
+      <c r="I88" t="n">
         <v>0.005086999999999994</v>
       </c>
-      <c r="I88" t="n">
+      <c r="J88" t="n">
         <v>-0.05654999999999999</v>
       </c>
     </row>
@@ -3712,29 +4152,34 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>quant Small Cap Fund</t>
+          <t>Fertilizers &amp; Agrochemicals</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
+          <t>quant Small Cap Fund</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
           <t>Fresh Entry</t>
         </is>
       </c>
-      <c r="E89" t="n">
+      <c r="F89" t="n">
         <v>0.051901</v>
-      </c>
-      <c r="F89" t="n">
-        <v>0</v>
       </c>
       <c r="G89" t="n">
         <v>0</v>
       </c>
       <c r="H89" t="n">
-        <v>0.051901</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0.051901</v>
       </c>
+      <c r="J89" t="n">
+        <v>0.051901</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -3749,29 +4194,34 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>quant Small Cap Fund</t>
+          <t>Personal Products</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
+          <t>quant Small Cap Fund</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
           <t>Fresh Entry</t>
         </is>
       </c>
-      <c r="E90" t="n">
+      <c r="F90" t="n">
         <v>0.051407</v>
-      </c>
-      <c r="F90" t="n">
-        <v>0</v>
       </c>
       <c r="G90" t="n">
         <v>0</v>
       </c>
       <c r="H90" t="n">
-        <v>0.051407</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>0.051407</v>
       </c>
+      <c r="J90" t="n">
+        <v>0.051407</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -3786,27 +4236,32 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>quant Small Cap Fund</t>
+          <t>Consumer Durables</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
+          <t>quant Small Cap Fund</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
           <t>Adding</t>
         </is>
       </c>
-      <c r="E91" t="n">
+      <c r="F91" t="n">
         <v>0.045133</v>
       </c>
-      <c r="F91" t="n">
+      <c r="G91" t="n">
         <v>0.043615</v>
       </c>
-      <c r="G91" t="n">
+      <c r="H91" t="n">
         <v>0.060883</v>
       </c>
-      <c r="H91" t="n">
+      <c r="I91" t="n">
         <v>0.001517999999999999</v>
       </c>
-      <c r="I91" t="n">
+      <c r="J91" t="n">
         <v>-0.01575</v>
       </c>
     </row>
@@ -3823,27 +4278,32 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>quant Small Cap Fund</t>
+          <t>Electrical Equipment</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
+          <t>quant Small Cap Fund</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
           <t>Adding Consistently</t>
         </is>
       </c>
-      <c r="E92" t="n">
+      <c r="F92" t="n">
         <v>0.037485</v>
       </c>
-      <c r="F92" t="n">
+      <c r="G92" t="n">
         <v>0.037335</v>
       </c>
-      <c r="G92" t="n">
+      <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="H92" t="n">
+      <c r="I92" t="n">
         <v>0.0001499999999999974</v>
       </c>
-      <c r="I92" t="n">
+      <c r="J92" t="n">
         <v>0.037485</v>
       </c>
     </row>
@@ -3860,27 +4320,32 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>quant Small Cap Fund</t>
+          <t>Chemicals &amp; Petrochemicals</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
+          <t>quant Small Cap Fund</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
           <t>Reducing Consistently</t>
         </is>
       </c>
-      <c r="E93" t="n">
+      <c r="F93" t="n">
         <v>0.033382</v>
       </c>
-      <c r="F93" t="n">
+      <c r="G93" t="n">
         <v>0.036628</v>
       </c>
-      <c r="G93" t="n">
+      <c r="H93" t="n">
         <v>0.034957</v>
       </c>
-      <c r="H93" t="n">
+      <c r="I93" t="n">
         <v>-0.003245999999999999</v>
       </c>
-      <c r="I93" t="n">
+      <c r="J93" t="n">
         <v>-0.001575</v>
       </c>
     </row>
@@ -3897,27 +4362,32 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>quant Small Cap Fund</t>
+          <t>Construction</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
+          <t>quant Small Cap Fund</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
           <t>Reducing Consistently</t>
         </is>
       </c>
-      <c r="E94" t="n">
+      <c r="F94" t="n">
         <v>0.004015</v>
       </c>
-      <c r="F94" t="n">
+      <c r="G94" t="n">
         <v>0.004603</v>
       </c>
-      <c r="G94" t="n">
+      <c r="H94" t="n">
         <v>0.005279</v>
       </c>
-      <c r="H94" t="n">
+      <c r="I94" t="n">
         <v>-0.000588</v>
       </c>
-      <c r="I94" t="n">
+      <c r="J94" t="n">
         <v>-0.001263999999999999</v>
       </c>
     </row>
@@ -3934,27 +4404,32 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>quant Small Cap Fund</t>
+          <t>Textiles &amp; Apparels</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
+          <t>quant Small Cap Fund</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E95" t="n">
+      <c r="F95" t="n">
         <v>0</v>
       </c>
-      <c r="F95" t="n">
+      <c r="G95" t="n">
         <v>0.12718</v>
       </c>
-      <c r="G95" t="n">
+      <c r="H95" t="n">
         <v>0.123753</v>
       </c>
-      <c r="H95" t="n">
+      <c r="I95" t="n">
         <v>-0.12718</v>
       </c>
-      <c r="I95" t="n">
+      <c r="J95" t="n">
         <v>-0.123753</v>
       </c>
     </row>
@@ -3971,27 +4446,32 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>quant Small Cap Fund</t>
+          <t>Healthcare Services</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
+          <t>quant Small Cap Fund</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
-      </c>
-      <c r="E96" t="n">
-        <v>0</v>
       </c>
       <c r="F96" t="n">
         <v>0</v>
       </c>
       <c r="G96" t="n">
+        <v>0</v>
+      </c>
+      <c r="H96" t="n">
         <v>0.143495</v>
       </c>
-      <c r="H96" t="n">
+      <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
+      <c r="J96" t="n">
         <v>-0.143495</v>
       </c>
     </row>
@@ -4008,27 +4488,32 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>quant Small Cap Fund</t>
+          <t>Insurance</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
+          <t>quant Small Cap Fund</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
-      </c>
-      <c r="E97" t="n">
-        <v>0</v>
       </c>
       <c r="F97" t="n">
         <v>0</v>
       </c>
       <c r="G97" t="n">
+        <v>0</v>
+      </c>
+      <c r="H97" t="n">
         <v>0.215868</v>
       </c>
-      <c r="H97" t="n">
+      <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
+      <c r="J97" t="n">
         <v>-0.215868</v>
       </c>
     </row>
@@ -4045,27 +4530,32 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>quant Small Cap Fund</t>
+          <t>Oil</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
+          <t>quant Small Cap Fund</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E98" t="n">
+      <c r="F98" t="n">
         <v>0</v>
       </c>
-      <c r="F98" t="n">
+      <c r="G98" t="n">
         <v>0.040329</v>
       </c>
-      <c r="G98" t="n">
+      <c r="H98" t="n">
         <v>1.539301</v>
       </c>
-      <c r="H98" t="n">
+      <c r="I98" t="n">
         <v>-0.040329</v>
       </c>
-      <c r="I98" t="n">
+      <c r="J98" t="n">
         <v>-1.539301</v>
       </c>
     </row>
@@ -4082,27 +4572,32 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>quant Small Cap Fund</t>
+          <t>Finance</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
+          <t>quant Small Cap Fund</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E99" t="n">
+      <c r="F99" t="n">
         <v>0</v>
       </c>
-      <c r="F99" t="n">
+      <c r="G99" t="n">
         <v>0.219961</v>
       </c>
-      <c r="G99" t="n">
+      <c r="H99" t="n">
         <v>0.294314</v>
       </c>
-      <c r="H99" t="n">
+      <c r="I99" t="n">
         <v>-0.219961</v>
       </c>
-      <c r="I99" t="n">
+      <c r="J99" t="n">
         <v>-0.294314</v>
       </c>
     </row>
@@ -4119,27 +4614,32 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>quant Small Cap Fund</t>
+          <t>Fertilizers &amp; Agrochemicals</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
+          <t>quant Small Cap Fund</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E100" t="n">
+      <c r="F100" t="n">
         <v>0</v>
       </c>
-      <c r="F100" t="n">
+      <c r="G100" t="n">
         <v>0.031936</v>
       </c>
-      <c r="G100" t="n">
+      <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="H100" t="n">
+      <c r="I100" t="n">
         <v>-0.031936</v>
       </c>
-      <c r="I100" t="n">
+      <c r="J100" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4156,27 +4656,32 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>quant Small Cap Fund</t>
+          <t>Chemicals &amp; Petrochemicals</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
+          <t>quant Small Cap Fund</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
-      </c>
-      <c r="E101" t="n">
-        <v>0</v>
       </c>
       <c r="F101" t="n">
         <v>0</v>
       </c>
       <c r="G101" t="n">
+        <v>0</v>
+      </c>
+      <c r="H101" t="n">
         <v>0.153942</v>
       </c>
-      <c r="H101" t="n">
+      <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
+      <c r="J101" t="n">
         <v>-0.153942</v>
       </c>
     </row>
@@ -4193,27 +4698,32 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>quant Small Cap Fund</t>
+          <t>Fertilizers &amp; Agrochemicals</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
+          <t>quant Small Cap Fund</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E102" t="n">
+      <c r="F102" t="n">
         <v>0</v>
       </c>
-      <c r="F102" t="n">
+      <c r="G102" t="n">
         <v>0.06390899999999999</v>
       </c>
-      <c r="G102" t="n">
+      <c r="H102" t="n">
         <v>0.053689</v>
       </c>
-      <c r="H102" t="n">
+      <c r="I102" t="n">
         <v>-0.06390899999999999</v>
       </c>
-      <c r="I102" t="n">
+      <c r="J102" t="n">
         <v>-0.053689</v>
       </c>
     </row>
@@ -4230,27 +4740,32 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>quant Small Cap Fund</t>
+          <t>Pharmaceuticals &amp; Biotechnology</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
+          <t>quant Small Cap Fund</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
-      </c>
-      <c r="E103" t="n">
-        <v>0</v>
       </c>
       <c r="F103" t="n">
         <v>0</v>
       </c>
       <c r="G103" t="n">
+        <v>0</v>
+      </c>
+      <c r="H103" t="n">
         <v>0.010017</v>
       </c>
-      <c r="H103" t="n">
+      <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
+      <c r="J103" t="n">
         <v>-0.010017</v>
       </c>
     </row>
@@ -4267,27 +4782,32 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>quant Small Cap Fund</t>
+          <t>Transport Services</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
+          <t>quant Small Cap Fund</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
-      </c>
-      <c r="E104" t="n">
-        <v>0</v>
       </c>
       <c r="F104" t="n">
         <v>0</v>
       </c>
       <c r="G104" t="n">
+        <v>0</v>
+      </c>
+      <c r="H104" t="n">
         <v>0.508482</v>
       </c>
-      <c r="H104" t="n">
+      <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
+      <c r="J104" t="n">
         <v>-0.508482</v>
       </c>
     </row>
